--- a/00 - Recolha de Requisitos/RegistodePesquisas.xlsx
+++ b/00 - Recolha de Requisitos/RegistodePesquisas.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2DFD529E-F432-4335-B418-F7F8FC3A658D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6FEBEC0-B44C-42C1-9A0C-D54ABB4E8A4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Registo de Convites" sheetId="1" r:id="rId1"/>
+    <sheet name="Registo de Pesquisas" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -74,6 +74,57 @@
   <si>
     <t>Registo de Pesquisas PECI</t>
   </si>
+  <si>
+    <t>https://dl.acm.org/doi/10.1145/3388770.3407430</t>
+  </si>
+  <si>
+    <t>Adaptar um smartphone a óculos VR de modo a que este funcione como sendo um comando HMD</t>
+  </si>
+  <si>
+    <t>Baseada em 2 recursos AR:
+Cloud Anchor
+Plane Finding</t>
+  </si>
+  <si>
+    <t>A posição do comando estava desalinhada com a posição atual, tornando dificil a utilização, seria possível melhorar com o pressionamento premanente de um botão do smartphone</t>
+  </si>
+  <si>
+    <t>1 - "Plane Finding" para detetar a posição 6DoF do Smartphone
+2 - HMD recolhe as coordenadas 6DoF com recurso a IO-tracking
+3 - Utilizando "Cloud Anchor" sincroniza as coordenadas 6DoF de ambos os dispositivos
+4 - O dispositivo HMD  mostra um CG de uma mão nas coordenadas do smartphone</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Open Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+TrackCap (ou outro dispositivo HMD)
+Smartphone 6DoF
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
+        <rFont val="Open Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>Manipulação de Objetos sem sensores usando VR com tecnologias acessíveis</t>
+  </si>
+  <si>
+    <t>Keisuke Hattori
+Tatsunori Hirai</t>
+  </si>
 </sst>
 </file>
 
@@ -86,7 +137,7 @@
     <numFmt numFmtId="165" formatCode="#,##0_ ;\-#,##0\ "/>
     <numFmt numFmtId="166" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
   </numFmts>
-  <fonts count="44" x14ac:knownFonts="1">
+  <fonts count="49" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -393,6 +444,40 @@
       <b/>
       <u/>
       <sz val="28"/>
+      <color rgb="FF818B8A"/>
+      <name val="Franklin Gothic Book"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <name val="Franklin Gothic Book"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Franklin Gothic Book"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF333333"/>
+      <name val="Open Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Open Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF818B8A"/>
       <name val="Franklin Gothic Book"/>
       <family val="2"/>
@@ -707,7 +792,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="47">
+  <cellStyleXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="166" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -755,8 +840,9 @@
     <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -863,17 +949,50 @@
     <xf numFmtId="165" fontId="23" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="47" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="47">
+  <cellStyles count="48">
     <cellStyle name="20% - Cor1" xfId="25" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Cor2" xfId="28" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Cor3" xfId="32" builtinId="38" customBuiltin="1"/>
@@ -906,6 +1025,7 @@
     <cellStyle name="Cor6" xfId="43" builtinId="49" customBuiltin="1"/>
     <cellStyle name="Correto" xfId="12" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Entrada" xfId="15" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Hiperligação" xfId="47" builtinId="8"/>
     <cellStyle name="Incorreto" xfId="13" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Moeda" xfId="4" builtinId="4" customBuiltin="1"/>
     <cellStyle name="Moeda [0]" xfId="5" builtinId="7" customBuiltin="1"/>
@@ -922,7 +1042,7 @@
     <cellStyle name="Verificar Célula" xfId="19" builtinId="23" customBuiltin="1"/>
     <cellStyle name="Vírgula" xfId="1" builtinId="3" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="20">
     <dxf>
       <font>
         <b val="0"/>
@@ -1170,24 +1290,6 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFA0C6CC"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="8" tint="0.59996337778862885"/>
-        </left>
-        <right style="thin">
-          <color theme="8" tint="0.59996337778862885"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor theme="5" tint="0.79998168889431442"/>
@@ -1280,13 +1382,13 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="TableStyleMedium3 2" pivot="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="20"/>
-      <tableStyleElement type="headerRow" dxfId="19"/>
-      <tableStyleElement type="totalRow" dxfId="18"/>
-      <tableStyleElement type="firstColumn" dxfId="17"/>
-      <tableStyleElement type="lastColumn" dxfId="16"/>
-      <tableStyleElement type="firstRowStripe" dxfId="15"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="14"/>
+      <tableStyleElement type="wholeTable" dxfId="19"/>
+      <tableStyleElement type="headerRow" dxfId="18"/>
+      <tableStyleElement type="totalRow" dxfId="17"/>
+      <tableStyleElement type="firstColumn" dxfId="16"/>
+      <tableStyleElement type="lastColumn" dxfId="15"/>
+      <tableStyleElement type="firstRowStripe" dxfId="14"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="13"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -2530,8 +2632,8 @@
   </sheetPr>
   <dimension ref="A1:P83"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.69140625" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -2539,8 +2641,8 @@
     <col min="1" max="1" width="23.765625" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.69140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="23.69140625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="28.23046875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="31.4609375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="35.07421875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="53.23046875" style="5" customWidth="1"/>
     <col min="6" max="7" width="23.69140625" style="5" customWidth="1"/>
     <col min="8" max="8" width="24.69140625" style="4" customWidth="1"/>
     <col min="9" max="10" width="23.69140625" style="4" customWidth="1"/>
@@ -2551,11 +2653,11 @@
   <sheetData>
     <row r="1" spans="1:16" ht="40.15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="11"/>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
       <c r="E1" s="13"/>
       <c r="F1" s="13"/>
       <c r="G1" s="19"/>
@@ -2565,9 +2667,9 @@
       <c r="K1" s="12"/>
     </row>
     <row r="2" spans="1:16" s="2" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
       <c r="E2" s="24" t="s">
         <v>2</v>
       </c>
@@ -2581,9 +2683,9 @@
       <c r="P2" s="6"/>
     </row>
     <row r="3" spans="1:16" s="2" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
       <c r="E3" s="26">
         <f ca="1">TODAY()</f>
         <v>44848</v>
@@ -2600,7 +2702,7 @@
     <row r="4" spans="1:16" s="2" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="15"/>
       <c r="C4" s="14"/>
-      <c r="D4" s="38"/>
+      <c r="D4" s="36"/>
       <c r="E4" s="14"/>
       <c r="F4" s="14" t="s">
         <v>1</v>
@@ -2610,7 +2712,6 @@
       <c r="I4" s="23"/>
       <c r="J4" s="16"/>
       <c r="K4" s="17"/>
-      <c r="L4" s="6"/>
       <c r="P4" s="6"/>
     </row>
     <row r="5" spans="1:16" s="2" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.4">
@@ -2648,26 +2749,40 @@
       <c r="L5" s="6"/>
       <c r="P5" s="6"/>
     </row>
-    <row r="6" spans="1:16" s="1" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="28"/>
-      <c r="B6" s="30"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="32" t="s">
-        <v>1</v>
+    <row r="6" spans="1:16" s="1" customFormat="1" ht="159.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="48" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="47" t="s">
+        <v>18</v>
       </c>
       <c r="F6" s="32"/>
       <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="33"/>
+      <c r="H6" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="46" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" s="40" t="s">
+        <v>14</v>
+      </c>
       <c r="K6" s="12"/>
     </row>
     <row r="7" spans="1:16" s="1" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="28"/>
       <c r="B7" s="31"/>
       <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
+      <c r="D7" s="41"/>
       <c r="E7" s="32"/>
       <c r="F7" s="32"/>
       <c r="G7" s="33"/>
@@ -2682,7 +2797,7 @@
       <c r="A8" s="28"/>
       <c r="B8" s="30"/>
       <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
+      <c r="D8" s="42"/>
       <c r="E8" s="32"/>
       <c r="F8" s="32"/>
       <c r="G8" s="33"/>
@@ -2703,7 +2818,7 @@
       <c r="H9" s="33"/>
       <c r="I9" s="34"/>
       <c r="J9" s="33"/>
-      <c r="K9" s="13"/>
+      <c r="K9" s="49"/>
       <c r="L9" s="5"/>
     </row>
     <row r="10" spans="1:16" ht="25.15" customHeight="1" x14ac:dyDescent="0.4">
@@ -2711,7 +2826,7 @@
       <c r="B10" s="30"/>
       <c r="C10" s="30"/>
       <c r="D10" s="30"/>
-      <c r="E10" s="32"/>
+      <c r="E10" s="37"/>
       <c r="F10" s="32"/>
       <c r="G10" s="33"/>
       <c r="H10" s="33"/>
@@ -2978,7 +3093,7 @@
     <mergeCell ref="B1:D3"/>
   </mergeCells>
   <conditionalFormatting sqref="C13:C16 B11:B16">
-    <cfRule type="cellIs" dxfId="13" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="2" operator="equal">
       <formula>"S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2991,12 +3106,15 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Esta célula calcula automaticamente o número total de pessoas a quem enviou convites" sqref="I2:I4 G3" xr:uid="{73A5FDEE-6EDC-42CF-B484-04E99BE8F286}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Esta célula calcula automaticamente o número total de pessoas que confirmaram a presença" sqref="J2:J4 H3 G21" xr:uid="{FFB6FB26-5678-431C-BD54-FF379DC920D3}"/>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="J6" r:id="rId1" xr:uid="{9C5F7A39-45A7-4854-A959-44BDC3812189}"/>
+  </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="52" fitToHeight="0" orientation="landscape" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" scale="52" fitToHeight="0" orientation="landscape" r:id="rId2"/>
+  <drawing r:id="rId3"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>

--- a/00 - Recolha de Requisitos/RegistodePesquisas.xlsx
+++ b/00 - Recolha de Requisitos/RegistodePesquisas.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6FEBEC0-B44C-42C1-9A0C-D54ABB4E8A4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16FF1CAC-98B8-45A7-A258-946E63A6308F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -125,6 +125,35 @@
     <t>Keisuke Hattori
 Tatsunori Hirai</t>
   </si>
+  <si>
+    <t>Jinki Jung
+Jihye Hong
+Sungheon Park
+Hyun S. Yang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  A simulação demonstrou que este método interativo fornece uma forma fácil, acessível e conveniente a todos para manipular objetos virtuais, até mesmo pessoas sem qualquer experiência prévia.</t>
+  </si>
+  <si>
+    <t>C ++
+C#
+Java</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Smartphone
+Unity3D
+</t>
+  </si>
+  <si>
+    <t>Tornar a realidade aumentada acessível a qualquer pessoa a partir de um simples smartphone</t>
+  </si>
+  <si>
+    <t>Smartphone como ferramenta AR via Multi-Touch baseada no método de interações 3D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Smartphone as an augmented reality authoring tool via multi-touch based 3D interaction method | Proceedings of the 11th ACM SIGGRAPH International Conference on Virtual-Reality Continuum and its Applications in Industry
+</t>
+  </si>
 </sst>
 </file>
 
@@ -137,7 +166,7 @@
     <numFmt numFmtId="165" formatCode="#,##0_ ;\-#,##0\ "/>
     <numFmt numFmtId="166" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
   </numFmts>
-  <fonts count="49" x14ac:knownFonts="1">
+  <fonts count="50" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -481,6 +510,14 @@
       <color rgb="FF818B8A"/>
       <name val="Franklin Gothic Book"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1" tint="0.14999847407452621"/>
+      <name val="Franklin Gothic Book"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="35">
@@ -842,7 +879,7 @@
     <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -955,40 +992,52 @@
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="47" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="47" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1045,6 +1094,24 @@
   <dxfs count="20">
     <dxf>
       <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFA0C6CC"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="8" tint="0.59996337778862885"/>
+        </left>
+        <right style="thin">
+          <color theme="8" tint="0.59996337778862885"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -1061,6 +1128,25 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1212,25 +1298,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Franklin Gothic Book"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1270,24 +1337,6 @@
         <scheme val="major"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFA0C6CC"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="8" tint="0.59996337778862885"/>
-        </left>
-        <right style="thin">
-          <color theme="8" tint="0.59996337778862885"/>
-        </right>
-      </border>
     </dxf>
     <dxf>
       <fill>
@@ -1517,22 +1566,153 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>108859</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>54429</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2567217</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1802279</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagem 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31BC9E78-0F50-9417-152E-801A58187A8A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:srcRect b="2195"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4027716" y="4644572"/>
+          <a:ext cx="2458358" cy="1747850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>36285</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>44701</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2677263</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1950562</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagem 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DFCB3EA-7590-3F2B-7533-60BD7DCA03CA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9588499" y="4634844"/>
+          <a:ext cx="2640978" cy="1905861"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3014890</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>707572</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>5588267</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1514106</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagem 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{302758DD-D397-C66B-CC89-D763041C4324}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12567104" y="5297715"/>
+          <a:ext cx="2573377" cy="806534"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="TBL_Invitations" displayName="TBL_Convites" ref="A5:J16" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="TBL_Invitations" displayName="TBL_Convites" ref="A5:J16" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Local/Contexto" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Objetivos" dataDxfId="8"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Arquitetura global" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Dispositivos" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Tipos de Interação" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Packages de software" dataDxfId="4"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Linguagens de programação" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Avaliação com peritos/utilizadores" dataDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Public-domain" dataDxfId="1"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Site" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Local/Contexto" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Objetivos" dataDxfId="9"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Arquitetura global" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Dispositivos" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Tipos de Interação" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Packages de software" dataDxfId="1"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Linguagens de programação" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Avaliação com peritos/utilizadores" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Public-domain" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Site" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2632,17 +2812,17 @@
   </sheetPr>
   <dimension ref="A1:P83"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="H6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.69140625" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="23.765625" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.69140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="23.69140625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="33.15234375" style="4" customWidth="1"/>
     <col min="4" max="4" width="35.07421875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="53.23046875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="70.921875" style="5" customWidth="1"/>
     <col min="6" max="7" width="23.69140625" style="5" customWidth="1"/>
     <col min="8" max="8" width="24.69140625" style="4" customWidth="1"/>
     <col min="9" max="10" width="23.69140625" style="4" customWidth="1"/>
@@ -2653,11 +2833,11 @@
   <sheetData>
     <row r="1" spans="1:16" ht="40.15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="11"/>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
       <c r="E1" s="13"/>
       <c r="F1" s="13"/>
       <c r="G1" s="19"/>
@@ -2667,9 +2847,9 @@
       <c r="K1" s="12"/>
     </row>
     <row r="2" spans="1:16" s="2" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
       <c r="E2" s="24" t="s">
         <v>2</v>
       </c>
@@ -2683,12 +2863,12 @@
       <c r="P2" s="6"/>
     </row>
     <row r="3" spans="1:16" s="2" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
       <c r="E3" s="26">
         <f ca="1">TODAY()</f>
-        <v>44848</v>
+        <v>44850</v>
       </c>
       <c r="F3" s="35"/>
       <c r="G3" s="27"/>
@@ -2750,54 +2930,67 @@
       <c r="P5" s="6"/>
     </row>
     <row r="6" spans="1:16" s="1" customFormat="1" ht="159.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="45" t="s">
+      <c r="B6" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="45" t="s">
+      <c r="C6" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="43" t="s">
+      <c r="D6" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="47" t="s">
+      <c r="E6" s="44" t="s">
         <v>18</v>
       </c>
       <c r="F6" s="32"/>
       <c r="G6" s="33"/>
-      <c r="H6" s="44" t="s">
+      <c r="H6" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="I6" s="46" t="s">
+      <c r="I6" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="J6" s="40" t="s">
+      <c r="J6" s="38" t="s">
         <v>14</v>
       </c>
       <c r="K6" s="12"/>
+      <c r="L6" s="53"/>
     </row>
-    <row r="7" spans="1:16" s="1" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="28"/>
-      <c r="B7" s="31"/>
+    <row r="7" spans="1:16" s="1" customFormat="1" ht="163.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="51" t="s">
+        <v>26</v>
+      </c>
       <c r="C7" s="31"/>
-      <c r="D7" s="41"/>
+      <c r="D7" s="50" t="s">
+        <v>25</v>
+      </c>
       <c r="E7" s="32"/>
       <c r="F7" s="32"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33" t="s">
-        <v>1</v>
+      <c r="G7" s="49" t="s">
+        <v>24</v>
       </c>
-      <c r="I7" s="34"/>
-      <c r="J7" s="33"/>
+      <c r="H7" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="J7" s="52" t="s">
+        <v>28</v>
+      </c>
       <c r="K7" s="13"/>
     </row>
     <row r="8" spans="1:16" ht="25.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="28"/>
       <c r="B8" s="30"/>
       <c r="C8" s="30"/>
-      <c r="D8" s="42"/>
+      <c r="D8" s="39"/>
       <c r="E8" s="32"/>
       <c r="F8" s="32"/>
       <c r="G8" s="33"/>
@@ -2818,7 +3011,7 @@
       <c r="H9" s="33"/>
       <c r="I9" s="34"/>
       <c r="J9" s="33"/>
-      <c r="K9" s="49"/>
+      <c r="K9" s="46"/>
       <c r="L9" s="5"/>
     </row>
     <row r="10" spans="1:16" ht="25.15" customHeight="1" x14ac:dyDescent="0.4">
@@ -3093,7 +3286,7 @@
     <mergeCell ref="B1:D3"/>
   </mergeCells>
   <conditionalFormatting sqref="C13:C16 B11:B16">
-    <cfRule type="cellIs" dxfId="12" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3108,47 +3301,19 @@
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="J6" r:id="rId1" xr:uid="{9C5F7A39-45A7-4854-A959-44BDC3812189}"/>
+    <hyperlink ref="J7" r:id="rId2" display="https://dl.acm.org/doi/abs/10.1145/2407516.2407520" xr:uid="{558B61DB-7002-4CE6-B6D2-EDC244EB1CC5}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="52" fitToHeight="0" orientation="landscape" r:id="rId2"/>
-  <drawing r:id="rId3"/>
+  <pageSetup paperSize="9" scale="52" fitToHeight="0" orientation="landscape" r:id="rId3"/>
+  <drawing r:id="rId4"/>
   <tableParts count="1">
-    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="24" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2d714a3296df14eba7a100bb665443ca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="49549bf45bfbbfb6cffed527380e77e1" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -3436,27 +3601,36 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{141D71A4-5CC3-40CD-990C-070FB4B5F315}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5D97E00F-6E84-416B-8452-E6DC935A7A92}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B44AF425-737A-413C-9CB5-588E99FE889D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3475,4 +3649,24 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5D97E00F-6E84-416B-8452-E6DC935A7A92}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{141D71A4-5CC3-40CD-990C-070FB4B5F315}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/00 - Recolha de Requisitos/RegistodePesquisas.xlsx
+++ b/00 - Recolha de Requisitos/RegistodePesquisas.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{40827FF2-7BE1-425C-B7C6-2C28427FBDEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D6D8E84-0C97-4326-806C-2D7A3D3BDDEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Registo de Pesquisas" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -18,12 +18,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="43">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -184,6 +181,37 @@
  ecrãs LCD 4k 
 </t>
   </si>
+  <si>
+    <t>Iphones
+Android Mobile devices
+Unity3D
+Vulfloria7
+Xcode</t>
+  </si>
+  <si>
+    <t>C#
+C++</t>
+  </si>
+  <si>
+    <t>Maneira simples e eficaz de melhorar  a memorização e compreensão de conceitos, através de flashcards virtuias.</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Tornar a aprendizagem com flashcards mais eficiente e intuitiva</t>
+  </si>
+  <si>
+    <t>Augmented Reality Application to Develop a 
+Learning Tool for Students: Transforming 
+Cellphones into Flashcards</t>
+  </si>
+  <si>
+    <t>Nazlee Sharmin, Ava K. Chow</t>
+  </si>
+  <si>
+    <t>https://synapse.koreamed.org/articles/1144870?viewtype=pubreader</t>
+  </si>
 </sst>
 </file>
 
@@ -196,7 +224,7 @@
     <numFmt numFmtId="166" formatCode="#,##0_ ;\-#,##0\ "/>
     <numFmt numFmtId="167" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
   </numFmts>
-  <fonts count="50" x14ac:knownFonts="1">
+  <fonts count="50">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1061,70 +1089,88 @@
     <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="48">
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="28" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="32" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="36" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="40" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="44" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="26" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="29" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="33" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="37" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="41" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="45" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="2" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="30" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="34" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="38" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="42" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="46" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="24" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="27" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="31" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="35" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="39" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="43" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="13" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="17" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="19" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3" customBuiltin="1"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6" customBuiltin="1"/>
-    <cellStyle name="Currency" xfId="4" builtinId="4" customBuiltin="1"/>
-    <cellStyle name="Currency [0]" xfId="5" builtinId="7" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="22" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="12" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="8" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="9" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="10" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="11" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Hyperlink" xfId="47" builtinId="8"/>
-    <cellStyle name="Input" xfId="15" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="18" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="14" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="20% - Cor1" xfId="25" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Cor2" xfId="28" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Cor3" xfId="32" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Cor4" xfId="36" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Cor5" xfId="40" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Cor6" xfId="44" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Cor1" xfId="26" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Cor2" xfId="29" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Cor3" xfId="33" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Cor4" xfId="37" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Cor5" xfId="41" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Cor6" xfId="45" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Cor1" xfId="2" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Cor2" xfId="30" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Cor3" xfId="34" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Cor4" xfId="38" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Cor5" xfId="42" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Cor6" xfId="46" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Cabeçalho 1" xfId="8" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Cabeçalho 2" xfId="9" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Cabeçalho 3" xfId="10" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Cabeçalho 4" xfId="11" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Cálculo" xfId="17" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Célula Ligada" xfId="18" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Cor1" xfId="24" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Cor2" xfId="27" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Cor3" xfId="31" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Cor4" xfId="35" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Cor5" xfId="39" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Cor6" xfId="43" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Correto" xfId="12" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Entrada" xfId="15" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Hiperligação" xfId="47" builtinId="8"/>
+    <cellStyle name="Incorreto" xfId="13" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Moeda" xfId="4" builtinId="4" customBuiltin="1"/>
+    <cellStyle name="Moeda [0]" xfId="5" builtinId="7" customBuiltin="1"/>
+    <cellStyle name="Neutro" xfId="14" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
-    <cellStyle name="Note" xfId="21" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="16" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="7" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Nota" xfId="21" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Percentagem" xfId="6" builtinId="5" customBuiltin="1"/>
+    <cellStyle name="Saída" xfId="16" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Separador de milhares [0]" xfId="3" builtinId="6" customBuiltin="1"/>
+    <cellStyle name="Texto de Aviso" xfId="20" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Texto Explicativo" xfId="22" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Título" xfId="7" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="23" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="20" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Verificar Célula" xfId="19" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Vírgula" xfId="1" builtinId="3" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="20">
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFA0C6CC"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="8" tint="0.59996337778862885"/>
+        </left>
+        <right style="thin">
+          <color theme="8" tint="0.59996337778862885"/>
+        </right>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1354,24 +1400,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFA0C6CC"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="8" tint="0.59996337778862885"/>
-        </left>
-        <right style="thin">
-          <color theme="8" tint="0.59996337778862885"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor theme="5" tint="0.79998168889431442"/>
@@ -1507,8 +1535,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1839777</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2268</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>468086</xdr:rowOff>
     </xdr:to>
@@ -1558,7 +1586,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>1948180</xdr:colOff>
+      <xdr:colOff>1803400</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>459014</xdr:rowOff>
     </xdr:to>
@@ -1607,8 +1635,8 @@
       <xdr:rowOff>54429</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>2567217</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3631</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>1802279</xdr:rowOff>
     </xdr:to>
@@ -1694,8 +1722,8 @@
       <xdr:rowOff>707572</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>5588267</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>6073</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>1514106</xdr:rowOff>
     </xdr:to>
@@ -1738,8 +1766,8 @@
       <xdr:rowOff>119744</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>2711506</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3140</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>1937658</xdr:rowOff>
     </xdr:to>
@@ -1783,15 +1811,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1077685</xdr:colOff>
+      <xdr:colOff>957942</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>21771</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>3754227</xdr:colOff>
+      <xdr:colOff>3634484</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>2010590</xdr:rowOff>
+      <xdr:rowOff>1988819</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1820,8 +1848,102 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10787742" y="6694714"/>
+          <a:off x="9775371" y="6672943"/>
           <a:ext cx="2676542" cy="1988819"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>87085</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>2046514</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2254624</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>21770</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Imagem 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B99525F-9369-1F9D-1794-1AE09EC8036B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8904514" y="8719457"/>
+          <a:ext cx="2167539" cy="2057399"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2275113</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>2046514</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>4960480</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>1981200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Imagem 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E94E7D48-3AAE-63F4-5B12-984B21F5E173}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11092542" y="8719457"/>
+          <a:ext cx="2685367" cy="1992086"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1834,18 +1956,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="TBL_Invitations" displayName="TBL_Convites" ref="A5:J16" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="TBL_Invitations" displayName="TBL_Convites" ref="A5:J16" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Local/Contexto" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Objetivos" dataDxfId="8"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Arquitetura global" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Dispositivos" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Tipos de Interação" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Packages de software" dataDxfId="4"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Linguagens de programação" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Avaliação com peritos/utilizadores" dataDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Public-domain" dataDxfId="1"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Site" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Local/Contexto" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Objetivos" dataDxfId="9"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Arquitetura global" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Dispositivos" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Tipos de Interação" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Packages de software" dataDxfId="5"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Linguagens de programação" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Avaliação com peritos/utilizadores" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Public-domain" dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Site" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2945,32 +3067,32 @@
   </sheetPr>
   <dimension ref="A1:P83"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.7265625" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="21" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="23.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.7265625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="33.1796875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="35.08984375" style="5" customWidth="1"/>
-    <col min="5" max="5" width="70.90625" style="5" customWidth="1"/>
-    <col min="6" max="7" width="23.7265625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="24.7265625" style="4" customWidth="1"/>
-    <col min="9" max="10" width="23.7265625" style="4" customWidth="1"/>
-    <col min="11" max="12" width="24.54296875" style="4" customWidth="1"/>
-    <col min="13" max="13" width="1.54296875" style="5" customWidth="1"/>
-    <col min="14" max="16384" width="10.7265625" style="5"/>
+    <col min="1" max="1" width="23.69921875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.69921875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="33.19921875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="35.09765625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="70.8984375" style="5" customWidth="1"/>
+    <col min="6" max="7" width="23.69921875" style="5" customWidth="1"/>
+    <col min="8" max="8" width="24.69921875" style="4" customWidth="1"/>
+    <col min="9" max="10" width="23.69921875" style="4" customWidth="1"/>
+    <col min="11" max="12" width="24.5" style="4" customWidth="1"/>
+    <col min="13" max="13" width="1.5" style="5" customWidth="1"/>
+    <col min="14" max="16384" width="10.69921875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:16" ht="40.200000000000003" customHeight="1">
       <c r="A1" s="11"/>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
       <c r="E1" s="13"/>
       <c r="F1" s="13"/>
       <c r="G1" s="19"/>
@@ -2979,10 +3101,10 @@
       <c r="J1" s="18"/>
       <c r="K1" s="12"/>
     </row>
-    <row r="2" spans="1:16" s="2" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
+    <row r="2" spans="1:16" s="2" customFormat="1" ht="42" customHeight="1">
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
       <c r="E2" s="24" t="s">
         <v>2</v>
       </c>
@@ -2995,10 +3117,10 @@
       <c r="L2" s="6"/>
       <c r="P2" s="6"/>
     </row>
-    <row r="3" spans="1:16" s="2" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
+    <row r="3" spans="1:16" s="2" customFormat="1" ht="40.200000000000003" customHeight="1">
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
       <c r="E3" s="26">
         <f ca="1">TODAY()</f>
         <v>44851</v>
@@ -3012,7 +3134,7 @@
       <c r="L3" s="6"/>
       <c r="P3" s="6"/>
     </row>
-    <row r="4" spans="1:16" s="2" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" s="2" customFormat="1" ht="40.200000000000003" customHeight="1">
       <c r="B4" s="15"/>
       <c r="C4" s="14"/>
       <c r="D4" s="36"/>
@@ -3027,7 +3149,7 @@
       <c r="K4" s="17"/>
       <c r="P4" s="6"/>
     </row>
-    <row r="5" spans="1:16" s="2" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" s="2" customFormat="1" ht="40.200000000000003" customHeight="1">
       <c r="A5" s="25" t="s">
         <v>3</v>
       </c>
@@ -3062,7 +3184,7 @@
       <c r="L5" s="6"/>
       <c r="P5" s="6"/>
     </row>
-    <row r="6" spans="1:16" s="1" customFormat="1" ht="159.44999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" s="1" customFormat="1" ht="159.44999999999999" customHeight="1">
       <c r="A6" s="44" t="s">
         <v>20</v>
       </c>
@@ -3092,7 +3214,7 @@
       <c r="K6" s="12"/>
       <c r="L6" s="50"/>
     </row>
-    <row r="7" spans="1:16" s="1" customFormat="1" ht="163.19999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" s="1" customFormat="1" ht="163.19999999999999" customHeight="1">
       <c r="A7" s="44" t="s">
         <v>27</v>
       </c>
@@ -3119,7 +3241,7 @@
       </c>
       <c r="K7" s="13"/>
     </row>
-    <row r="8" spans="1:16" ht="162" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" ht="162" customHeight="1">
       <c r="A8" s="44" t="s">
         <v>29</v>
       </c>
@@ -3127,7 +3249,7 @@
         <v>30</v>
       </c>
       <c r="C8" s="30"/>
-      <c r="D8" s="53" t="s">
+      <c r="D8" s="51" t="s">
         <v>34</v>
       </c>
       <c r="E8" s="32"/>
@@ -3136,7 +3258,7 @@
       <c r="H8" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="I8" s="54" t="s">
+      <c r="I8" s="52" t="s">
         <v>31</v>
       </c>
       <c r="J8" s="38" t="s">
@@ -3145,21 +3267,37 @@
       <c r="K8" s="13"/>
       <c r="L8" s="5"/>
     </row>
-    <row r="9" spans="1:16" ht="25.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="28"/>
-      <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
+    <row r="9" spans="1:16" ht="159.6" customHeight="1">
+      <c r="A9" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="41" t="s">
+        <v>35</v>
+      </c>
       <c r="E9" s="32"/>
       <c r="F9" s="32"/>
-      <c r="G9" s="33"/>
-      <c r="H9" s="33"/>
-      <c r="I9" s="34"/>
-      <c r="J9" s="33"/>
+      <c r="G9" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="H9" s="46" t="s">
+        <v>37</v>
+      </c>
+      <c r="I9" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="J9" s="38" t="s">
+        <v>42</v>
+      </c>
       <c r="K9" s="45"/>
       <c r="L9" s="5"/>
     </row>
-    <row r="10" spans="1:16" ht="25.2" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" ht="25.2" customHeight="1">
       <c r="A10" s="28"/>
       <c r="B10" s="30"/>
       <c r="C10" s="30"/>
@@ -3173,7 +3311,7 @@
       <c r="K10" s="13"/>
       <c r="L10" s="5"/>
     </row>
-    <row r="11" spans="1:16" ht="25.2" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" ht="25.2" customHeight="1">
       <c r="A11" s="28"/>
       <c r="B11" s="32"/>
       <c r="C11" s="31"/>
@@ -3187,7 +3325,7 @@
       <c r="K11" s="13"/>
       <c r="L11" s="5"/>
     </row>
-    <row r="12" spans="1:16" ht="25.2" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" ht="25.2" customHeight="1">
       <c r="A12" s="28"/>
       <c r="B12" s="32"/>
       <c r="C12" s="30"/>
@@ -3203,7 +3341,7 @@
       <c r="K12" s="13"/>
       <c r="L12" s="5"/>
     </row>
-    <row r="13" spans="1:16" ht="25.2" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" ht="25.2" customHeight="1">
       <c r="A13" s="28" t="s">
         <v>0</v>
       </c>
@@ -3219,7 +3357,7 @@
       <c r="K13" s="13"/>
       <c r="L13" s="5"/>
     </row>
-    <row r="14" spans="1:16" ht="25.2" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16" ht="25.2" customHeight="1">
       <c r="A14" s="28" t="s">
         <v>0</v>
       </c>
@@ -3235,7 +3373,7 @@
       <c r="K14" s="13"/>
       <c r="L14" s="5"/>
     </row>
-    <row r="15" spans="1:16" ht="25.2" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" ht="25.2" customHeight="1">
       <c r="A15" s="28" t="s">
         <v>0</v>
       </c>
@@ -3251,7 +3389,7 @@
       <c r="K15" s="13"/>
       <c r="L15" s="5"/>
     </row>
-    <row r="16" spans="1:16" ht="25.2" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16" ht="25.2" customHeight="1">
       <c r="A16" s="28" t="s">
         <v>0</v>
       </c>
@@ -3267,7 +3405,7 @@
       <c r="K16" s="13"/>
       <c r="L16" s="5"/>
     </row>
-    <row r="17" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" ht="19.95" customHeight="1">
       <c r="A17" s="12"/>
       <c r="B17" s="13"/>
       <c r="C17" s="13"/>
@@ -3281,7 +3419,7 @@
       <c r="K17" s="13"/>
       <c r="L17" s="5"/>
     </row>
-    <row r="18" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" ht="19.95" customHeight="1">
       <c r="A18" s="12"/>
       <c r="B18" s="13"/>
       <c r="C18" s="13"/>
@@ -3295,7 +3433,7 @@
       <c r="K18" s="13"/>
       <c r="L18" s="5"/>
     </row>
-    <row r="19" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" ht="19.95" customHeight="1">
       <c r="A19" s="12"/>
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
@@ -3309,7 +3447,7 @@
       <c r="K19" s="13"/>
       <c r="L19" s="5"/>
     </row>
-    <row r="20" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:12" ht="19.95" customHeight="1">
       <c r="A20" s="12"/>
       <c r="B20" s="13"/>
       <c r="C20" s="13"/>
@@ -3323,7 +3461,7 @@
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
     </row>
-    <row r="21" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" ht="19.95" customHeight="1">
       <c r="A21" s="7"/>
       <c r="B21" s="8"/>
       <c r="C21" s="9"/>
@@ -3337,7 +3475,7 @@
       <c r="K21" s="5"/>
       <c r="L21" s="5"/>
     </row>
-    <row r="22" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" ht="19.95" customHeight="1">
       <c r="A22" s="7"/>
       <c r="B22" s="8"/>
       <c r="C22" s="9"/>
@@ -3351,87 +3489,87 @@
       <c r="K22" s="5"/>
       <c r="L22" s="5"/>
     </row>
-    <row r="23" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" ht="19.95" customHeight="1">
       <c r="G23" s="4"/>
       <c r="J23" s="9"/>
       <c r="L23" s="5"/>
     </row>
-    <row r="24" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" ht="19.95" customHeight="1">
       <c r="G24" s="4"/>
       <c r="J24" s="9"/>
       <c r="L24" s="5"/>
     </row>
-    <row r="25" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" ht="19.95" customHeight="1">
       <c r="G25" s="4"/>
       <c r="L25" s="5"/>
     </row>
-    <row r="26" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" ht="19.95" customHeight="1">
       <c r="G26" s="4"/>
       <c r="L26" s="5"/>
     </row>
-    <row r="27" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="28" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="29" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="30" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="31" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="32" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="33" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="34" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="35" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="36" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="37" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="38" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="39" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="40" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="41" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="42" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="43" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="44" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="45" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="46" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="47" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="48" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="49" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="50" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="51" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="52" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="53" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="54" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="55" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="56" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="57" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="58" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="59" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="60" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="61" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="62" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="63" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="64" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="65" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="66" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="67" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="68" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="69" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="70" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="71" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="72" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="73" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="74" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="75" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="76" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="77" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="78" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="79" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="80" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="81" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="82" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="83" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="27" spans="1:12" ht="19.95" customHeight="1"/>
+    <row r="28" spans="1:12" ht="19.95" customHeight="1"/>
+    <row r="29" spans="1:12" ht="19.95" customHeight="1"/>
+    <row r="30" spans="1:12" ht="19.95" customHeight="1"/>
+    <row r="31" spans="1:12" ht="19.95" customHeight="1"/>
+    <row r="32" spans="1:12" ht="19.95" customHeight="1"/>
+    <row r="33" ht="19.95" customHeight="1"/>
+    <row r="34" ht="19.95" customHeight="1"/>
+    <row r="35" ht="19.95" customHeight="1"/>
+    <row r="36" ht="19.95" customHeight="1"/>
+    <row r="37" ht="19.95" customHeight="1"/>
+    <row r="38" ht="19.95" customHeight="1"/>
+    <row r="39" ht="19.95" customHeight="1"/>
+    <row r="40" ht="19.95" customHeight="1"/>
+    <row r="41" ht="19.95" customHeight="1"/>
+    <row r="42" ht="19.95" customHeight="1"/>
+    <row r="43" ht="19.95" customHeight="1"/>
+    <row r="44" ht="19.95" customHeight="1"/>
+    <row r="45" ht="19.95" customHeight="1"/>
+    <row r="46" ht="19.95" customHeight="1"/>
+    <row r="47" ht="19.95" customHeight="1"/>
+    <row r="48" ht="19.95" customHeight="1"/>
+    <row r="49" ht="19.95" customHeight="1"/>
+    <row r="50" ht="19.95" customHeight="1"/>
+    <row r="51" ht="19.95" customHeight="1"/>
+    <row r="52" ht="19.95" customHeight="1"/>
+    <row r="53" ht="19.95" customHeight="1"/>
+    <row r="54" ht="19.95" customHeight="1"/>
+    <row r="55" ht="19.95" customHeight="1"/>
+    <row r="56" ht="19.95" customHeight="1"/>
+    <row r="57" ht="19.95" customHeight="1"/>
+    <row r="58" ht="19.95" customHeight="1"/>
+    <row r="59" ht="19.95" customHeight="1"/>
+    <row r="60" ht="19.95" customHeight="1"/>
+    <row r="61" ht="19.95" customHeight="1"/>
+    <row r="62" ht="19.95" customHeight="1"/>
+    <row r="63" ht="19.95" customHeight="1"/>
+    <row r="64" ht="19.95" customHeight="1"/>
+    <row r="65" ht="19.95" customHeight="1"/>
+    <row r="66" ht="19.95" customHeight="1"/>
+    <row r="67" ht="19.95" customHeight="1"/>
+    <row r="68" ht="19.95" customHeight="1"/>
+    <row r="69" ht="19.95" customHeight="1"/>
+    <row r="70" ht="19.95" customHeight="1"/>
+    <row r="71" ht="19.95" customHeight="1"/>
+    <row r="72" ht="19.95" customHeight="1"/>
+    <row r="73" ht="19.95" customHeight="1"/>
+    <row r="74" ht="19.95" customHeight="1"/>
+    <row r="75" ht="19.95" customHeight="1"/>
+    <row r="76" ht="19.95" customHeight="1"/>
+    <row r="77" ht="19.95" customHeight="1"/>
+    <row r="78" ht="19.95" customHeight="1"/>
+    <row r="79" ht="19.95" customHeight="1"/>
+    <row r="80" ht="19.95" customHeight="1"/>
+    <row r="81" ht="19.95" customHeight="1"/>
+    <row r="82" ht="19.95" customHeight="1"/>
+    <row r="83" ht="19.95" customHeight="1"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:D3"/>
   </mergeCells>
   <conditionalFormatting sqref="C13:C16 B11:B16">
-    <cfRule type="cellIs" dxfId="12" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3448,47 +3586,19 @@
     <hyperlink ref="J6" r:id="rId1" xr:uid="{9C5F7A39-45A7-4854-A959-44BDC3812189}"/>
     <hyperlink ref="J7" r:id="rId2" display="https://dl.acm.org/doi/abs/10.1145/2407516.2407520" xr:uid="{558B61DB-7002-4CE6-B6D2-EDC244EB1CC5}"/>
     <hyperlink ref="J8" r:id="rId3" xr:uid="{5DF73E96-2465-4564-98E4-1DD44624E0F4}"/>
+    <hyperlink ref="J9" r:id="rId4" xr:uid="{CD58614A-DCB1-40A8-87AB-BEF994E270F3}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="52" fitToHeight="0" orientation="landscape" r:id="rId4"/>
-  <drawing r:id="rId5"/>
+  <pageSetup paperSize="9" scale="52" fitToHeight="0" orientation="landscape" r:id="rId5"/>
+  <drawing r:id="rId6"/>
   <tableParts count="1">
-    <tablePart r:id="rId6"/>
+    <tablePart r:id="rId7"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="24" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2d714a3296df14eba7a100bb665443ca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="49549bf45bfbbfb6cffed527380e77e1" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -3776,27 +3886,36 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{141D71A4-5CC3-40CD-990C-070FB4B5F315}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5D97E00F-6E84-416B-8452-E6DC935A7A92}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B44AF425-737A-413C-9CB5-588E99FE889D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3815,4 +3934,24 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5D97E00F-6E84-416B-8452-E6DC935A7A92}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{141D71A4-5CC3-40CD-990C-070FB4B5F315}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/00 - Recolha de Requisitos/RegistodePesquisas.xlsx
+++ b/00 - Recolha de Requisitos/RegistodePesquisas.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16FF1CAC-98B8-45A7-A258-946E63A6308F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{40827FF2-7BE1-425C-B7C6-2C28427FBDEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Registo de Pesquisas" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -154,17 +154,47 @@
     <t xml:space="preserve">Smartphone as an augmented reality authoring tool via multi-touch based 3D interaction method | Proceedings of the 11th ACM SIGGRAPH International Conference on Virtual-Reality Continuum and its Applications in Industry
 </t>
   </si>
+  <si>
+    <t>VirtualCube: An Immersive 3D Video Communication System</t>
+  </si>
+  <si>
+    <t>Tornar reuniões a longa distância mais pessoais e interativas</t>
+  </si>
+  <si>
+    <t>Yizhong Zhang
+Jiaolong Yang 
+Zhen Liu
+Ruicheng Wang 
+Guojun Chen 
+Xin Tong 
+Baining Guo</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/9714050</t>
+  </si>
+  <si>
+    <t>Esta é uma forma nova e versátil de realizar video
+ conferências. No entanto não tem um sistema de
+ audio bem desenvolvido nem reconhece bem gestos 
+complicados.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sala tipo cubículo
+  Câmeras RGBD
+ ecrãs LCD 4k 
+</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="5">
-    <numFmt numFmtId="42" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;\ &quot;€&quot;_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="#,##0_ ;\-#,##0\ "/>
-    <numFmt numFmtId="166" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="#,##0_ ;\-#,##0\ "/>
+    <numFmt numFmtId="167" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
   </numFmts>
   <fonts count="50" x14ac:knownFonts="1">
     <font>
@@ -831,11 +861,11 @@
   </borders>
   <cellStyleXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -879,7 +909,7 @@
     <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -983,7 +1013,7 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="23" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="23" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -995,9 +1025,6 @@
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="47" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1019,97 +1046,85 @@
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="47" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="47" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="48">
-    <cellStyle name="20% - Cor1" xfId="25" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Cor2" xfId="28" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Cor3" xfId="32" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Cor4" xfId="36" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Cor5" xfId="40" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Cor6" xfId="44" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Cor1" xfId="26" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Cor2" xfId="29" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Cor3" xfId="33" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Cor4" xfId="37" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Cor5" xfId="41" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Cor6" xfId="45" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Cor1" xfId="2" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Cor2" xfId="30" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Cor3" xfId="34" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Cor4" xfId="38" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Cor5" xfId="42" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Cor6" xfId="46" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Cabeçalho 1" xfId="8" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Cabeçalho 2" xfId="9" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Cabeçalho 3" xfId="10" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Cabeçalho 4" xfId="11" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Cálculo" xfId="17" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Célula Ligada" xfId="18" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Cor1" xfId="24" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Cor2" xfId="27" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Cor3" xfId="31" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Cor4" xfId="35" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Cor5" xfId="39" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Cor6" xfId="43" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Correto" xfId="12" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Entrada" xfId="15" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Hiperligação" xfId="47" builtinId="8"/>
-    <cellStyle name="Incorreto" xfId="13" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Moeda" xfId="4" builtinId="4" customBuiltin="1"/>
-    <cellStyle name="Moeda [0]" xfId="5" builtinId="7" customBuiltin="1"/>
-    <cellStyle name="Neutro" xfId="14" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="28" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="32" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="36" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="40" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="44" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="26" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="29" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="33" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="37" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="41" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="45" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="2" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="30" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="34" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="38" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="42" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="46" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="24" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="27" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="31" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="35" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="39" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="43" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="13" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="17" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3" customBuiltin="1"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6" customBuiltin="1"/>
+    <cellStyle name="Currency" xfId="4" builtinId="4" customBuiltin="1"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="22" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="12" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="8" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="9" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="10" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="11" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8"/>
+    <cellStyle name="Input" xfId="15" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="18" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="14" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
-    <cellStyle name="Nota" xfId="21" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Percentagem" xfId="6" builtinId="5" customBuiltin="1"/>
-    <cellStyle name="Saída" xfId="16" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Separador de milhares [0]" xfId="3" builtinId="6" customBuiltin="1"/>
-    <cellStyle name="Texto de Aviso" xfId="20" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Texto Explicativo" xfId="22" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Título" xfId="7" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Note" xfId="21" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="16" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="7" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="23" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Verificar Célula" xfId="19" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Vírgula" xfId="1" builtinId="3" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="20" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="20">
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFA0C6CC"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="8" tint="0.59996337778862885"/>
-        </left>
-        <right style="thin">
-          <color theme="8" tint="0.59996337778862885"/>
-        </right>
-      </border>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1128,25 +1143,6 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Franklin Gothic Book"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1298,6 +1294,25 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1337,6 +1352,24 @@
         <scheme val="major"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFA0C6CC"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="8" tint="0.59996337778862885"/>
+        </left>
+        <right style="thin">
+          <color theme="8" tint="0.59996337778862885"/>
+        </right>
+      </border>
     </dxf>
     <dxf>
       <fill>
@@ -1697,22 +1730,122 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1949986</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>119744</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2711506</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>1937658</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C218F33-E73F-2D5F-4584-DEB1AB6E7A55}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3942072" y="6792687"/>
+          <a:ext cx="2753605" cy="1817914"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1077685</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>21771</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3754227</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>2010590</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F0952D5-A6C1-227C-2C8A-52179CE18FDD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10787742" y="6694714"/>
+          <a:ext cx="2676542" cy="1988819"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="TBL_Invitations" displayName="TBL_Convites" ref="A5:J16" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="TBL_Invitations" displayName="TBL_Convites" ref="A5:J16" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Local/Contexto" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Objetivos" dataDxfId="9"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Arquitetura global" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Dispositivos" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Tipos de Interação" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Packages de software" dataDxfId="1"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Linguagens de programação" dataDxfId="6"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Avaliação com peritos/utilizadores" dataDxfId="5"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Public-domain" dataDxfId="4"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Site" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Local/Contexto" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Objetivos" dataDxfId="8"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Arquitetura global" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Dispositivos" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Tipos de Interação" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Packages de software" dataDxfId="4"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Linguagens de programação" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Avaliação com peritos/utilizadores" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Public-domain" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Site" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2812,32 +2945,32 @@
   </sheetPr>
   <dimension ref="A1:P83"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="H6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.69140625" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="10.7265625" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.765625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.69140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="33.15234375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="35.07421875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="70.921875" style="5" customWidth="1"/>
-    <col min="6" max="7" width="23.69140625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="24.69140625" style="4" customWidth="1"/>
-    <col min="9" max="10" width="23.69140625" style="4" customWidth="1"/>
-    <col min="11" max="12" width="24.53515625" style="4" customWidth="1"/>
-    <col min="13" max="13" width="1.53515625" style="5" customWidth="1"/>
-    <col min="14" max="16384" width="10.69140625" style="5"/>
+    <col min="1" max="1" width="23.7265625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.7265625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="33.1796875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="35.08984375" style="5" customWidth="1"/>
+    <col min="5" max="5" width="70.90625" style="5" customWidth="1"/>
+    <col min="6" max="7" width="23.7265625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="24.7265625" style="4" customWidth="1"/>
+    <col min="9" max="10" width="23.7265625" style="4" customWidth="1"/>
+    <col min="11" max="12" width="24.54296875" style="4" customWidth="1"/>
+    <col min="13" max="13" width="1.54296875" style="5" customWidth="1"/>
+    <col min="14" max="16384" width="10.7265625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="40.15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:16" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="11"/>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
       <c r="E1" s="13"/>
       <c r="F1" s="13"/>
       <c r="G1" s="19"/>
@@ -2846,10 +2979,10 @@
       <c r="J1" s="18"/>
       <c r="K1" s="12"/>
     </row>
-    <row r="2" spans="1:16" s="2" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
+    <row r="2" spans="1:16" s="2" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
       <c r="E2" s="24" t="s">
         <v>2</v>
       </c>
@@ -2862,13 +2995,13 @@
       <c r="L2" s="6"/>
       <c r="P2" s="6"/>
     </row>
-    <row r="3" spans="1:16" s="2" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
+    <row r="3" spans="1:16" s="2" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
       <c r="E3" s="26">
         <f ca="1">TODAY()</f>
-        <v>44850</v>
+        <v>44851</v>
       </c>
       <c r="F3" s="35"/>
       <c r="G3" s="27"/>
@@ -2879,7 +3012,7 @@
       <c r="L3" s="6"/>
       <c r="P3" s="6"/>
     </row>
-    <row r="4" spans="1:16" s="2" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:16" s="2" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="15"/>
       <c r="C4" s="14"/>
       <c r="D4" s="36"/>
@@ -2894,7 +3027,7 @@
       <c r="K4" s="17"/>
       <c r="P4" s="6"/>
     </row>
-    <row r="5" spans="1:16" s="2" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:16" s="2" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="25" t="s">
         <v>3</v>
       </c>
@@ -2929,78 +3062,90 @@
       <c r="L5" s="6"/>
       <c r="P5" s="6"/>
     </row>
-    <row r="6" spans="1:16" s="1" customFormat="1" ht="159.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="45" t="s">
+    <row r="6" spans="1:16" s="1" customFormat="1" ht="159.44999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="42" t="s">
+      <c r="B6" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="42" t="s">
+      <c r="C6" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="40" t="s">
+      <c r="D6" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="44" t="s">
+      <c r="E6" s="43" t="s">
         <v>18</v>
       </c>
       <c r="F6" s="32"/>
       <c r="G6" s="33"/>
-      <c r="H6" s="41" t="s">
+      <c r="H6" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="I6" s="43" t="s">
+      <c r="I6" s="42" t="s">
         <v>21</v>
       </c>
       <c r="J6" s="38" t="s">
         <v>14</v>
       </c>
       <c r="K6" s="12"/>
-      <c r="L6" s="53"/>
+      <c r="L6" s="50"/>
     </row>
-    <row r="7" spans="1:16" s="1" customFormat="1" ht="163.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="45" t="s">
+    <row r="7" spans="1:16" s="1" customFormat="1" ht="163.19999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="51" t="s">
+      <c r="B7" s="48" t="s">
         <v>26</v>
       </c>
       <c r="C7" s="31"/>
-      <c r="D7" s="50" t="s">
+      <c r="D7" s="47" t="s">
         <v>25</v>
       </c>
       <c r="E7" s="32"/>
       <c r="F7" s="32"/>
-      <c r="G7" s="49" t="s">
+      <c r="G7" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="H7" s="43" t="s">
+      <c r="H7" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="I7" s="43" t="s">
+      <c r="I7" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="J7" s="52" t="s">
+      <c r="J7" s="49" t="s">
         <v>28</v>
       </c>
       <c r="K7" s="13"/>
     </row>
-    <row r="8" spans="1:16" ht="25.15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="28"/>
-      <c r="B8" s="30"/>
+    <row r="8" spans="1:16" ht="162" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="41" t="s">
+        <v>30</v>
+      </c>
       <c r="C8" s="30"/>
-      <c r="D8" s="39"/>
+      <c r="D8" s="53" t="s">
+        <v>34</v>
+      </c>
       <c r="E8" s="32"/>
       <c r="F8" s="32"/>
       <c r="G8" s="33"/>
-      <c r="H8" s="33"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="33"/>
+      <c r="H8" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="I8" s="54" t="s">
+        <v>31</v>
+      </c>
+      <c r="J8" s="38" t="s">
+        <v>32</v>
+      </c>
       <c r="K8" s="13"/>
       <c r="L8" s="5"/>
     </row>
-    <row r="9" spans="1:16" ht="25.15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:16" ht="25.2" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="28"/>
       <c r="B9" s="31"/>
       <c r="C9" s="31"/>
@@ -3011,10 +3156,10 @@
       <c r="H9" s="33"/>
       <c r="I9" s="34"/>
       <c r="J9" s="33"/>
-      <c r="K9" s="46"/>
+      <c r="K9" s="45"/>
       <c r="L9" s="5"/>
     </row>
-    <row r="10" spans="1:16" ht="25.15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:16" ht="25.2" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="28"/>
       <c r="B10" s="30"/>
       <c r="C10" s="30"/>
@@ -3028,7 +3173,7 @@
       <c r="K10" s="13"/>
       <c r="L10" s="5"/>
     </row>
-    <row r="11" spans="1:16" ht="25.15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:16" ht="25.2" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="28"/>
       <c r="B11" s="32"/>
       <c r="C11" s="31"/>
@@ -3042,7 +3187,7 @@
       <c r="K11" s="13"/>
       <c r="L11" s="5"/>
     </row>
-    <row r="12" spans="1:16" ht="25.15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:16" ht="25.2" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="28"/>
       <c r="B12" s="32"/>
       <c r="C12" s="30"/>
@@ -3058,7 +3203,7 @@
       <c r="K12" s="13"/>
       <c r="L12" s="5"/>
     </row>
-    <row r="13" spans="1:16" ht="25.15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:16" ht="25.2" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="28" t="s">
         <v>0</v>
       </c>
@@ -3074,7 +3219,7 @@
       <c r="K13" s="13"/>
       <c r="L13" s="5"/>
     </row>
-    <row r="14" spans="1:16" ht="25.15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:16" ht="25.2" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="28" t="s">
         <v>0</v>
       </c>
@@ -3090,7 +3235,7 @@
       <c r="K14" s="13"/>
       <c r="L14" s="5"/>
     </row>
-    <row r="15" spans="1:16" ht="25.15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:16" ht="25.2" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="28" t="s">
         <v>0</v>
       </c>
@@ -3106,7 +3251,7 @@
       <c r="K15" s="13"/>
       <c r="L15" s="5"/>
     </row>
-    <row r="16" spans="1:16" ht="25.15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:16" ht="25.2" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="28" t="s">
         <v>0</v>
       </c>
@@ -3122,7 +3267,7 @@
       <c r="K16" s="13"/>
       <c r="L16" s="5"/>
     </row>
-    <row r="17" spans="1:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="12"/>
       <c r="B17" s="13"/>
       <c r="C17" s="13"/>
@@ -3136,7 +3281,7 @@
       <c r="K17" s="13"/>
       <c r="L17" s="5"/>
     </row>
-    <row r="18" spans="1:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="12"/>
       <c r="B18" s="13"/>
       <c r="C18" s="13"/>
@@ -3150,7 +3295,7 @@
       <c r="K18" s="13"/>
       <c r="L18" s="5"/>
     </row>
-    <row r="19" spans="1:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="12"/>
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
@@ -3164,7 +3309,7 @@
       <c r="K19" s="13"/>
       <c r="L19" s="5"/>
     </row>
-    <row r="20" spans="1:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="12"/>
       <c r="B20" s="13"/>
       <c r="C20" s="13"/>
@@ -3178,7 +3323,7 @@
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
     </row>
-    <row r="21" spans="1:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="7"/>
       <c r="B21" s="8"/>
       <c r="C21" s="9"/>
@@ -3192,7 +3337,7 @@
       <c r="K21" s="5"/>
       <c r="L21" s="5"/>
     </row>
-    <row r="22" spans="1:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="7"/>
       <c r="B22" s="8"/>
       <c r="C22" s="9"/>
@@ -3206,87 +3351,87 @@
       <c r="K22" s="5"/>
       <c r="L22" s="5"/>
     </row>
-    <row r="23" spans="1:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="G23" s="4"/>
       <c r="J23" s="9"/>
       <c r="L23" s="5"/>
     </row>
-    <row r="24" spans="1:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="G24" s="4"/>
       <c r="J24" s="9"/>
       <c r="L24" s="5"/>
     </row>
-    <row r="25" spans="1:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="G25" s="4"/>
       <c r="L25" s="5"/>
     </row>
-    <row r="26" spans="1:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="G26" s="4"/>
       <c r="L26" s="5"/>
     </row>
-    <row r="27" spans="1:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="28" spans="1:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="29" spans="1:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="30" spans="1:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="31" spans="1:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="32" spans="1:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="33" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="34" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="35" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="36" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="37" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="38" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="39" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="41" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="42" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="43" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="44" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="45" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="46" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="47" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="48" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="49" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="50" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="51" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="52" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="53" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="54" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="55" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="56" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="57" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="58" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="59" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="60" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="61" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="62" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="63" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="64" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="65" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="66" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="67" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="68" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="69" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="70" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="71" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="72" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="73" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="74" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="75" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="76" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="77" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="78" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="79" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="80" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="81" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="82" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="83" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="27" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="28" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="29" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="30" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="31" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="32" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="33" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="34" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="35" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="36" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="37" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="38" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="39" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="40" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="41" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="42" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="43" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="44" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="45" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="46" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="47" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="48" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="49" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="50" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="51" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="52" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="53" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="54" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="55" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="56" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="57" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="58" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="59" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="60" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="61" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="62" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="63" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="64" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="65" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="66" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="67" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="68" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="69" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="70" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="71" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="72" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="73" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="74" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="75" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="76" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="77" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="78" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="79" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="80" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="81" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="82" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="83" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:D3"/>
   </mergeCells>
   <conditionalFormatting sqref="C13:C16 B11:B16">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="2" operator="equal">
       <formula>"S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3302,18 +3447,48 @@
   <hyperlinks>
     <hyperlink ref="J6" r:id="rId1" xr:uid="{9C5F7A39-45A7-4854-A959-44BDC3812189}"/>
     <hyperlink ref="J7" r:id="rId2" display="https://dl.acm.org/doi/abs/10.1145/2407516.2407520" xr:uid="{558B61DB-7002-4CE6-B6D2-EDC244EB1CC5}"/>
+    <hyperlink ref="J8" r:id="rId3" xr:uid="{5DF73E96-2465-4564-98E4-1DD44624E0F4}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="52" fitToHeight="0" orientation="landscape" r:id="rId3"/>
-  <drawing r:id="rId4"/>
+  <pageSetup paperSize="9" scale="52" fitToHeight="0" orientation="landscape" r:id="rId4"/>
+  <drawing r:id="rId5"/>
   <tableParts count="1">
-    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="24" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2d714a3296df14eba7a100bb665443ca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="49549bf45bfbbfb6cffed527380e77e1" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -3601,36 +3776,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{141D71A4-5CC3-40CD-990C-070FB4B5F315}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5D97E00F-6E84-416B-8452-E6DC935A7A92}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B44AF425-737A-413C-9CB5-588E99FE889D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3649,24 +3815,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5D97E00F-6E84-416B-8452-E6DC935A7A92}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{141D71A4-5CC3-40CD-990C-070FB4B5F315}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/00 - Recolha de Requisitos/RegistodePesquisas.xlsx
+++ b/00 - Recolha de Requisitos/RegistodePesquisas.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D6D8E84-0C97-4326-806C-2D7A3D3BDDEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05947B24-DFD2-42A0-B445-33E80F7399D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Registo de Pesquisas" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -18,9 +18,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -28,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="47">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -212,19 +215,32 @@
   <si>
     <t>https://synapse.koreamed.org/articles/1144870?viewtype=pubreader</t>
   </si>
+  <si>
+    <t>Realidade aumentada(Arki): Aplicação de visualização de realidade aumentada em modelos arquitetónicos</t>
+  </si>
+  <si>
+    <t>Permite experiências de Realidade Aumentada, para que seja possível visualizar, compartilhar e comunicar o design com facilidade</t>
+  </si>
+  <si>
+    <t>IOS</t>
+  </si>
+  <si>
+    <t>O utlizador pode: Criar tags e anotações em 3D/AR;  Visualizar cada história com camadas; Criar a iluminação com sombras em tempo real; Reproduzir animações com arquivos .fbx; Adicionar texturas para mostrar as opções do materiais utilizados; Criar novas realidades</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="5">
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;\ &quot;€&quot;_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="#,##0_ ;\-#,##0\ "/>
-    <numFmt numFmtId="167" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+  <numFmts count="6">
+    <numFmt numFmtId="42" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="#,##0_ ;\-#,##0\ "/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="169" formatCode="0000"/>
   </numFmts>
-  <fonts count="50">
+  <fonts count="50" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -537,13 +553,6 @@
     </font>
     <font>
       <u/>
-      <sz val="12"/>
-      <name val="Franklin Gothic Book"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
       <color theme="10"/>
       <name val="Franklin Gothic Book"/>
@@ -576,6 +585,11 @@
       <name val="Franklin Gothic Book"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Roboto"/>
     </font>
   </fonts>
   <fills count="35">
@@ -889,11 +903,11 @@
   </borders>
   <cellStyleXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -935,9 +949,9 @@
     <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1041,19 +1055,16 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="23" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="23" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="47" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="47" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1071,24 +1082,24 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="47" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="47" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1100,6 +1111,12 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="48">
@@ -1153,24 +1170,6 @@
     <cellStyle name="Vírgula" xfId="1" builtinId="3" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="20">
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFA0C6CC"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="8" tint="0.59996337778862885"/>
-        </left>
-        <right style="thin">
-          <color theme="8" tint="0.59996337778862885"/>
-        </right>
-      </border>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1398,6 +1397,24 @@
         <scheme val="major"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFA0C6CC"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="8" tint="0.59996337778862885"/>
+        </left>
+        <right style="thin">
+          <color theme="8" tint="0.59996337778862885"/>
+        </right>
+      </border>
     </dxf>
     <dxf>
       <fill>
@@ -1956,18 +1973,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="TBL_Invitations" displayName="TBL_Convites" ref="A5:J16" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="TBL_Invitations" displayName="TBL_Convites" ref="A5:J16" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Local/Contexto" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Objetivos" dataDxfId="9"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Arquitetura global" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Dispositivos" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Tipos de Interação" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Packages de software" dataDxfId="5"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Linguagens de programação" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Avaliação com peritos/utilizadores" dataDxfId="3"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Public-domain" dataDxfId="2"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Site" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Local/Contexto" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Objetivos" dataDxfId="8"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Arquitetura global" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Dispositivos" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Tipos de Interação" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Packages de software" dataDxfId="4"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Linguagens de programação" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Avaliação com peritos/utilizadores" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Public-domain" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Site" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3067,32 +3084,32 @@
   </sheetPr>
   <dimension ref="A1:P83"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="21" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="10.7265625" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.69921875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.69921875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="33.19921875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="35.09765625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="70.8984375" style="5" customWidth="1"/>
-    <col min="6" max="7" width="23.69921875" style="5" customWidth="1"/>
-    <col min="8" max="8" width="24.69921875" style="4" customWidth="1"/>
-    <col min="9" max="10" width="23.69921875" style="4" customWidth="1"/>
-    <col min="11" max="12" width="24.5" style="4" customWidth="1"/>
-    <col min="13" max="13" width="1.5" style="5" customWidth="1"/>
-    <col min="14" max="16384" width="10.69921875" style="5"/>
+    <col min="1" max="1" width="23.7265625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.7265625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="33.1796875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="35.08984375" style="5" customWidth="1"/>
+    <col min="5" max="5" width="70.90625" style="5" customWidth="1"/>
+    <col min="6" max="7" width="23.7265625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="24.7265625" style="4" customWidth="1"/>
+    <col min="9" max="10" width="23.7265625" style="4" customWidth="1"/>
+    <col min="11" max="12" width="24.453125" style="4" customWidth="1"/>
+    <col min="13" max="13" width="1.453125" style="5" customWidth="1"/>
+    <col min="14" max="16384" width="10.7265625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="40.200000000000003" customHeight="1">
+    <row r="1" spans="1:16" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="11"/>
-      <c r="B1" s="53" t="s">
+      <c r="B1" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
       <c r="E1" s="13"/>
       <c r="F1" s="13"/>
       <c r="G1" s="19"/>
@@ -3101,10 +3118,10 @@
       <c r="J1" s="18"/>
       <c r="K1" s="12"/>
     </row>
-    <row r="2" spans="1:16" s="2" customFormat="1" ht="42" customHeight="1">
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
+    <row r="2" spans="1:16" s="2" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
       <c r="E2" s="24" t="s">
         <v>2</v>
       </c>
@@ -3117,13 +3134,13 @@
       <c r="L2" s="6"/>
       <c r="P2" s="6"/>
     </row>
-    <row r="3" spans="1:16" s="2" customFormat="1" ht="40.200000000000003" customHeight="1">
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
+    <row r="3" spans="1:16" s="2" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
       <c r="E3" s="26">
         <f ca="1">TODAY()</f>
-        <v>44851</v>
+        <v>44852</v>
       </c>
       <c r="F3" s="35"/>
       <c r="G3" s="27"/>
@@ -3134,7 +3151,7 @@
       <c r="L3" s="6"/>
       <c r="P3" s="6"/>
     </row>
-    <row r="4" spans="1:16" s="2" customFormat="1" ht="40.200000000000003" customHeight="1">
+    <row r="4" spans="1:16" s="2" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="15"/>
       <c r="C4" s="14"/>
       <c r="D4" s="36"/>
@@ -3149,7 +3166,7 @@
       <c r="K4" s="17"/>
       <c r="P4" s="6"/>
     </row>
-    <row r="5" spans="1:16" s="2" customFormat="1" ht="40.200000000000003" customHeight="1">
+    <row r="5" spans="1:16" s="2" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="25" t="s">
         <v>3</v>
       </c>
@@ -3184,125 +3201,135 @@
       <c r="L5" s="6"/>
       <c r="P5" s="6"/>
     </row>
-    <row r="6" spans="1:16" s="1" customFormat="1" ht="159.44999999999999" customHeight="1">
-      <c r="A6" s="44" t="s">
+    <row r="6" spans="1:16" s="1" customFormat="1" ht="159.44999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="41" t="s">
+      <c r="C6" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="39" t="s">
+      <c r="D6" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="43" t="s">
+      <c r="E6" s="42" t="s">
         <v>18</v>
       </c>
       <c r="F6" s="32"/>
       <c r="G6" s="33"/>
-      <c r="H6" s="40" t="s">
+      <c r="H6" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="I6" s="42" t="s">
+      <c r="I6" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="J6" s="38" t="s">
+      <c r="J6" s="37" t="s">
         <v>14</v>
       </c>
       <c r="K6" s="12"/>
-      <c r="L6" s="50"/>
+      <c r="L6" s="49"/>
     </row>
-    <row r="7" spans="1:16" s="1" customFormat="1" ht="163.19999999999999" customHeight="1">
-      <c r="A7" s="44" t="s">
+    <row r="7" spans="1:16" s="1" customFormat="1" ht="163.19999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="48" t="s">
+      <c r="B7" s="47" t="s">
         <v>26</v>
       </c>
       <c r="C7" s="31"/>
-      <c r="D7" s="47" t="s">
+      <c r="D7" s="46" t="s">
         <v>25</v>
       </c>
       <c r="E7" s="32"/>
       <c r="F7" s="32"/>
-      <c r="G7" s="46" t="s">
+      <c r="G7" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="H7" s="42" t="s">
+      <c r="H7" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="I7" s="42" t="s">
+      <c r="I7" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="J7" s="49" t="s">
+      <c r="J7" s="48" t="s">
         <v>28</v>
       </c>
       <c r="K7" s="13"/>
     </row>
-    <row r="8" spans="1:16" ht="162" customHeight="1">
-      <c r="A8" s="44" t="s">
+    <row r="8" spans="1:16" ht="162" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="41" t="s">
+      <c r="B8" s="40" t="s">
         <v>30</v>
       </c>
       <c r="C8" s="30"/>
-      <c r="D8" s="51" t="s">
+      <c r="D8" s="50" t="s">
         <v>34</v>
       </c>
       <c r="E8" s="32"/>
       <c r="F8" s="32"/>
       <c r="G8" s="33"/>
-      <c r="H8" s="46" t="s">
+      <c r="H8" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="I8" s="52" t="s">
+      <c r="I8" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="J8" s="38" t="s">
+      <c r="J8" s="37" t="s">
         <v>32</v>
       </c>
       <c r="K8" s="13"/>
       <c r="L8" s="5"/>
     </row>
-    <row r="9" spans="1:16" ht="159.6" customHeight="1">
-      <c r="A9" s="44" t="s">
+    <row r="9" spans="1:16" ht="159.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="48" t="s">
+      <c r="B9" s="47" t="s">
         <v>39</v>
       </c>
       <c r="C9" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="41" t="s">
+      <c r="D9" s="40" t="s">
         <v>35</v>
       </c>
       <c r="E9" s="32"/>
       <c r="F9" s="32"/>
-      <c r="G9" s="46" t="s">
+      <c r="G9" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="H9" s="46" t="s">
+      <c r="H9" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="I9" s="52" t="s">
+      <c r="I9" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="J9" s="38" t="s">
+      <c r="J9" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="K9" s="45"/>
+      <c r="K9" s="44"/>
       <c r="L9" s="5"/>
     </row>
-    <row r="10" spans="1:16" ht="25.2" customHeight="1">
-      <c r="A10" s="28"/>
-      <c r="B10" s="30"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="37"/>
+    <row r="10" spans="1:16" ht="166.8" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="55" t="s">
+        <v>46</v>
+      </c>
       <c r="F10" s="32"/>
       <c r="G10" s="33"/>
       <c r="H10" s="33"/>
@@ -3311,7 +3338,7 @@
       <c r="K10" s="13"/>
       <c r="L10" s="5"/>
     </row>
-    <row r="11" spans="1:16" ht="25.2" customHeight="1">
+    <row r="11" spans="1:16" ht="25.2" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="28"/>
       <c r="B11" s="32"/>
       <c r="C11" s="31"/>
@@ -3325,7 +3352,7 @@
       <c r="K11" s="13"/>
       <c r="L11" s="5"/>
     </row>
-    <row r="12" spans="1:16" ht="25.2" customHeight="1">
+    <row r="12" spans="1:16" ht="25.2" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="28"/>
       <c r="B12" s="32"/>
       <c r="C12" s="30"/>
@@ -3341,7 +3368,7 @@
       <c r="K12" s="13"/>
       <c r="L12" s="5"/>
     </row>
-    <row r="13" spans="1:16" ht="25.2" customHeight="1">
+    <row r="13" spans="1:16" ht="25.2" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="28" t="s">
         <v>0</v>
       </c>
@@ -3357,7 +3384,7 @@
       <c r="K13" s="13"/>
       <c r="L13" s="5"/>
     </row>
-    <row r="14" spans="1:16" ht="25.2" customHeight="1">
+    <row r="14" spans="1:16" ht="25.2" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="28" t="s">
         <v>0</v>
       </c>
@@ -3373,7 +3400,7 @@
       <c r="K14" s="13"/>
       <c r="L14" s="5"/>
     </row>
-    <row r="15" spans="1:16" ht="25.2" customHeight="1">
+    <row r="15" spans="1:16" ht="25.2" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="28" t="s">
         <v>0</v>
       </c>
@@ -3389,7 +3416,7 @@
       <c r="K15" s="13"/>
       <c r="L15" s="5"/>
     </row>
-    <row r="16" spans="1:16" ht="25.2" customHeight="1">
+    <row r="16" spans="1:16" ht="25.2" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="28" t="s">
         <v>0</v>
       </c>
@@ -3405,7 +3432,7 @@
       <c r="K16" s="13"/>
       <c r="L16" s="5"/>
     </row>
-    <row r="17" spans="1:12" ht="19.95" customHeight="1">
+    <row r="17" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="12"/>
       <c r="B17" s="13"/>
       <c r="C17" s="13"/>
@@ -3419,7 +3446,7 @@
       <c r="K17" s="13"/>
       <c r="L17" s="5"/>
     </row>
-    <row r="18" spans="1:12" ht="19.95" customHeight="1">
+    <row r="18" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="12"/>
       <c r="B18" s="13"/>
       <c r="C18" s="13"/>
@@ -3433,7 +3460,7 @@
       <c r="K18" s="13"/>
       <c r="L18" s="5"/>
     </row>
-    <row r="19" spans="1:12" ht="19.95" customHeight="1">
+    <row r="19" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="12"/>
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
@@ -3447,7 +3474,7 @@
       <c r="K19" s="13"/>
       <c r="L19" s="5"/>
     </row>
-    <row r="20" spans="1:12" ht="19.95" customHeight="1">
+    <row r="20" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="12"/>
       <c r="B20" s="13"/>
       <c r="C20" s="13"/>
@@ -3461,7 +3488,7 @@
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
     </row>
-    <row r="21" spans="1:12" ht="19.95" customHeight="1">
+    <row r="21" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="7"/>
       <c r="B21" s="8"/>
       <c r="C21" s="9"/>
@@ -3475,7 +3502,7 @@
       <c r="K21" s="5"/>
       <c r="L21" s="5"/>
     </row>
-    <row r="22" spans="1:12" ht="19.95" customHeight="1">
+    <row r="22" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="7"/>
       <c r="B22" s="8"/>
       <c r="C22" s="9"/>
@@ -3489,87 +3516,87 @@
       <c r="K22" s="5"/>
       <c r="L22" s="5"/>
     </row>
-    <row r="23" spans="1:12" ht="19.95" customHeight="1">
+    <row r="23" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="G23" s="4"/>
       <c r="J23" s="9"/>
       <c r="L23" s="5"/>
     </row>
-    <row r="24" spans="1:12" ht="19.95" customHeight="1">
+    <row r="24" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="G24" s="4"/>
       <c r="J24" s="9"/>
       <c r="L24" s="5"/>
     </row>
-    <row r="25" spans="1:12" ht="19.95" customHeight="1">
+    <row r="25" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="G25" s="4"/>
       <c r="L25" s="5"/>
     </row>
-    <row r="26" spans="1:12" ht="19.95" customHeight="1">
+    <row r="26" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="G26" s="4"/>
       <c r="L26" s="5"/>
     </row>
-    <row r="27" spans="1:12" ht="19.95" customHeight="1"/>
-    <row r="28" spans="1:12" ht="19.95" customHeight="1"/>
-    <row r="29" spans="1:12" ht="19.95" customHeight="1"/>
-    <row r="30" spans="1:12" ht="19.95" customHeight="1"/>
-    <row r="31" spans="1:12" ht="19.95" customHeight="1"/>
-    <row r="32" spans="1:12" ht="19.95" customHeight="1"/>
-    <row r="33" ht="19.95" customHeight="1"/>
-    <row r="34" ht="19.95" customHeight="1"/>
-    <row r="35" ht="19.95" customHeight="1"/>
-    <row r="36" ht="19.95" customHeight="1"/>
-    <row r="37" ht="19.95" customHeight="1"/>
-    <row r="38" ht="19.95" customHeight="1"/>
-    <row r="39" ht="19.95" customHeight="1"/>
-    <row r="40" ht="19.95" customHeight="1"/>
-    <row r="41" ht="19.95" customHeight="1"/>
-    <row r="42" ht="19.95" customHeight="1"/>
-    <row r="43" ht="19.95" customHeight="1"/>
-    <row r="44" ht="19.95" customHeight="1"/>
-    <row r="45" ht="19.95" customHeight="1"/>
-    <row r="46" ht="19.95" customHeight="1"/>
-    <row r="47" ht="19.95" customHeight="1"/>
-    <row r="48" ht="19.95" customHeight="1"/>
-    <row r="49" ht="19.95" customHeight="1"/>
-    <row r="50" ht="19.95" customHeight="1"/>
-    <row r="51" ht="19.95" customHeight="1"/>
-    <row r="52" ht="19.95" customHeight="1"/>
-    <row r="53" ht="19.95" customHeight="1"/>
-    <row r="54" ht="19.95" customHeight="1"/>
-    <row r="55" ht="19.95" customHeight="1"/>
-    <row r="56" ht="19.95" customHeight="1"/>
-    <row r="57" ht="19.95" customHeight="1"/>
-    <row r="58" ht="19.95" customHeight="1"/>
-    <row r="59" ht="19.95" customHeight="1"/>
-    <row r="60" ht="19.95" customHeight="1"/>
-    <row r="61" ht="19.95" customHeight="1"/>
-    <row r="62" ht="19.95" customHeight="1"/>
-    <row r="63" ht="19.95" customHeight="1"/>
-    <row r="64" ht="19.95" customHeight="1"/>
-    <row r="65" ht="19.95" customHeight="1"/>
-    <row r="66" ht="19.95" customHeight="1"/>
-    <row r="67" ht="19.95" customHeight="1"/>
-    <row r="68" ht="19.95" customHeight="1"/>
-    <row r="69" ht="19.95" customHeight="1"/>
-    <row r="70" ht="19.95" customHeight="1"/>
-    <row r="71" ht="19.95" customHeight="1"/>
-    <row r="72" ht="19.95" customHeight="1"/>
-    <row r="73" ht="19.95" customHeight="1"/>
-    <row r="74" ht="19.95" customHeight="1"/>
-    <row r="75" ht="19.95" customHeight="1"/>
-    <row r="76" ht="19.95" customHeight="1"/>
-    <row r="77" ht="19.95" customHeight="1"/>
-    <row r="78" ht="19.95" customHeight="1"/>
-    <row r="79" ht="19.95" customHeight="1"/>
-    <row r="80" ht="19.95" customHeight="1"/>
-    <row r="81" ht="19.95" customHeight="1"/>
-    <row r="82" ht="19.95" customHeight="1"/>
-    <row r="83" ht="19.95" customHeight="1"/>
+    <row r="27" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="28" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="29" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="30" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="31" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="32" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="33" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="34" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="35" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="36" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="37" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="38" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="39" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="40" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="41" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="42" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="43" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="44" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="45" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="46" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="47" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="48" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="49" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="50" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="51" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="52" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="53" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="54" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="55" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="56" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="57" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="58" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="59" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="60" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="61" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="62" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="63" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="64" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="65" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="66" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="67" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="68" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="69" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="70" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="71" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="72" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="73" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="74" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="75" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="76" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="77" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="78" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="79" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="80" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="81" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="82" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="83" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:D3"/>
   </mergeCells>
   <conditionalFormatting sqref="C13:C16 B11:B16">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="2" operator="equal">
       <formula>"S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3599,6 +3626,35 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="24" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2d714a3296df14eba7a100bb665443ca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="49549bf45bfbbfb6cffed527380e77e1" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -3886,36 +3942,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{141D71A4-5CC3-40CD-990C-070FB4B5F315}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5D97E00F-6E84-416B-8452-E6DC935A7A92}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B44AF425-737A-413C-9CB5-588E99FE889D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3934,24 +3981,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5D97E00F-6E84-416B-8452-E6DC935A7A92}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{141D71A4-5CC3-40CD-990C-070FB4B5F315}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/00 - Recolha de Requisitos/RegistodePesquisas.xlsx
+++ b/00 - Recolha de Requisitos/RegistodePesquisas.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05947B24-DFD2-42A0-B445-33E80F7399D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E642D47C-8409-4A71-872C-5B2F1D3396BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-9996" yWindow="2076" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Registo de Pesquisas" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="50">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -225,7 +225,16 @@
     <t>IOS</t>
   </si>
   <si>
-    <t>O utlizador pode: Criar tags e anotações em 3D/AR;  Visualizar cada história com camadas; Criar a iluminação com sombras em tempo real; Reproduzir animações com arquivos .fbx; Adicionar texturas para mostrar as opções do materiais utilizados; Criar novas realidades</t>
+    <t>O utlizador pode: Criar tags e anotações em 3D/AR;  Visualizar cada história com camadas; Criar a iluminação com sombras em tempo real; Reproduzir animações com arquivos .fbx; Adicionar texturas para mostrar as opções do materiais utilizados; Criar novas realidades através de experiências de Realidade aumentada em grande escala.</t>
+  </si>
+  <si>
+    <t>Sahar Fikouhi</t>
+  </si>
+  <si>
+    <t>A tecnologia é uma grande coisa que vai realizar muitas coisas, mas a menos que tenhamos diversas visões em cima da mesa, não teremos grandes soluções.</t>
+  </si>
+  <si>
+    <t>https://www.darfdesign.com/arki.html?utm_medium=website&amp;utm_source=archdaily.com.br</t>
   </si>
 </sst>
 </file>
@@ -238,9 +247,9 @@
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="#,##0_ ;\-#,##0\ "/>
     <numFmt numFmtId="166" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="169" formatCode="0000"/>
+    <numFmt numFmtId="167" formatCode="0000"/>
   </numFmts>
-  <fonts count="50" x14ac:knownFonts="1">
+  <fonts count="52" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -590,6 +599,20 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Roboto"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Franklin Gothic Book"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF303030"/>
+      <name val="Franklin Gothic Book"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="35">
@@ -951,7 +974,7 @@
     <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1106,16 +1129,28 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="167" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="47" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3084,8 +3119,8 @@
   </sheetPr>
   <dimension ref="A1:P83"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7265625" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3105,11 +3140,11 @@
   <sheetData>
     <row r="1" spans="1:16" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="11"/>
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
       <c r="E1" s="13"/>
       <c r="F1" s="13"/>
       <c r="G1" s="19"/>
@@ -3119,9 +3154,9 @@
       <c r="K1" s="12"/>
     </row>
     <row r="2" spans="1:16" s="2" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
       <c r="E2" s="24" t="s">
         <v>2</v>
       </c>
@@ -3135,9 +3170,9 @@
       <c r="P2" s="6"/>
     </row>
     <row r="3" spans="1:16" s="2" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="53"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
       <c r="E3" s="26">
         <f ca="1">TODAY()</f>
         <v>44852</v>
@@ -3314,8 +3349,8 @@
       <c r="K9" s="44"/>
       <c r="L9" s="5"/>
     </row>
-    <row r="10" spans="1:16" ht="166.8" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="54" t="s">
+    <row r="10" spans="1:16" ht="167.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="52" t="s">
         <v>43</v>
       </c>
       <c r="B10" s="40" t="s">
@@ -3327,28 +3362,36 @@
       <c r="D10" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="E10" s="55" t="s">
+      <c r="E10" s="53" t="s">
         <v>46</v>
       </c>
       <c r="F10" s="32"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="33"/>
-      <c r="I10" s="34"/>
-      <c r="J10" s="33"/>
+      <c r="G10" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10" s="56" t="s">
+        <v>48</v>
+      </c>
+      <c r="I10" s="53" t="s">
+        <v>47</v>
+      </c>
+      <c r="J10" s="57" t="s">
+        <v>49</v>
+      </c>
       <c r="K10" s="13"/>
       <c r="L10" s="5"/>
     </row>
-    <row r="11" spans="1:16" ht="25.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="28"/>
-      <c r="B11" s="32"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="33"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="33"/>
+    <row r="11" spans="1:16" ht="156.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="58"/>
+      <c r="B11" s="59"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="51"/>
+      <c r="J11" s="42"/>
       <c r="K11" s="13"/>
       <c r="L11" s="5"/>
     </row>
@@ -3595,13 +3638,13 @@
   <mergeCells count="1">
     <mergeCell ref="B1:D3"/>
   </mergeCells>
-  <conditionalFormatting sqref="C13:C16 B11:B16">
+  <conditionalFormatting sqref="C13:C16 B12:B16">
     <cfRule type="cellIs" dxfId="12" priority="2" operator="equal">
       <formula>"S"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C13:C16 B11:B16" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C13:C16 B12:B16" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"S, N"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Introduza a data do casamento nesta célula" sqref="G4 E3" xr:uid="{BCA61B36-4BFD-444C-AEE2-826623C012F2}"/>
@@ -3614,47 +3657,19 @@
     <hyperlink ref="J7" r:id="rId2" display="https://dl.acm.org/doi/abs/10.1145/2407516.2407520" xr:uid="{558B61DB-7002-4CE6-B6D2-EDC244EB1CC5}"/>
     <hyperlink ref="J8" r:id="rId3" xr:uid="{5DF73E96-2465-4564-98E4-1DD44624E0F4}"/>
     <hyperlink ref="J9" r:id="rId4" xr:uid="{CD58614A-DCB1-40A8-87AB-BEF994E270F3}"/>
+    <hyperlink ref="J10" r:id="rId5" xr:uid="{B39318F9-344D-4F96-8DBA-DB9DBFFDB342}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="52" fitToHeight="0" orientation="landscape" r:id="rId5"/>
-  <drawing r:id="rId6"/>
+  <pageSetup paperSize="9" scale="52" fitToHeight="0" orientation="landscape" r:id="rId6"/>
+  <drawing r:id="rId7"/>
   <tableParts count="1">
-    <tablePart r:id="rId7"/>
+    <tablePart r:id="rId8"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="24" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2d714a3296df14eba7a100bb665443ca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="49549bf45bfbbfb6cffed527380e77e1" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -3942,27 +3957,36 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{141D71A4-5CC3-40CD-990C-070FB4B5F315}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5D97E00F-6E84-416B-8452-E6DC935A7A92}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B44AF425-737A-413C-9CB5-588E99FE889D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3981,4 +4005,24 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5D97E00F-6E84-416B-8452-E6DC935A7A92}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{141D71A4-5CC3-40CD-990C-070FB4B5F315}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/00 - Recolha de Requisitos/RegistodePesquisas.xlsx
+++ b/00 - Recolha de Requisitos/RegistodePesquisas.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E642D47C-8409-4A71-872C-5B2F1D3396BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07E2CFB7-BB04-4716-A8AD-35997788BFEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-9996" yWindow="2076" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2076" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Registo de Pesquisas" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="56">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -235,6 +235,25 @@
   </si>
   <si>
     <t>https://www.darfdesign.com/arki.html?utm_medium=website&amp;utm_source=archdaily.com.br</t>
+  </si>
+  <si>
+    <t>Waking App: empresa de software de realidade virtual e aumentada</t>
+  </si>
+  <si>
+    <t>Permite aos utilizadores do Autodesk Revit e do Fusion 360 transformarem seus projetos 3D em realidade aumentada e realidade virtual, através de um smartphone ou tablet.</t>
+  </si>
+  <si>
+    <t>Smartphone
+Tablet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Através de uma aplicação, os engenheiros podem entrarnos seus projetos e receber uma experiência mais "real" e tangível de suas criações. </t>
+  </si>
+  <si>
+    <t>Scott Montgomerie, David Nedohin, Graham Melley</t>
+  </si>
+  <si>
+    <t>https://www.wakingapp.com/showcase-autodesk?utm_medium=website&amp;utm_source=archdaily.com.br</t>
   </si>
 </sst>
 </file>
@@ -974,7 +993,7 @@
     <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1135,23 +1154,26 @@
     <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="47" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="47" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="48">
@@ -3119,8 +3141,8 @@
   </sheetPr>
   <dimension ref="A1:P83"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="H10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7265625" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3140,11 +3162,11 @@
   <sheetData>
     <row r="1" spans="1:16" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="11"/>
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
       <c r="E1" s="13"/>
       <c r="F1" s="13"/>
       <c r="G1" s="19"/>
@@ -3154,9 +3176,9 @@
       <c r="K1" s="12"/>
     </row>
     <row r="2" spans="1:16" s="2" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
       <c r="E2" s="24" t="s">
         <v>2</v>
       </c>
@@ -3170,9 +3192,9 @@
       <c r="P2" s="6"/>
     </row>
     <row r="3" spans="1:16" s="2" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
       <c r="E3" s="26">
         <f ca="1">TODAY()</f>
         <v>44852</v>
@@ -3369,29 +3391,45 @@
       <c r="G10" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="H10" s="56" t="s">
+      <c r="H10" s="54" t="s">
         <v>48</v>
       </c>
       <c r="I10" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="J10" s="57" t="s">
+      <c r="J10" s="55" t="s">
         <v>49</v>
       </c>
       <c r="K10" s="13"/>
       <c r="L10" s="5"/>
     </row>
     <row r="11" spans="1:16" ht="156.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="58"/>
-      <c r="B11" s="59"/>
-      <c r="C11" s="47"/>
-      <c r="D11" s="47"/>
-      <c r="E11" s="41"/>
+      <c r="A11" s="56" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" s="57" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="47" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="41" t="s">
+        <v>53</v>
+      </c>
       <c r="F11" s="41"/>
-      <c r="G11" s="42"/>
+      <c r="G11" s="42" t="s">
+        <v>38</v>
+      </c>
       <c r="H11" s="42"/>
-      <c r="I11" s="51"/>
-      <c r="J11" s="42"/>
+      <c r="I11" s="51" t="s">
+        <v>54</v>
+      </c>
+      <c r="J11" s="60" t="s">
+        <v>55</v>
+      </c>
       <c r="K11" s="13"/>
       <c r="L11" s="5"/>
     </row>
@@ -3658,18 +3696,48 @@
     <hyperlink ref="J8" r:id="rId3" xr:uid="{5DF73E96-2465-4564-98E4-1DD44624E0F4}"/>
     <hyperlink ref="J9" r:id="rId4" xr:uid="{CD58614A-DCB1-40A8-87AB-BEF994E270F3}"/>
     <hyperlink ref="J10" r:id="rId5" xr:uid="{B39318F9-344D-4F96-8DBA-DB9DBFFDB342}"/>
+    <hyperlink ref="J11" r:id="rId6" xr:uid="{E5821ECF-18D1-432B-AE93-DC7D3BE8D8D8}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="52" fitToHeight="0" orientation="landscape" r:id="rId6"/>
-  <drawing r:id="rId7"/>
+  <pageSetup paperSize="9" scale="52" fitToHeight="0" orientation="landscape" r:id="rId7"/>
+  <drawing r:id="rId8"/>
   <tableParts count="1">
-    <tablePart r:id="rId8"/>
+    <tablePart r:id="rId9"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="24" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2d714a3296df14eba7a100bb665443ca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="49549bf45bfbbfb6cffed527380e77e1" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -3957,36 +4025,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{141D71A4-5CC3-40CD-990C-070FB4B5F315}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5D97E00F-6E84-416B-8452-E6DC935A7A92}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B44AF425-737A-413C-9CB5-588E99FE889D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4005,24 +4064,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5D97E00F-6E84-416B-8452-E6DC935A7A92}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{141D71A4-5CC3-40CD-990C-070FB4B5F315}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/00 - Recolha de Requisitos/RegistodePesquisas.xlsx
+++ b/00 - Recolha de Requisitos/RegistodePesquisas.xlsx
@@ -3,14 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07E2CFB7-BB04-4716-A8AD-35997788BFEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBFE8E88-7111-45AA-8B8A-7A51E0694417}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2076" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Registo de Pesquisas" sheetId="1" r:id="rId1"/>
+    <sheet name="Brain Storming" sheetId="2" r:id="rId1"/>
+    <sheet name="Registo de Pesquisas" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -18,12 +19,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="57">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -255,20 +253,23 @@
   <si>
     <t>https://www.wakingapp.com/showcase-autodesk?utm_medium=website&amp;utm_source=archdaily.com.br</t>
   </si>
+  <si>
+    <t>Breve descrição</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="6">
-    <numFmt numFmtId="42" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;\ &quot;€&quot;_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="#,##0_ ;\-#,##0\ "/>
-    <numFmt numFmtId="166" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="167" formatCode="0000"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="#,##0_ ;\-#,##0\ "/>
+    <numFmt numFmtId="167" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="168" formatCode="0000"/>
   </numFmts>
-  <fonts count="52" x14ac:knownFonts="1">
+  <fonts count="52">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -945,11 +946,11 @@
   </borders>
   <cellStyleXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -993,7 +994,7 @@
     <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1097,7 +1098,7 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="23" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="23" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1148,7 +1149,7 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1166,14 +1167,17 @@
     <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="47" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="47" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="48">
@@ -1226,7 +1230,44 @@
     <cellStyle name="Verificar Célula" xfId="19" builtinId="23" customBuiltin="1"/>
     <cellStyle name="Vírgula" xfId="1" builtinId="3" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="20">
+  <dxfs count="26">
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFA0C6CC"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="8" tint="0.59996337778862885"/>
+        </left>
+        <right style="thin">
+          <color theme="8" tint="0.59996337778862885"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1457,21 +1498,98 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="0"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFA0C6CC"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="8" tint="0.59996337778862885"/>
-        </left>
-        <right style="thin">
-          <color theme="8" tint="0.59996337778862885"/>
-        </right>
-      </border>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF818B8A"/>
+        <name val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="3"/>
+        <name val="Franklin Gothic Medium"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -1566,13 +1684,13 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="TableStyleMedium3 2" pivot="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="19"/>
-      <tableStyleElement type="headerRow" dxfId="18"/>
-      <tableStyleElement type="totalRow" dxfId="17"/>
-      <tableStyleElement type="firstColumn" dxfId="16"/>
-      <tableStyleElement type="lastColumn" dxfId="15"/>
-      <tableStyleElement type="firstRowStripe" dxfId="14"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="13"/>
+      <tableStyleElement type="wholeTable" dxfId="25"/>
+      <tableStyleElement type="headerRow" dxfId="24"/>
+      <tableStyleElement type="totalRow" dxfId="23"/>
+      <tableStyleElement type="firstColumn" dxfId="22"/>
+      <tableStyleElement type="lastColumn" dxfId="21"/>
+      <tableStyleElement type="firstRowStripe" dxfId="20"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="19"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -1600,6 +1718,111 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2268</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>477611</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagem 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFE743F7-D61F-47E1-9DBB-7C78B66B5205}"/>
+            </a:ext>
+            <a:ext uri="{C183D7F6-B498-43B3-948B-1728B52AA6E4}">
+              <adec:decorative xmlns:adec="http://schemas.microsoft.com/office/drawing/2017/decorative" val="1"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="1808208" cy="2022566"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>5145318</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1780271</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>252640</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagem 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7AA46D0F-2D30-40D8-80F6-D80DD2B05275}"/>
+            </a:ext>
+            <a:ext uri="{C183D7F6-B498-43B3-948B-1728B52AA6E4}">
+              <adec:decorative xmlns:adec="http://schemas.microsoft.com/office/drawing/2017/decorative" val="1"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="8871860" y="-112485"/>
+          <a:ext cx="1809297" cy="2034268"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1642,7 +1865,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="1799772" cy="2024743"/>
+          <a:ext cx="1809297" cy="2024743"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2030,18 +2253,35 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="TBL_Invitations" displayName="TBL_Convites" ref="A5:J16" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C787B3F7-4F7F-494F-AABF-45575620CAF9}" name="TBL_Convites2" displayName="TBL_Convites2" ref="A5:D16" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{E7278A0B-3AC1-4EB1-B916-8D2F67774C59}" name="Local/Contexto" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{F3151AED-695C-4934-8476-334682473CD8}" name="Objetivos" dataDxfId="15"/>
+    <tableColumn id="5" xr3:uid="{7DBBD151-0758-47AA-9A9C-062C59CE4697}" name="Tipos de Interação" dataDxfId="1"/>
+    <tableColumn id="13" xr3:uid="{16CC515B-ECA2-4C31-8510-0BA4BE682129}" name="Breve descrição" dataDxfId="14"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium3 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{504A1905-F514-4f6f-8877-14C23A59335A}">
+      <x14:table altTextSummary="Tabela com informações sobre os convites"/>
+    </ext>
+  </extLst>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="TBL_Invitations" displayName="TBL_Convites" ref="A5:J16" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Local/Contexto" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Objetivos" dataDxfId="8"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Arquitetura global" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Dispositivos" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Tipos de Interação" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Packages de software" dataDxfId="4"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Linguagens de programação" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Avaliação com peritos/utilizadores" dataDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Public-domain" dataDxfId="1"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Site" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Local/Contexto" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Objetivos" dataDxfId="10"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Arquitetura global" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Dispositivos" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Tipos de Interação" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Packages de software" dataDxfId="6"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Linguagens de programação" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Avaliação com peritos/utilizadores" dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Public-domain" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Site" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3135,38 +3375,319 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26C36C8E-E7CB-4595-A389-821B66EBA1ED}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:I83"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="21" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="23.69921875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.09765625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="70.8984375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="23.69921875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="24.5" style="4" customWidth="1"/>
+    <col min="6" max="6" width="1.5" style="5" customWidth="1"/>
+    <col min="7" max="16384" width="10.69921875" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="40.200000000000003" customHeight="1">
+      <c r="A1" s="11"/>
+      <c r="B1" s="60" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="58"/>
+      <c r="D1" s="19"/>
+    </row>
+    <row r="2" spans="1:9" s="2" customFormat="1" ht="42" customHeight="1">
+      <c r="B2" s="61"/>
+      <c r="C2" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="24"/>
+      <c r="E2" s="6"/>
+      <c r="I2" s="6"/>
+    </row>
+    <row r="3" spans="1:9" s="2" customFormat="1" ht="40.200000000000003" customHeight="1">
+      <c r="B3" s="61"/>
+      <c r="C3" s="26">
+        <f ca="1">TODAY()</f>
+        <v>44852</v>
+      </c>
+      <c r="D3" s="27"/>
+      <c r="E3" s="6"/>
+      <c r="I3" s="6"/>
+    </row>
+    <row r="4" spans="1:9" s="2" customFormat="1" ht="40.200000000000003" customHeight="1">
+      <c r="B4" s="15"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="21"/>
+      <c r="I4" s="6"/>
+    </row>
+    <row r="5" spans="1:9" s="2" customFormat="1" ht="40.200000000000003" customHeight="1">
+      <c r="A5" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" s="6"/>
+      <c r="I5" s="6"/>
+    </row>
+    <row r="6" spans="1:9" s="1" customFormat="1" ht="159.44999999999999" customHeight="1">
+      <c r="A6" s="43"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="49"/>
+    </row>
+    <row r="7" spans="1:9" s="1" customFormat="1" ht="163.19999999999999" customHeight="1">
+      <c r="A7" s="43"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
+    </row>
+    <row r="8" spans="1:9" ht="162" customHeight="1">
+      <c r="A8" s="43"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="5"/>
+    </row>
+    <row r="9" spans="1:9" ht="159.6" customHeight="1">
+      <c r="A9" s="43"/>
+      <c r="B9" s="43"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="5"/>
+    </row>
+    <row r="10" spans="1:9" ht="167.4" customHeight="1">
+      <c r="A10" s="52"/>
+      <c r="B10" s="52"/>
+      <c r="C10" s="52"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="5"/>
+    </row>
+    <row r="11" spans="1:9" ht="156.6" customHeight="1">
+      <c r="A11" s="56"/>
+      <c r="B11" s="56"/>
+      <c r="C11" s="56"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="5"/>
+    </row>
+    <row r="12" spans="1:9" ht="25.2" customHeight="1">
+      <c r="A12" s="28"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="5"/>
+    </row>
+    <row r="13" spans="1:9" ht="25.2" customHeight="1">
+      <c r="A13" s="28"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="5"/>
+    </row>
+    <row r="14" spans="1:9" ht="25.2" customHeight="1">
+      <c r="A14" s="28"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="5"/>
+    </row>
+    <row r="15" spans="1:9" ht="25.2" customHeight="1">
+      <c r="A15" s="28"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="5"/>
+    </row>
+    <row r="16" spans="1:9" ht="25.2" customHeight="1">
+      <c r="A16" s="28"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="5"/>
+    </row>
+    <row r="17" spans="1:5" ht="19.95" customHeight="1">
+      <c r="A17" s="12"/>
+      <c r="B17" s="58"/>
+      <c r="C17" s="58"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="5"/>
+    </row>
+    <row r="18" spans="1:5" ht="19.95" customHeight="1">
+      <c r="A18" s="12"/>
+      <c r="B18" s="58"/>
+      <c r="C18" s="58"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="5"/>
+    </row>
+    <row r="19" spans="1:5" ht="19.95" customHeight="1">
+      <c r="A19" s="12"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="5"/>
+    </row>
+    <row r="20" spans="1:5" ht="19.95" customHeight="1">
+      <c r="A20" s="12"/>
+      <c r="B20" s="58"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="5"/>
+    </row>
+    <row r="21" spans="1:5" ht="19.95" customHeight="1">
+      <c r="A21" s="7"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="5"/>
+    </row>
+    <row r="22" spans="1:5" ht="19.95" customHeight="1">
+      <c r="A22" s="7"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="5"/>
+    </row>
+    <row r="23" spans="1:5" ht="19.95" customHeight="1">
+      <c r="D23" s="4"/>
+      <c r="E23" s="5"/>
+    </row>
+    <row r="24" spans="1:5" ht="19.95" customHeight="1">
+      <c r="D24" s="4"/>
+      <c r="E24" s="5"/>
+    </row>
+    <row r="25" spans="1:5" ht="19.95" customHeight="1">
+      <c r="D25" s="4"/>
+      <c r="E25" s="5"/>
+    </row>
+    <row r="26" spans="1:5" ht="19.95" customHeight="1">
+      <c r="D26" s="4"/>
+      <c r="E26" s="5"/>
+    </row>
+    <row r="27" spans="1:5" ht="19.95" customHeight="1"/>
+    <row r="28" spans="1:5" ht="19.95" customHeight="1"/>
+    <row r="29" spans="1:5" ht="19.95" customHeight="1"/>
+    <row r="30" spans="1:5" ht="19.95" customHeight="1"/>
+    <row r="31" spans="1:5" ht="19.95" customHeight="1"/>
+    <row r="32" spans="1:5" ht="19.95" customHeight="1"/>
+    <row r="33" ht="19.95" customHeight="1"/>
+    <row r="34" ht="19.95" customHeight="1"/>
+    <row r="35" ht="19.95" customHeight="1"/>
+    <row r="36" ht="19.95" customHeight="1"/>
+    <row r="37" ht="19.95" customHeight="1"/>
+    <row r="38" ht="19.95" customHeight="1"/>
+    <row r="39" ht="19.95" customHeight="1"/>
+    <row r="40" ht="19.95" customHeight="1"/>
+    <row r="41" ht="19.95" customHeight="1"/>
+    <row r="42" ht="19.95" customHeight="1"/>
+    <row r="43" ht="19.95" customHeight="1"/>
+    <row r="44" ht="19.95" customHeight="1"/>
+    <row r="45" ht="19.95" customHeight="1"/>
+    <row r="46" ht="19.95" customHeight="1"/>
+    <row r="47" ht="19.95" customHeight="1"/>
+    <row r="48" ht="19.95" customHeight="1"/>
+    <row r="49" ht="19.95" customHeight="1"/>
+    <row r="50" ht="19.95" customHeight="1"/>
+    <row r="51" ht="19.95" customHeight="1"/>
+    <row r="52" ht="19.95" customHeight="1"/>
+    <row r="53" ht="19.95" customHeight="1"/>
+    <row r="54" ht="19.95" customHeight="1"/>
+    <row r="55" ht="19.95" customHeight="1"/>
+    <row r="56" ht="19.95" customHeight="1"/>
+    <row r="57" ht="19.95" customHeight="1"/>
+    <row r="58" ht="19.95" customHeight="1"/>
+    <row r="59" ht="19.95" customHeight="1"/>
+    <row r="60" ht="19.95" customHeight="1"/>
+    <row r="61" ht="19.95" customHeight="1"/>
+    <row r="62" ht="19.95" customHeight="1"/>
+    <row r="63" ht="19.95" customHeight="1"/>
+    <row r="64" ht="19.95" customHeight="1"/>
+    <row r="65" ht="19.95" customHeight="1"/>
+    <row r="66" ht="19.95" customHeight="1"/>
+    <row r="67" ht="19.95" customHeight="1"/>
+    <row r="68" ht="19.95" customHeight="1"/>
+    <row r="69" ht="19.95" customHeight="1"/>
+    <row r="70" ht="19.95" customHeight="1"/>
+    <row r="71" ht="19.95" customHeight="1"/>
+    <row r="72" ht="19.95" customHeight="1"/>
+    <row r="73" ht="19.95" customHeight="1"/>
+    <row r="74" ht="19.95" customHeight="1"/>
+    <row r="75" ht="19.95" customHeight="1"/>
+    <row r="76" ht="19.95" customHeight="1"/>
+    <row r="77" ht="19.95" customHeight="1"/>
+    <row r="78" ht="19.95" customHeight="1"/>
+    <row r="79" ht="19.95" customHeight="1"/>
+    <row r="80" ht="19.95" customHeight="1"/>
+    <row r="81" ht="19.95" customHeight="1"/>
+    <row r="82" ht="19.95" customHeight="1"/>
+    <row r="83" ht="19.95" customHeight="1"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:B3"/>
+  </mergeCells>
+  <dataValidations count="3">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Esta célula calcula automaticamente o número total de pessoas que confirmaram a presença" sqref="D21" xr:uid="{7A252D84-F3BB-4831-B2CB-7378EFA2C989}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Esta célula calcula automaticamente o número total de pessoas a quem enviou convites" sqref="D3" xr:uid="{5B4079BF-08B0-4E27-8CE2-7C9192115D3A}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Introduza a data do casamento nesta célula" sqref="D4 C3" xr:uid="{9F57A1B1-7BBB-4DCB-ACF3-A5C0FA5D2A8A}"/>
+  </dataValidations>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="52" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:P83"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="H10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.7265625" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="21" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="23.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.7265625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="33.1796875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="35.08984375" style="5" customWidth="1"/>
-    <col min="5" max="5" width="70.90625" style="5" customWidth="1"/>
-    <col min="6" max="7" width="23.7265625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="24.7265625" style="4" customWidth="1"/>
-    <col min="9" max="10" width="23.7265625" style="4" customWidth="1"/>
-    <col min="11" max="12" width="24.453125" style="4" customWidth="1"/>
-    <col min="13" max="13" width="1.453125" style="5" customWidth="1"/>
-    <col min="14" max="16384" width="10.7265625" style="5"/>
+    <col min="1" max="1" width="23.69921875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.69921875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="33.19921875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="35.09765625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="70.8984375" style="5" customWidth="1"/>
+    <col min="6" max="7" width="23.69921875" style="5" customWidth="1"/>
+    <col min="8" max="8" width="24.69921875" style="4" customWidth="1"/>
+    <col min="9" max="10" width="23.69921875" style="4" customWidth="1"/>
+    <col min="11" max="12" width="24.5" style="4" customWidth="1"/>
+    <col min="13" max="13" width="1.5" style="5" customWidth="1"/>
+    <col min="14" max="16384" width="10.69921875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:16" ht="40.200000000000003" customHeight="1">
       <c r="A1" s="11"/>
-      <c r="B1" s="58" t="s">
+      <c r="B1" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
       <c r="E1" s="13"/>
       <c r="F1" s="13"/>
       <c r="G1" s="19"/>
@@ -3175,10 +3696,10 @@
       <c r="J1" s="18"/>
       <c r="K1" s="12"/>
     </row>
-    <row r="2" spans="1:16" s="2" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
+    <row r="2" spans="1:16" s="2" customFormat="1" ht="42" customHeight="1">
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
       <c r="E2" s="24" t="s">
         <v>2</v>
       </c>
@@ -3191,10 +3712,10 @@
       <c r="L2" s="6"/>
       <c r="P2" s="6"/>
     </row>
-    <row r="3" spans="1:16" s="2" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
+    <row r="3" spans="1:16" s="2" customFormat="1" ht="40.200000000000003" customHeight="1">
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
       <c r="E3" s="26">
         <f ca="1">TODAY()</f>
         <v>44852</v>
@@ -3208,7 +3729,7 @@
       <c r="L3" s="6"/>
       <c r="P3" s="6"/>
     </row>
-    <row r="4" spans="1:16" s="2" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" s="2" customFormat="1" ht="40.200000000000003" customHeight="1">
       <c r="B4" s="15"/>
       <c r="C4" s="14"/>
       <c r="D4" s="36"/>
@@ -3223,7 +3744,7 @@
       <c r="K4" s="17"/>
       <c r="P4" s="6"/>
     </row>
-    <row r="5" spans="1:16" s="2" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" s="2" customFormat="1" ht="40.200000000000003" customHeight="1">
       <c r="A5" s="25" t="s">
         <v>3</v>
       </c>
@@ -3258,7 +3779,7 @@
       <c r="L5" s="6"/>
       <c r="P5" s="6"/>
     </row>
-    <row r="6" spans="1:16" s="1" customFormat="1" ht="159.44999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" s="1" customFormat="1" ht="159.44999999999999" customHeight="1">
       <c r="A6" s="43" t="s">
         <v>20</v>
       </c>
@@ -3288,7 +3809,7 @@
       <c r="K6" s="12"/>
       <c r="L6" s="49"/>
     </row>
-    <row r="7" spans="1:16" s="1" customFormat="1" ht="163.19999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" s="1" customFormat="1" ht="163.19999999999999" customHeight="1">
       <c r="A7" s="43" t="s">
         <v>27</v>
       </c>
@@ -3315,7 +3836,7 @@
       </c>
       <c r="K7" s="13"/>
     </row>
-    <row r="8" spans="1:16" ht="162" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" ht="162" customHeight="1">
       <c r="A8" s="43" t="s">
         <v>29</v>
       </c>
@@ -3341,7 +3862,7 @@
       <c r="K8" s="13"/>
       <c r="L8" s="5"/>
     </row>
-    <row r="9" spans="1:16" ht="159.6" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" ht="159.6" customHeight="1">
       <c r="A9" s="43" t="s">
         <v>40</v>
       </c>
@@ -3371,7 +3892,7 @@
       <c r="K9" s="44"/>
       <c r="L9" s="5"/>
     </row>
-    <row r="10" spans="1:16" ht="167.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" ht="167.4" customHeight="1">
       <c r="A10" s="52" t="s">
         <v>43</v>
       </c>
@@ -3403,7 +3924,7 @@
       <c r="K10" s="13"/>
       <c r="L10" s="5"/>
     </row>
-    <row r="11" spans="1:16" ht="156.6" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" ht="156.6" customHeight="1">
       <c r="A11" s="56" t="s">
         <v>50</v>
       </c>
@@ -3427,13 +3948,13 @@
       <c r="I11" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="J11" s="60" t="s">
+      <c r="J11" s="59" t="s">
         <v>55</v>
       </c>
       <c r="K11" s="13"/>
       <c r="L11" s="5"/>
     </row>
-    <row r="12" spans="1:16" ht="25.2" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" ht="25.2" customHeight="1">
       <c r="A12" s="28"/>
       <c r="B12" s="32"/>
       <c r="C12" s="30"/>
@@ -3449,7 +3970,7 @@
       <c r="K12" s="13"/>
       <c r="L12" s="5"/>
     </row>
-    <row r="13" spans="1:16" ht="25.2" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" ht="25.2" customHeight="1">
       <c r="A13" s="28" t="s">
         <v>0</v>
       </c>
@@ -3465,7 +3986,7 @@
       <c r="K13" s="13"/>
       <c r="L13" s="5"/>
     </row>
-    <row r="14" spans="1:16" ht="25.2" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16" ht="25.2" customHeight="1">
       <c r="A14" s="28" t="s">
         <v>0</v>
       </c>
@@ -3481,7 +4002,7 @@
       <c r="K14" s="13"/>
       <c r="L14" s="5"/>
     </row>
-    <row r="15" spans="1:16" ht="25.2" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" ht="25.2" customHeight="1">
       <c r="A15" s="28" t="s">
         <v>0</v>
       </c>
@@ -3497,7 +4018,7 @@
       <c r="K15" s="13"/>
       <c r="L15" s="5"/>
     </row>
-    <row r="16" spans="1:16" ht="25.2" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16" ht="25.2" customHeight="1">
       <c r="A16" s="28" t="s">
         <v>0</v>
       </c>
@@ -3513,7 +4034,7 @@
       <c r="K16" s="13"/>
       <c r="L16" s="5"/>
     </row>
-    <row r="17" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" ht="19.95" customHeight="1">
       <c r="A17" s="12"/>
       <c r="B17" s="13"/>
       <c r="C17" s="13"/>
@@ -3527,7 +4048,7 @@
       <c r="K17" s="13"/>
       <c r="L17" s="5"/>
     </row>
-    <row r="18" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" ht="19.95" customHeight="1">
       <c r="A18" s="12"/>
       <c r="B18" s="13"/>
       <c r="C18" s="13"/>
@@ -3541,7 +4062,7 @@
       <c r="K18" s="13"/>
       <c r="L18" s="5"/>
     </row>
-    <row r="19" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" ht="19.95" customHeight="1">
       <c r="A19" s="12"/>
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
@@ -3555,7 +4076,7 @@
       <c r="K19" s="13"/>
       <c r="L19" s="5"/>
     </row>
-    <row r="20" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:12" ht="19.95" customHeight="1">
       <c r="A20" s="12"/>
       <c r="B20" s="13"/>
       <c r="C20" s="13"/>
@@ -3569,7 +4090,7 @@
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
     </row>
-    <row r="21" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" ht="19.95" customHeight="1">
       <c r="A21" s="7"/>
       <c r="B21" s="8"/>
       <c r="C21" s="9"/>
@@ -3583,7 +4104,7 @@
       <c r="K21" s="5"/>
       <c r="L21" s="5"/>
     </row>
-    <row r="22" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" ht="19.95" customHeight="1">
       <c r="A22" s="7"/>
       <c r="B22" s="8"/>
       <c r="C22" s="9"/>
@@ -3597,87 +4118,87 @@
       <c r="K22" s="5"/>
       <c r="L22" s="5"/>
     </row>
-    <row r="23" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" ht="19.95" customHeight="1">
       <c r="G23" s="4"/>
       <c r="J23" s="9"/>
       <c r="L23" s="5"/>
     </row>
-    <row r="24" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" ht="19.95" customHeight="1">
       <c r="G24" s="4"/>
       <c r="J24" s="9"/>
       <c r="L24" s="5"/>
     </row>
-    <row r="25" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" ht="19.95" customHeight="1">
       <c r="G25" s="4"/>
       <c r="L25" s="5"/>
     </row>
-    <row r="26" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" ht="19.95" customHeight="1">
       <c r="G26" s="4"/>
       <c r="L26" s="5"/>
     </row>
-    <row r="27" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="28" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="29" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="30" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="31" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="32" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="33" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="34" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="35" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="36" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="37" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="38" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="39" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="40" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="41" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="42" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="43" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="44" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="45" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="46" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="47" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="48" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="49" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="50" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="51" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="52" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="53" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="54" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="55" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="56" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="57" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="58" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="59" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="60" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="61" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="62" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="63" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="64" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="65" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="66" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="67" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="68" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="69" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="70" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="71" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="72" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="73" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="74" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="75" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="76" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="77" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="78" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="79" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="80" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="81" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="82" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="83" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="27" spans="1:12" ht="19.95" customHeight="1"/>
+    <row r="28" spans="1:12" ht="19.95" customHeight="1"/>
+    <row r="29" spans="1:12" ht="19.95" customHeight="1"/>
+    <row r="30" spans="1:12" ht="19.95" customHeight="1"/>
+    <row r="31" spans="1:12" ht="19.95" customHeight="1"/>
+    <row r="32" spans="1:12" ht="19.95" customHeight="1"/>
+    <row r="33" ht="19.95" customHeight="1"/>
+    <row r="34" ht="19.95" customHeight="1"/>
+    <row r="35" ht="19.95" customHeight="1"/>
+    <row r="36" ht="19.95" customHeight="1"/>
+    <row r="37" ht="19.95" customHeight="1"/>
+    <row r="38" ht="19.95" customHeight="1"/>
+    <row r="39" ht="19.95" customHeight="1"/>
+    <row r="40" ht="19.95" customHeight="1"/>
+    <row r="41" ht="19.95" customHeight="1"/>
+    <row r="42" ht="19.95" customHeight="1"/>
+    <row r="43" ht="19.95" customHeight="1"/>
+    <row r="44" ht="19.95" customHeight="1"/>
+    <row r="45" ht="19.95" customHeight="1"/>
+    <row r="46" ht="19.95" customHeight="1"/>
+    <row r="47" ht="19.95" customHeight="1"/>
+    <row r="48" ht="19.95" customHeight="1"/>
+    <row r="49" ht="19.95" customHeight="1"/>
+    <row r="50" ht="19.95" customHeight="1"/>
+    <row r="51" ht="19.95" customHeight="1"/>
+    <row r="52" ht="19.95" customHeight="1"/>
+    <row r="53" ht="19.95" customHeight="1"/>
+    <row r="54" ht="19.95" customHeight="1"/>
+    <row r="55" ht="19.95" customHeight="1"/>
+    <row r="56" ht="19.95" customHeight="1"/>
+    <row r="57" ht="19.95" customHeight="1"/>
+    <row r="58" ht="19.95" customHeight="1"/>
+    <row r="59" ht="19.95" customHeight="1"/>
+    <row r="60" ht="19.95" customHeight="1"/>
+    <row r="61" ht="19.95" customHeight="1"/>
+    <row r="62" ht="19.95" customHeight="1"/>
+    <row r="63" ht="19.95" customHeight="1"/>
+    <row r="64" ht="19.95" customHeight="1"/>
+    <row r="65" ht="19.95" customHeight="1"/>
+    <row r="66" ht="19.95" customHeight="1"/>
+    <row r="67" ht="19.95" customHeight="1"/>
+    <row r="68" ht="19.95" customHeight="1"/>
+    <row r="69" ht="19.95" customHeight="1"/>
+    <row r="70" ht="19.95" customHeight="1"/>
+    <row r="71" ht="19.95" customHeight="1"/>
+    <row r="72" ht="19.95" customHeight="1"/>
+    <row r="73" ht="19.95" customHeight="1"/>
+    <row r="74" ht="19.95" customHeight="1"/>
+    <row r="75" ht="19.95" customHeight="1"/>
+    <row r="76" ht="19.95" customHeight="1"/>
+    <row r="77" ht="19.95" customHeight="1"/>
+    <row r="78" ht="19.95" customHeight="1"/>
+    <row r="79" ht="19.95" customHeight="1"/>
+    <row r="80" ht="19.95" customHeight="1"/>
+    <row r="81" ht="19.95" customHeight="1"/>
+    <row r="82" ht="19.95" customHeight="1"/>
+    <row r="83" ht="19.95" customHeight="1"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:D3"/>
   </mergeCells>
   <conditionalFormatting sqref="C13:C16 B12:B16">
-    <cfRule type="cellIs" dxfId="12" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3709,35 +4230,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="24" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2d714a3296df14eba7a100bb665443ca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="49549bf45bfbbfb6cffed527380e77e1" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -4025,27 +4517,36 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{141D71A4-5CC3-40CD-990C-070FB4B5F315}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5D97E00F-6E84-416B-8452-E6DC935A7A92}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B44AF425-737A-413C-9CB5-588E99FE889D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4064,4 +4565,24 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{141D71A4-5CC3-40CD-990C-070FB4B5F315}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5D97E00F-6E84-416B-8452-E6DC935A7A92}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/00 - Recolha de Requisitos/RegistodePesquisas.xlsx
+++ b/00 - Recolha de Requisitos/RegistodePesquisas.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBFE8E88-7111-45AA-8B8A-7A51E0694417}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A6128B2-3382-45E5-BCCD-2174BB08736A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Brain Storming" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="65">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -183,13 +183,6 @@
 </t>
   </si>
   <si>
-    <t>Iphones
-Android Mobile devices
-Unity3D
-Vulfloria7
-Xcode</t>
-  </si>
-  <si>
     <t>C#
 C++</t>
   </si>
@@ -255,6 +248,37 @@
   </si>
   <si>
     <t>Breve descrição</t>
+  </si>
+  <si>
+    <t>Augmented reality application to support remote maintenance as a service in the Robotics industry</t>
+  </si>
+  <si>
+    <t>Permite a  um técnico não especializado fazer o reparo de uma máquina da linha de montagem com a ajuda de um especialista e modelos de AR 3d.</t>
+  </si>
+  <si>
+    <t>Smartphones/Tablets 
+AR googles</t>
+  </si>
+  <si>
+    <t>Unity3D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iphones
+Android Mobile devices
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C#
+</t>
+  </si>
+  <si>
+    <t>Na experiencia em questão o tempo utilizado diminuiu de 9 para 2 horas e de 1370$ para 150$ o que traduz um aumento na eficiencia e redução no custo da manutenção e reparo de máquinas numa linha de monstagem</t>
+  </si>
+  <si>
+    <t>D. MourtzisV. ZogopoulosE. Vlachou</t>
+  </si>
+  <si>
+    <t>https://reader.elsevier.com/reader/sd/pii/S2212827117303360?token=75695010DF8133E3E9E58C91610ED598EDBFF7E97E901869B423895C9FA8CDD0AFF941C7B9B6A07944AC70D7A54F2E6B&amp;originRegion=eu-west-1&amp;originCreation=20221019083855</t>
   </si>
 </sst>
 </file>
@@ -994,7 +1018,7 @@
     <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1094,9 +1118,6 @@
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="23" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1248,25 +1269,6 @@
           <color theme="8" tint="0.59996337778862885"/>
         </right>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Franklin Gothic Book"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1514,6 +1516,25 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2249,6 +2270,94 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>65314</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>101553</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>2361786</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Imagem 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFD08514-BE98-FF55-D4AA-27C0EC2CB31D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3918857" y="14935200"/>
+          <a:ext cx="2322239" cy="2296472"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>217715</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>229340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>4550229</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>2432107</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Imagem 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CDAA5D5F-8477-A8C8-6868-28DFB21A418F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9035144" y="15099226"/>
+          <a:ext cx="4332514" cy="2202767"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2257,8 +2366,8 @@
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{E7278A0B-3AC1-4EB1-B916-8D2F67774C59}" name="Local/Contexto" dataDxfId="16"/>
     <tableColumn id="2" xr3:uid="{F3151AED-695C-4934-8476-334682473CD8}" name="Objetivos" dataDxfId="15"/>
-    <tableColumn id="5" xr3:uid="{7DBBD151-0758-47AA-9A9C-062C59CE4697}" name="Tipos de Interação" dataDxfId="1"/>
-    <tableColumn id="13" xr3:uid="{16CC515B-ECA2-4C31-8510-0BA4BE682129}" name="Breve descrição" dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{7DBBD151-0758-47AA-9A9C-062C59CE4697}" name="Tipos de Interação" dataDxfId="14"/>
+    <tableColumn id="13" xr3:uid="{16CC515B-ECA2-4C31-8510-0BA4BE682129}" name="Breve descrição" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2270,18 +2379,18 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="TBL_Invitations" displayName="TBL_Convites" ref="A5:J16" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="TBL_Invitations" displayName="TBL_Convites" ref="A5:J15" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Local/Contexto" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Objetivos" dataDxfId="10"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Arquitetura global" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Dispositivos" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Tipos de Interação" dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Packages de software" dataDxfId="6"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Linguagens de programação" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Avaliação com peritos/utilizadores" dataDxfId="4"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Public-domain" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Site" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Local/Contexto" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Objetivos" dataDxfId="9"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Arquitetura global" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Dispositivos" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Tipos de Interação" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Packages de software" dataDxfId="5"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Linguagens de programação" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Avaliação com peritos/utilizadores" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Public-domain" dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Site" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3381,7 +3490,7 @@
   </sheetPr>
   <dimension ref="A1:I83"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
@@ -3398,14 +3507,14 @@
   <sheetData>
     <row r="1" spans="1:9" ht="40.200000000000003" customHeight="1">
       <c r="A1" s="11"/>
-      <c r="B1" s="60" t="s">
+      <c r="B1" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="58"/>
+      <c r="C1" s="57"/>
       <c r="D1" s="19"/>
     </row>
     <row r="2" spans="1:9" s="2" customFormat="1" ht="42" customHeight="1">
-      <c r="B2" s="61"/>
+      <c r="B2" s="60"/>
       <c r="C2" s="24" t="s">
         <v>2</v>
       </c>
@@ -3414,10 +3523,10 @@
       <c r="I2" s="6"/>
     </row>
     <row r="3" spans="1:9" s="2" customFormat="1" ht="40.200000000000003" customHeight="1">
-      <c r="B3" s="61"/>
+      <c r="B3" s="60"/>
       <c r="C3" s="26">
         <f ca="1">TODAY()</f>
-        <v>44852</v>
+        <v>44853</v>
       </c>
       <c r="D3" s="27"/>
       <c r="E3" s="6"/>
@@ -3440,50 +3549,50 @@
         <v>7</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E5" s="6"/>
       <c r="I5" s="6"/>
     </row>
     <row r="6" spans="1:9" s="1" customFormat="1" ht="159.44999999999999" customHeight="1">
-      <c r="A6" s="43"/>
-      <c r="B6" s="43"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="49"/>
+      <c r="A6" s="42"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="48"/>
     </row>
     <row r="7" spans="1:9" s="1" customFormat="1" ht="163.19999999999999" customHeight="1">
-      <c r="A7" s="43"/>
-      <c r="B7" s="43"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
+      <c r="A7" s="42"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
     </row>
     <row r="8" spans="1:9" ht="162" customHeight="1">
-      <c r="A8" s="43"/>
-      <c r="B8" s="43"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
+      <c r="A8" s="42"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
       <c r="E8" s="5"/>
     </row>
     <row r="9" spans="1:9" ht="159.6" customHeight="1">
-      <c r="A9" s="43"/>
-      <c r="B9" s="43"/>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
+      <c r="A9" s="42"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
       <c r="E9" s="5"/>
     </row>
     <row r="10" spans="1:9" ht="167.4" customHeight="1">
-      <c r="A10" s="52"/>
-      <c r="B10" s="52"/>
-      <c r="C10" s="52"/>
-      <c r="D10" s="52"/>
+      <c r="A10" s="51"/>
+      <c r="B10" s="51"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="51"/>
       <c r="E10" s="5"/>
     </row>
     <row r="11" spans="1:9" ht="156.6" customHeight="1">
-      <c r="A11" s="56"/>
-      <c r="B11" s="56"/>
-      <c r="C11" s="56"/>
-      <c r="D11" s="56"/>
+      <c r="A11" s="55"/>
+      <c r="B11" s="55"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="55"/>
       <c r="E11" s="5"/>
     </row>
     <row r="12" spans="1:9" ht="25.2" customHeight="1">
@@ -3523,15 +3632,15 @@
     </row>
     <row r="17" spans="1:5" ht="19.95" customHeight="1">
       <c r="A17" s="12"/>
-      <c r="B17" s="58"/>
-      <c r="C17" s="58"/>
+      <c r="B17" s="57"/>
+      <c r="C17" s="57"/>
       <c r="D17" s="12"/>
       <c r="E17" s="5"/>
     </row>
     <row r="18" spans="1:5" ht="19.95" customHeight="1">
       <c r="A18" s="12"/>
-      <c r="B18" s="58"/>
-      <c r="C18" s="58"/>
+      <c r="B18" s="57"/>
+      <c r="C18" s="57"/>
       <c r="D18" s="12"/>
       <c r="E18" s="5"/>
     </row>
@@ -3544,7 +3653,7 @@
     </row>
     <row r="20" spans="1:5" ht="19.95" customHeight="1">
       <c r="A20" s="12"/>
-      <c r="B20" s="58"/>
+      <c r="B20" s="57"/>
       <c r="C20" s="12"/>
       <c r="D20" s="20"/>
       <c r="E20" s="5"/>
@@ -3660,10 +3769,10 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:P83"/>
+  <dimension ref="A1:P82"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="21" customHeight="1"/>
@@ -3683,11 +3792,11 @@
   <sheetData>
     <row r="1" spans="1:16" ht="40.200000000000003" customHeight="1">
       <c r="A1" s="11"/>
-      <c r="B1" s="60" t="s">
+      <c r="B1" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
       <c r="E1" s="13"/>
       <c r="F1" s="13"/>
       <c r="G1" s="19"/>
@@ -3697,9 +3806,9 @@
       <c r="K1" s="12"/>
     </row>
     <row r="2" spans="1:16" s="2" customFormat="1" ht="42" customHeight="1">
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
       <c r="E2" s="24" t="s">
         <v>2</v>
       </c>
@@ -3713,14 +3822,14 @@
       <c r="P2" s="6"/>
     </row>
     <row r="3" spans="1:16" s="2" customFormat="1" ht="40.200000000000003" customHeight="1">
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
       <c r="E3" s="26">
         <f ca="1">TODAY()</f>
-        <v>44852</v>
-      </c>
-      <c r="F3" s="35"/>
+        <v>44853</v>
+      </c>
+      <c r="F3" s="34"/>
       <c r="G3" s="27"/>
       <c r="H3" s="27"/>
       <c r="I3" s="23"/>
@@ -3732,7 +3841,7 @@
     <row r="4" spans="1:16" s="2" customFormat="1" ht="40.200000000000003" customHeight="1">
       <c r="B4" s="15"/>
       <c r="C4" s="14"/>
-      <c r="D4" s="36"/>
+      <c r="D4" s="35"/>
       <c r="E4" s="14"/>
       <c r="F4" s="14" t="s">
         <v>1</v>
@@ -3780,209 +3889,223 @@
       <c r="P5" s="6"/>
     </row>
     <row r="6" spans="1:16" s="1" customFormat="1" ht="159.44999999999999" customHeight="1">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="40" t="s">
+      <c r="C6" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="38" t="s">
+      <c r="D6" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="42" t="s">
+      <c r="E6" s="41" t="s">
         <v>18</v>
       </c>
       <c r="F6" s="32"/>
       <c r="G6" s="33"/>
-      <c r="H6" s="39" t="s">
+      <c r="H6" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="I6" s="41" t="s">
+      <c r="I6" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="J6" s="37" t="s">
+      <c r="J6" s="36" t="s">
         <v>14</v>
       </c>
       <c r="K6" s="12"/>
-      <c r="L6" s="49"/>
+      <c r="L6" s="48"/>
     </row>
     <row r="7" spans="1:16" s="1" customFormat="1" ht="163.19999999999999" customHeight="1">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="47" t="s">
+      <c r="B7" s="46" t="s">
         <v>26</v>
       </c>
       <c r="C7" s="31"/>
-      <c r="D7" s="46" t="s">
+      <c r="D7" s="45" t="s">
         <v>25</v>
       </c>
       <c r="E7" s="32"/>
       <c r="F7" s="32"/>
-      <c r="G7" s="45" t="s">
+      <c r="G7" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="H7" s="41" t="s">
+      <c r="H7" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="I7" s="41" t="s">
+      <c r="I7" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="J7" s="48" t="s">
+      <c r="J7" s="47" t="s">
         <v>28</v>
       </c>
       <c r="K7" s="13"/>
     </row>
     <row r="8" spans="1:16" ht="162" customHeight="1">
-      <c r="A8" s="43" t="s">
+      <c r="A8" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="40" t="s">
+      <c r="B8" s="39" t="s">
         <v>30</v>
       </c>
       <c r="C8" s="30"/>
-      <c r="D8" s="50" t="s">
+      <c r="D8" s="49" t="s">
         <v>34</v>
       </c>
       <c r="E8" s="32"/>
       <c r="F8" s="32"/>
       <c r="G8" s="33"/>
-      <c r="H8" s="45" t="s">
+      <c r="H8" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="I8" s="51" t="s">
+      <c r="I8" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="J8" s="37" t="s">
+      <c r="J8" s="36" t="s">
         <v>32</v>
       </c>
       <c r="K8" s="13"/>
       <c r="L8" s="5"/>
     </row>
     <row r="9" spans="1:16" ht="159.6" customHeight="1">
-      <c r="A9" s="43" t="s">
+      <c r="A9" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="G9" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="H9" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="I9" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="47" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="40" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="45" t="s">
-        <v>36</v>
-      </c>
-      <c r="H9" s="45" t="s">
+      <c r="J9" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="K9" s="43"/>
+      <c r="L9" s="5"/>
+    </row>
+    <row r="10" spans="1:16" ht="167.4" customHeight="1">
+      <c r="A10" s="51" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="I9" s="51" t="s">
-        <v>41</v>
-      </c>
-      <c r="J9" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="K9" s="44"/>
-      <c r="L9" s="5"/>
-    </row>
-    <row r="10" spans="1:16" ht="167.4" customHeight="1">
-      <c r="A10" s="52" t="s">
-        <v>43</v>
-      </c>
-      <c r="B10" s="40" t="s">
+      <c r="D10" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="40" t="s">
+      <c r="E10" s="52" t="s">
         <v>45</v>
-      </c>
-      <c r="E10" s="53" t="s">
-        <v>46</v>
       </c>
       <c r="F10" s="32"/>
       <c r="G10" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="H10" s="54" t="s">
+        <v>37</v>
+      </c>
+      <c r="H10" s="53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" s="52" t="s">
+        <v>46</v>
+      </c>
+      <c r="J10" s="54" t="s">
         <v>48</v>
-      </c>
-      <c r="I10" s="53" t="s">
-        <v>47</v>
-      </c>
-      <c r="J10" s="55" t="s">
-        <v>49</v>
       </c>
       <c r="K10" s="13"/>
       <c r="L10" s="5"/>
     </row>
     <row r="11" spans="1:16" ht="156.6" customHeight="1">
-      <c r="A11" s="56" t="s">
+      <c r="A11" s="55" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="56" t="s">
         <v>50</v>
       </c>
-      <c r="B11" s="57" t="s">
+      <c r="C11" s="46" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="C11" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" s="47" t="s">
+      <c r="E11" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="E11" s="41" t="s">
+      <c r="F11" s="40"/>
+      <c r="G11" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="H11" s="41"/>
+      <c r="I11" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="F11" s="41"/>
-      <c r="G11" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="H11" s="42"/>
-      <c r="I11" s="51" t="s">
+      <c r="J11" s="58" t="s">
         <v>54</v>
-      </c>
-      <c r="J11" s="59" t="s">
-        <v>55</v>
       </c>
       <c r="K11" s="13"/>
       <c r="L11" s="5"/>
     </row>
-    <row r="12" spans="1:16" ht="25.2" customHeight="1">
-      <c r="A12" s="28"/>
-      <c r="B12" s="32"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
+    <row r="12" spans="1:16" ht="197.4" customHeight="1">
+      <c r="A12" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" s="56" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="32"/>
+      <c r="D12" s="40" t="s">
+        <v>58</v>
+      </c>
       <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="H12" s="33"/>
-      <c r="I12" s="34"/>
-      <c r="J12" s="33"/>
+      <c r="F12" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="G12" s="44" t="s">
+        <v>61</v>
+      </c>
+      <c r="H12" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="I12" s="50" t="s">
+        <v>63</v>
+      </c>
+      <c r="J12" s="58" t="s">
+        <v>64</v>
+      </c>
       <c r="K12" s="13"/>
       <c r="L12" s="5"/>
     </row>
     <row r="13" spans="1:16" ht="25.2" customHeight="1">
-      <c r="A13" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="32"/>
-      <c r="C13" s="32"/>
+      <c r="A13" s="28"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="29"/>
       <c r="D13" s="32"/>
       <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="33"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="33"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
       <c r="K13" s="13"/>
       <c r="L13" s="5"/>
     </row>
@@ -4018,19 +4141,17 @@
       <c r="K15" s="13"/>
       <c r="L15" s="5"/>
     </row>
-    <row r="16" spans="1:16" ht="25.2" customHeight="1">
-      <c r="A16" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" s="29"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="28"/>
+    <row r="16" spans="1:16" ht="19.95" customHeight="1">
+      <c r="A16" s="12"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
       <c r="K16" s="13"/>
       <c r="L16" s="5"/>
     </row>
@@ -4050,10 +4171,10 @@
     </row>
     <row r="18" spans="1:12" ht="19.95" customHeight="1">
       <c r="A18" s="12"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
       <c r="F18" s="12"/>
       <c r="G18" s="12"/>
       <c r="H18" s="12"/>
@@ -4064,28 +4185,28 @@
     </row>
     <row r="19" spans="1:12" ht="19.95" customHeight="1">
       <c r="A19" s="12"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
       <c r="E19" s="12"/>
       <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
+      <c r="G19" s="20"/>
       <c r="H19" s="12"/>
       <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="5"/>
       <c r="L19" s="5"/>
     </row>
     <row r="20" spans="1:12" ht="19.95" customHeight="1">
-      <c r="A20" s="12"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
+      <c r="A20" s="7"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
       <c r="J20" s="13"/>
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
@@ -4097,7 +4218,7 @@
       <c r="D21" s="10"/>
       <c r="E21" s="10"/>
       <c r="F21" s="10"/>
-      <c r="G21" s="23"/>
+      <c r="G21" s="9"/>
       <c r="H21" s="9"/>
       <c r="I21" s="9"/>
       <c r="J21" s="13"/>
@@ -4105,17 +4226,8 @@
       <c r="L21" s="5"/>
     </row>
     <row r="22" spans="1:12" ht="19.95" customHeight="1">
-      <c r="A22" s="7"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="5"/>
+      <c r="G22" s="4"/>
+      <c r="J22" s="9"/>
       <c r="L22" s="5"/>
     </row>
     <row r="23" spans="1:12" ht="19.95" customHeight="1">
@@ -4125,17 +4237,13 @@
     </row>
     <row r="24" spans="1:12" ht="19.95" customHeight="1">
       <c r="G24" s="4"/>
-      <c r="J24" s="9"/>
       <c r="L24" s="5"/>
     </row>
     <row r="25" spans="1:12" ht="19.95" customHeight="1">
       <c r="G25" s="4"/>
       <c r="L25" s="5"/>
     </row>
-    <row r="26" spans="1:12" ht="19.95" customHeight="1">
-      <c r="G26" s="4"/>
-      <c r="L26" s="5"/>
-    </row>
+    <row r="26" spans="1:12" ht="19.95" customHeight="1"/>
     <row r="27" spans="1:12" ht="19.95" customHeight="1"/>
     <row r="28" spans="1:12" ht="19.95" customHeight="1"/>
     <row r="29" spans="1:12" ht="19.95" customHeight="1"/>
@@ -4192,24 +4300,23 @@
     <row r="80" ht="19.95" customHeight="1"/>
     <row r="81" ht="19.95" customHeight="1"/>
     <row r="82" ht="19.95" customHeight="1"/>
-    <row r="83" ht="19.95" customHeight="1"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:D3"/>
   </mergeCells>
-  <conditionalFormatting sqref="C13:C16 B12:B16">
+  <conditionalFormatting sqref="B13:C15 C12">
     <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"S"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C13:C16 B12:B16" xr:uid="{00000000-0002-0000-0000-000000000000}">
+  <dataValidations xWindow="274" yWindow="679" count="5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C12:C15 B13:B15" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"S, N"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Introduza a data do casamento nesta célula" sqref="G4 E3" xr:uid="{BCA61B36-4BFD-444C-AEE2-826623C012F2}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Estas células calculam automaticamente o número de dias até ao seu casamento" sqref="H4 F3" xr:uid="{F0D2661E-3FCC-4FEB-B22A-39365F7C7DB8}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Esta célula calcula automaticamente o número total de pessoas a quem enviou convites" sqref="I2:I4 G3" xr:uid="{73A5FDEE-6EDC-42CF-B484-04E99BE8F286}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Esta célula calcula automaticamente o número total de pessoas que confirmaram a presença" sqref="J2:J4 H3 G21" xr:uid="{FFB6FB26-5678-431C-BD54-FF379DC920D3}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Esta célula calcula automaticamente o número total de pessoas que confirmaram a presença" sqref="J2:J4 H3 G20" xr:uid="{FFB6FB26-5678-431C-BD54-FF379DC920D3}"/>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="J6" r:id="rId1" xr:uid="{9C5F7A39-45A7-4854-A959-44BDC3812189}"/>
@@ -4518,6 +4625,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
@@ -4535,15 +4651,6 @@
     <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4568,6 +4675,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5D97E00F-6E84-416B-8452-E6DC935A7A92}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{141D71A4-5CC3-40CD-990C-070FB4B5F315}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -4577,12 +4692,4 @@
     <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5D97E00F-6E84-416B-8452-E6DC935A7A92}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/00 - Recolha de Requisitos/RegistodePesquisas.xlsx
+++ b/00 - Recolha de Requisitos/RegistodePesquisas.xlsx
@@ -3,15 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A6128B2-3382-45E5-BCCD-2174BB08736A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37630943-B19A-4F08-A190-5EF9DC8DAE7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Brain Storming" sheetId="2" r:id="rId1"/>
     <sheet name="Registo de Pesquisas" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,9 +19,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -29,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="81">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -280,6 +283,66 @@
   <si>
     <t>https://reader.elsevier.com/reader/sd/pii/S2212827117303360?token=75695010DF8133E3E9E58C91610ED598EDBFF7E97E901869B423895C9FA8CDD0AFF941C7B9B6A07944AC70D7A54F2E6B&amp;originRegion=eu-west-1&amp;originCreation=20221019083855</t>
   </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/4620779</t>
+  </si>
+  <si>
+    <t>Zhen-Yu He 
+Lian-Wen Jin</t>
+  </si>
+  <si>
+    <t>Activity recognition from acceleration data using AR model representation and SVM</t>
+  </si>
+  <si>
+    <t>Reconehcimento de atividade humana sem uso sensores</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>tri-axial accelerometer
+Bluetooth Transmiter
+Personal Computer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Este novo modelo de realidade aumentada que usa sinais transmitidos pelo "Tri-axil acelarator", reconhece 4 tipo de movimentos(correr, saltar, andar , e estar parado) com 92.25% mais crediveis, do que usando metodos traditionais para captação de movimentos. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                  N/A
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     N/A</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Automatic Navigation and Landing of an Indoor AR.
+Drone Quadrotor Using ArUco Marker and Inertial
+Sensors </t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/abstract/document/8270408</t>
+  </si>
+  <si>
+    <t>Mohammad Fattahi Sani
+Ghader Karimian</t>
+  </si>
+  <si>
+    <t>Aterramento de drones sem intervenção do homem em um local especifico dentro de edeficios.</t>
+  </si>
+  <si>
+    <t>ArUco
+Drone de baixo de custo
+IMU Sensor
+vision sensor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Este metodo tem resultados aceitaveis especialmente tendo em conta que o drone e de baixo custo
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                  N/A
+</t>
+  </si>
 </sst>
 </file>
 
@@ -293,7 +356,7 @@
     <numFmt numFmtId="167" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
     <numFmt numFmtId="168" formatCode="0000"/>
   </numFmts>
-  <fonts count="52">
+  <fonts count="52" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1018,7 +1081,7 @@
     <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1200,76 +1263,61 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="48">
-    <cellStyle name="20% - Cor1" xfId="25" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Cor2" xfId="28" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Cor3" xfId="32" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Cor4" xfId="36" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Cor5" xfId="40" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Cor6" xfId="44" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Cor1" xfId="26" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Cor2" xfId="29" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Cor3" xfId="33" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Cor4" xfId="37" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Cor5" xfId="41" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Cor6" xfId="45" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Cor1" xfId="2" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Cor2" xfId="30" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Cor3" xfId="34" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Cor4" xfId="38" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Cor5" xfId="42" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Cor6" xfId="46" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Cabeçalho 1" xfId="8" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Cabeçalho 2" xfId="9" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Cabeçalho 3" xfId="10" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Cabeçalho 4" xfId="11" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Cálculo" xfId="17" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Célula Ligada" xfId="18" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Cor1" xfId="24" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Cor2" xfId="27" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Cor3" xfId="31" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Cor4" xfId="35" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Cor5" xfId="39" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Cor6" xfId="43" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Correto" xfId="12" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Entrada" xfId="15" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Hiperligação" xfId="47" builtinId="8"/>
-    <cellStyle name="Incorreto" xfId="13" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Moeda" xfId="4" builtinId="4" customBuiltin="1"/>
-    <cellStyle name="Moeda [0]" xfId="5" builtinId="7" customBuiltin="1"/>
-    <cellStyle name="Neutro" xfId="14" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="28" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="32" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="36" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="40" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="44" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="26" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="29" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="33" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="37" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="41" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="45" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="2" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="30" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="34" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="38" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="42" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="46" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="24" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="27" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="31" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="35" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="39" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="43" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="13" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="17" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3" customBuiltin="1"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6" customBuiltin="1"/>
+    <cellStyle name="Currency" xfId="4" builtinId="4" customBuiltin="1"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="22" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="12" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="8" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="9" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="10" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="11" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8"/>
+    <cellStyle name="Input" xfId="15" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="18" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="14" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
-    <cellStyle name="Nota" xfId="21" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Percentagem" xfId="6" builtinId="5" customBuiltin="1"/>
-    <cellStyle name="Saída" xfId="16" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Separador de milhares [0]" xfId="3" builtinId="6" customBuiltin="1"/>
-    <cellStyle name="Texto de Aviso" xfId="20" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Texto Explicativo" xfId="22" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Título" xfId="7" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Note" xfId="21" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="16" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="7" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="23" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Verificar Célula" xfId="19" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Vírgula" xfId="1" builtinId="3" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="20" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="26">
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFA0C6CC"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="8" tint="0.59996337778862885"/>
-        </left>
-        <right style="thin">
-          <color theme="8" tint="0.59996337778862885"/>
-        </right>
-      </border>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1497,6 +1545,24 @@
         <scheme val="major"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFA0C6CC"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="8" tint="0.59996337778862885"/>
+        </left>
+        <right style="thin">
+          <color theme="8" tint="0.59996337778862885"/>
+        </right>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -2358,6 +2424,156 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>859972</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>37964</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3624943</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>2445203</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{454930D2-3C66-06E0-F163-40C74D8200A7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10570029" y="17411564"/>
+          <a:ext cx="2764971" cy="2407239"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>348343</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>43543</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3339193</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>1929493</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1244B90F-F10D-9BF7-E4D9-778930FEE88D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10058400" y="20018829"/>
+          <a:ext cx="2990850" cy="1885950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3537857</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>54430</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>5728607</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>1911805</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Picture 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29127801-A948-A3F4-82B6-88474848FAB2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13247914" y="20029716"/>
+          <a:ext cx="2190750" cy="1857375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2379,18 +2595,18 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="TBL_Invitations" displayName="TBL_Convites" ref="A5:J15" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="TBL_Invitations" displayName="TBL_Convites" ref="A5:J15" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Local/Contexto" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Objetivos" dataDxfId="9"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Arquitetura global" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Dispositivos" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Tipos de Interação" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Packages de software" dataDxfId="5"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Linguagens de programação" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Avaliação com peritos/utilizadores" dataDxfId="3"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Public-domain" dataDxfId="2"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Site" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Local/Contexto" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Objetivos" dataDxfId="8"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Arquitetura global" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Dispositivos" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Tipos de Interação" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Packages de software" dataDxfId="4"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Linguagens de programação" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Avaliação com peritos/utilizadores" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Public-domain" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Site" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3491,21 +3707,21 @@
   <dimension ref="A1:I83"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="21" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="10.7265625" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.69921875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.09765625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="70.8984375" style="5" customWidth="1"/>
-    <col min="4" max="4" width="23.69921875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="24.5" style="4" customWidth="1"/>
-    <col min="6" max="6" width="1.5" style="5" customWidth="1"/>
-    <col min="7" max="16384" width="10.69921875" style="5"/>
+    <col min="1" max="1" width="23.7265625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.08984375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="70.90625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="23.7265625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="24.453125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="1.453125" style="5" customWidth="1"/>
+    <col min="7" max="16384" width="10.7265625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="40.200000000000003" customHeight="1">
+    <row r="1" spans="1:9" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="11"/>
       <c r="B1" s="59" t="s">
         <v>13</v>
@@ -3513,7 +3729,7 @@
       <c r="C1" s="57"/>
       <c r="D1" s="19"/>
     </row>
-    <row r="2" spans="1:9" s="2" customFormat="1" ht="42" customHeight="1">
+    <row r="2" spans="1:9" s="2" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B2" s="60"/>
       <c r="C2" s="24" t="s">
         <v>2</v>
@@ -3522,7 +3738,7 @@
       <c r="E2" s="6"/>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="1:9" s="2" customFormat="1" ht="40.200000000000003" customHeight="1">
+    <row r="3" spans="1:9" s="2" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="60"/>
       <c r="C3" s="26">
         <f ca="1">TODAY()</f>
@@ -3532,13 +3748,13 @@
       <c r="E3" s="6"/>
       <c r="I3" s="6"/>
     </row>
-    <row r="4" spans="1:9" s="2" customFormat="1" ht="40.200000000000003" customHeight="1">
+    <row r="4" spans="1:9" s="2" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="15"/>
       <c r="C4" s="14"/>
       <c r="D4" s="21"/>
       <c r="I4" s="6"/>
     </row>
-    <row r="5" spans="1:9" s="2" customFormat="1" ht="40.200000000000003" customHeight="1">
+    <row r="5" spans="1:9" s="2" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="25" t="s">
         <v>3</v>
       </c>
@@ -3554,197 +3770,197 @@
       <c r="E5" s="6"/>
       <c r="I5" s="6"/>
     </row>
-    <row r="6" spans="1:9" s="1" customFormat="1" ht="159.44999999999999" customHeight="1">
+    <row r="6" spans="1:9" s="1" customFormat="1" ht="159.44999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="42"/>
       <c r="B6" s="42"/>
       <c r="C6" s="42"/>
       <c r="D6" s="42"/>
       <c r="E6" s="48"/>
     </row>
-    <row r="7" spans="1:9" s="1" customFormat="1" ht="163.19999999999999" customHeight="1">
+    <row r="7" spans="1:9" s="1" customFormat="1" ht="163.19999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="42"/>
       <c r="B7" s="42"/>
       <c r="C7" s="42"/>
       <c r="D7" s="42"/>
     </row>
-    <row r="8" spans="1:9" ht="162" customHeight="1">
+    <row r="8" spans="1:9" ht="162" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="42"/>
       <c r="B8" s="42"/>
       <c r="C8" s="42"/>
       <c r="D8" s="42"/>
       <c r="E8" s="5"/>
     </row>
-    <row r="9" spans="1:9" ht="159.6" customHeight="1">
+    <row r="9" spans="1:9" ht="159.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="42"/>
       <c r="B9" s="42"/>
       <c r="C9" s="42"/>
       <c r="D9" s="42"/>
       <c r="E9" s="5"/>
     </row>
-    <row r="10" spans="1:9" ht="167.4" customHeight="1">
+    <row r="10" spans="1:9" ht="167.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="51"/>
       <c r="B10" s="51"/>
       <c r="C10" s="51"/>
       <c r="D10" s="51"/>
       <c r="E10" s="5"/>
     </row>
-    <row r="11" spans="1:9" ht="156.6" customHeight="1">
+    <row r="11" spans="1:9" ht="156.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="55"/>
       <c r="B11" s="55"/>
       <c r="C11" s="55"/>
       <c r="D11" s="55"/>
       <c r="E11" s="5"/>
     </row>
-    <row r="12" spans="1:9" ht="25.2" customHeight="1">
+    <row r="12" spans="1:9" ht="25.2" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="28"/>
       <c r="B12" s="28"/>
       <c r="C12" s="28"/>
       <c r="D12" s="28"/>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" spans="1:9" ht="25.2" customHeight="1">
+    <row r="13" spans="1:9" ht="25.2" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="28"/>
       <c r="B13" s="28"/>
       <c r="C13" s="28"/>
       <c r="D13" s="28"/>
       <c r="E13" s="5"/>
     </row>
-    <row r="14" spans="1:9" ht="25.2" customHeight="1">
+    <row r="14" spans="1:9" ht="25.2" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="28"/>
       <c r="B14" s="28"/>
       <c r="C14" s="28"/>
       <c r="D14" s="28"/>
       <c r="E14" s="5"/>
     </row>
-    <row r="15" spans="1:9" ht="25.2" customHeight="1">
+    <row r="15" spans="1:9" ht="25.2" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="28"/>
       <c r="B15" s="28"/>
       <c r="C15" s="28"/>
       <c r="D15" s="28"/>
       <c r="E15" s="5"/>
     </row>
-    <row r="16" spans="1:9" ht="25.2" customHeight="1">
+    <row r="16" spans="1:9" ht="25.2" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="28"/>
       <c r="B16" s="28"/>
       <c r="C16" s="28"/>
       <c r="D16" s="28"/>
       <c r="E16" s="5"/>
     </row>
-    <row r="17" spans="1:5" ht="19.95" customHeight="1">
+    <row r="17" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="12"/>
       <c r="B17" s="57"/>
       <c r="C17" s="57"/>
       <c r="D17" s="12"/>
       <c r="E17" s="5"/>
     </row>
-    <row r="18" spans="1:5" ht="19.95" customHeight="1">
+    <row r="18" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="12"/>
       <c r="B18" s="57"/>
       <c r="C18" s="57"/>
       <c r="D18" s="12"/>
       <c r="E18" s="5"/>
     </row>
-    <row r="19" spans="1:5" ht="19.95" customHeight="1">
+    <row r="19" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="12"/>
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
       <c r="D19" s="12"/>
       <c r="E19" s="5"/>
     </row>
-    <row r="20" spans="1:5" ht="19.95" customHeight="1">
+    <row r="20" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="12"/>
       <c r="B20" s="57"/>
       <c r="C20" s="12"/>
       <c r="D20" s="20"/>
       <c r="E20" s="5"/>
     </row>
-    <row r="21" spans="1:5" ht="19.95" customHeight="1">
+    <row r="21" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="7"/>
       <c r="B21" s="8"/>
       <c r="C21" s="10"/>
       <c r="D21" s="23"/>
       <c r="E21" s="5"/>
     </row>
-    <row r="22" spans="1:5" ht="19.95" customHeight="1">
+    <row r="22" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="7"/>
       <c r="B22" s="8"/>
       <c r="C22" s="10"/>
       <c r="D22" s="9"/>
       <c r="E22" s="5"/>
     </row>
-    <row r="23" spans="1:5" ht="19.95" customHeight="1">
+    <row r="23" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D23" s="4"/>
       <c r="E23" s="5"/>
     </row>
-    <row r="24" spans="1:5" ht="19.95" customHeight="1">
+    <row r="24" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D24" s="4"/>
       <c r="E24" s="5"/>
     </row>
-    <row r="25" spans="1:5" ht="19.95" customHeight="1">
+    <row r="25" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D25" s="4"/>
       <c r="E25" s="5"/>
     </row>
-    <row r="26" spans="1:5" ht="19.95" customHeight="1">
+    <row r="26" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D26" s="4"/>
       <c r="E26" s="5"/>
     </row>
-    <row r="27" spans="1:5" ht="19.95" customHeight="1"/>
-    <row r="28" spans="1:5" ht="19.95" customHeight="1"/>
-    <row r="29" spans="1:5" ht="19.95" customHeight="1"/>
-    <row r="30" spans="1:5" ht="19.95" customHeight="1"/>
-    <row r="31" spans="1:5" ht="19.95" customHeight="1"/>
-    <row r="32" spans="1:5" ht="19.95" customHeight="1"/>
-    <row r="33" ht="19.95" customHeight="1"/>
-    <row r="34" ht="19.95" customHeight="1"/>
-    <row r="35" ht="19.95" customHeight="1"/>
-    <row r="36" ht="19.95" customHeight="1"/>
-    <row r="37" ht="19.95" customHeight="1"/>
-    <row r="38" ht="19.95" customHeight="1"/>
-    <row r="39" ht="19.95" customHeight="1"/>
-    <row r="40" ht="19.95" customHeight="1"/>
-    <row r="41" ht="19.95" customHeight="1"/>
-    <row r="42" ht="19.95" customHeight="1"/>
-    <row r="43" ht="19.95" customHeight="1"/>
-    <row r="44" ht="19.95" customHeight="1"/>
-    <row r="45" ht="19.95" customHeight="1"/>
-    <row r="46" ht="19.95" customHeight="1"/>
-    <row r="47" ht="19.95" customHeight="1"/>
-    <row r="48" ht="19.95" customHeight="1"/>
-    <row r="49" ht="19.95" customHeight="1"/>
-    <row r="50" ht="19.95" customHeight="1"/>
-    <row r="51" ht="19.95" customHeight="1"/>
-    <row r="52" ht="19.95" customHeight="1"/>
-    <row r="53" ht="19.95" customHeight="1"/>
-    <row r="54" ht="19.95" customHeight="1"/>
-    <row r="55" ht="19.95" customHeight="1"/>
-    <row r="56" ht="19.95" customHeight="1"/>
-    <row r="57" ht="19.95" customHeight="1"/>
-    <row r="58" ht="19.95" customHeight="1"/>
-    <row r="59" ht="19.95" customHeight="1"/>
-    <row r="60" ht="19.95" customHeight="1"/>
-    <row r="61" ht="19.95" customHeight="1"/>
-    <row r="62" ht="19.95" customHeight="1"/>
-    <row r="63" ht="19.95" customHeight="1"/>
-    <row r="64" ht="19.95" customHeight="1"/>
-    <row r="65" ht="19.95" customHeight="1"/>
-    <row r="66" ht="19.95" customHeight="1"/>
-    <row r="67" ht="19.95" customHeight="1"/>
-    <row r="68" ht="19.95" customHeight="1"/>
-    <row r="69" ht="19.95" customHeight="1"/>
-    <row r="70" ht="19.95" customHeight="1"/>
-    <row r="71" ht="19.95" customHeight="1"/>
-    <row r="72" ht="19.95" customHeight="1"/>
-    <row r="73" ht="19.95" customHeight="1"/>
-    <row r="74" ht="19.95" customHeight="1"/>
-    <row r="75" ht="19.95" customHeight="1"/>
-    <row r="76" ht="19.95" customHeight="1"/>
-    <row r="77" ht="19.95" customHeight="1"/>
-    <row r="78" ht="19.95" customHeight="1"/>
-    <row r="79" ht="19.95" customHeight="1"/>
-    <row r="80" ht="19.95" customHeight="1"/>
-    <row r="81" ht="19.95" customHeight="1"/>
-    <row r="82" ht="19.95" customHeight="1"/>
-    <row r="83" ht="19.95" customHeight="1"/>
+    <row r="27" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="28" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="29" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="30" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="31" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="32" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="33" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="34" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="35" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="36" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="37" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="38" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="39" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="40" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="41" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="42" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="43" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="44" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="45" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="46" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="47" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="48" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="49" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="50" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="51" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="52" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="53" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="54" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="55" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="56" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="57" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="58" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="59" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="60" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="61" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="62" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="63" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="64" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="65" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="66" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="67" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="68" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="69" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="70" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="71" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="72" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="73" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="74" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="75" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="76" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="77" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="78" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="79" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="80" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="81" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="82" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="83" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:B3"/>
@@ -3771,26 +3987,26 @@
   </sheetPr>
   <dimension ref="A1:P82"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="21" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="10.7265625" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.69921875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.69921875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="33.19921875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="35.09765625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="70.8984375" style="5" customWidth="1"/>
-    <col min="6" max="7" width="23.69921875" style="5" customWidth="1"/>
-    <col min="8" max="8" width="24.69921875" style="4" customWidth="1"/>
-    <col min="9" max="10" width="23.69921875" style="4" customWidth="1"/>
-    <col min="11" max="12" width="24.5" style="4" customWidth="1"/>
-    <col min="13" max="13" width="1.5" style="5" customWidth="1"/>
-    <col min="14" max="16384" width="10.69921875" style="5"/>
+    <col min="1" max="1" width="23.7265625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.7265625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="33.1796875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="35.08984375" style="5" customWidth="1"/>
+    <col min="5" max="5" width="70.90625" style="5" customWidth="1"/>
+    <col min="6" max="7" width="23.7265625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="24.7265625" style="4" customWidth="1"/>
+    <col min="9" max="10" width="23.7265625" style="4" customWidth="1"/>
+    <col min="11" max="12" width="24.453125" style="4" customWidth="1"/>
+    <col min="13" max="13" width="1.453125" style="5" customWidth="1"/>
+    <col min="14" max="16384" width="10.7265625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="40.200000000000003" customHeight="1">
+    <row r="1" spans="1:16" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="11"/>
       <c r="B1" s="59" t="s">
         <v>13</v>
@@ -3805,7 +4021,7 @@
       <c r="J1" s="18"/>
       <c r="K1" s="12"/>
     </row>
-    <row r="2" spans="1:16" s="2" customFormat="1" ht="42" customHeight="1">
+    <row r="2" spans="1:16" s="2" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B2" s="60"/>
       <c r="C2" s="60"/>
       <c r="D2" s="60"/>
@@ -3821,7 +4037,7 @@
       <c r="L2" s="6"/>
       <c r="P2" s="6"/>
     </row>
-    <row r="3" spans="1:16" s="2" customFormat="1" ht="40.200000000000003" customHeight="1">
+    <row r="3" spans="1:16" s="2" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="60"/>
       <c r="C3" s="60"/>
       <c r="D3" s="60"/>
@@ -3838,7 +4054,7 @@
       <c r="L3" s="6"/>
       <c r="P3" s="6"/>
     </row>
-    <row r="4" spans="1:16" s="2" customFormat="1" ht="40.200000000000003" customHeight="1">
+    <row r="4" spans="1:16" s="2" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="15"/>
       <c r="C4" s="14"/>
       <c r="D4" s="35"/>
@@ -3853,7 +4069,7 @@
       <c r="K4" s="17"/>
       <c r="P4" s="6"/>
     </row>
-    <row r="5" spans="1:16" s="2" customFormat="1" ht="40.200000000000003" customHeight="1">
+    <row r="5" spans="1:16" s="2" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="25" t="s">
         <v>3</v>
       </c>
@@ -3888,7 +4104,7 @@
       <c r="L5" s="6"/>
       <c r="P5" s="6"/>
     </row>
-    <row r="6" spans="1:16" s="1" customFormat="1" ht="159.44999999999999" customHeight="1">
+    <row r="6" spans="1:16" s="1" customFormat="1" ht="159.44999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="42" t="s">
         <v>20</v>
       </c>
@@ -3918,7 +4134,7 @@
       <c r="K6" s="12"/>
       <c r="L6" s="48"/>
     </row>
-    <row r="7" spans="1:16" s="1" customFormat="1" ht="163.19999999999999" customHeight="1">
+    <row r="7" spans="1:16" s="1" customFormat="1" ht="163.19999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="42" t="s">
         <v>27</v>
       </c>
@@ -3945,7 +4161,7 @@
       </c>
       <c r="K7" s="13"/>
     </row>
-    <row r="8" spans="1:16" ht="162" customHeight="1">
+    <row r="8" spans="1:16" ht="162" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="42" t="s">
         <v>29</v>
       </c>
@@ -3971,7 +4187,7 @@
       <c r="K8" s="13"/>
       <c r="L8" s="5"/>
     </row>
-    <row r="9" spans="1:16" ht="159.6" customHeight="1">
+    <row r="9" spans="1:16" ht="159.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="42" t="s">
         <v>39</v>
       </c>
@@ -4003,7 +4219,7 @@
       <c r="K9" s="43"/>
       <c r="L9" s="5"/>
     </row>
-    <row r="10" spans="1:16" ht="167.4" customHeight="1">
+    <row r="10" spans="1:16" ht="167.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="51" t="s">
         <v>42</v>
       </c>
@@ -4035,7 +4251,7 @@
       <c r="K10" s="13"/>
       <c r="L10" s="5"/>
     </row>
-    <row r="11" spans="1:16" ht="156.6" customHeight="1">
+    <row r="11" spans="1:16" ht="156.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="55" t="s">
         <v>49</v>
       </c>
@@ -4065,7 +4281,7 @@
       <c r="K11" s="13"/>
       <c r="L11" s="5"/>
     </row>
-    <row r="12" spans="1:16" ht="197.4" customHeight="1">
+    <row r="12" spans="1:16" ht="197.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="42" t="s">
         <v>56</v>
       </c>
@@ -4095,37 +4311,71 @@
       <c r="K12" s="13"/>
       <c r="L12" s="5"/>
     </row>
-    <row r="13" spans="1:16" ht="25.2" customHeight="1">
-      <c r="A13" s="28"/>
-      <c r="B13" s="29"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="32"/>
+    <row r="13" spans="1:16" ht="204.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" s="56" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" s="61" t="s">
+        <v>72</v>
+      </c>
+      <c r="D13" s="40" t="s">
+        <v>70</v>
+      </c>
       <c r="E13" s="32"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
+      <c r="F13" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="H13" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="I13" s="42" t="s">
+        <v>66</v>
+      </c>
+      <c r="J13" s="36" t="s">
+        <v>65</v>
+      </c>
       <c r="K13" s="13"/>
       <c r="L13" s="5"/>
     </row>
-    <row r="14" spans="1:16" ht="25.2" customHeight="1">
-      <c r="A14" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" s="29"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="32"/>
+    <row r="14" spans="1:16" ht="161.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="B14" s="56" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14" s="61" t="s">
+        <v>80</v>
+      </c>
+      <c r="D14" s="40" t="s">
+        <v>78</v>
+      </c>
       <c r="E14" s="32"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
+      <c r="F14" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="G14" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="H14" s="42" t="s">
+        <v>79</v>
+      </c>
+      <c r="I14" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="J14" s="36" t="s">
+        <v>75</v>
+      </c>
       <c r="K14" s="13"/>
       <c r="L14" s="5"/>
     </row>
-    <row r="15" spans="1:16" ht="25.2" customHeight="1">
+    <row r="15" spans="1:16" ht="25.2" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="28" t="s">
         <v>0</v>
       </c>
@@ -4141,7 +4391,7 @@
       <c r="K15" s="13"/>
       <c r="L15" s="5"/>
     </row>
-    <row r="16" spans="1:16" ht="19.95" customHeight="1">
+    <row r="16" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="12"/>
       <c r="B16" s="13"/>
       <c r="C16" s="13"/>
@@ -4155,7 +4405,7 @@
       <c r="K16" s="13"/>
       <c r="L16" s="5"/>
     </row>
-    <row r="17" spans="1:12" ht="19.95" customHeight="1">
+    <row r="17" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="12"/>
       <c r="B17" s="13"/>
       <c r="C17" s="13"/>
@@ -4169,7 +4419,7 @@
       <c r="K17" s="13"/>
       <c r="L17" s="5"/>
     </row>
-    <row r="18" spans="1:12" ht="19.95" customHeight="1">
+    <row r="18" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="12"/>
       <c r="B18" s="12"/>
       <c r="C18" s="12"/>
@@ -4183,7 +4433,7 @@
       <c r="K18" s="13"/>
       <c r="L18" s="5"/>
     </row>
-    <row r="19" spans="1:12" ht="19.95" customHeight="1">
+    <row r="19" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="12"/>
       <c r="B19" s="13"/>
       <c r="C19" s="13"/>
@@ -4197,7 +4447,7 @@
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
     </row>
-    <row r="20" spans="1:12" ht="19.95" customHeight="1">
+    <row r="20" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="7"/>
       <c r="B20" s="8"/>
       <c r="C20" s="9"/>
@@ -4211,7 +4461,7 @@
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
     </row>
-    <row r="21" spans="1:12" ht="19.95" customHeight="1">
+    <row r="21" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="7"/>
       <c r="B21" s="8"/>
       <c r="C21" s="9"/>
@@ -4225,92 +4475,92 @@
       <c r="K21" s="5"/>
       <c r="L21" s="5"/>
     </row>
-    <row r="22" spans="1:12" ht="19.95" customHeight="1">
+    <row r="22" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="G22" s="4"/>
       <c r="J22" s="9"/>
       <c r="L22" s="5"/>
     </row>
-    <row r="23" spans="1:12" ht="19.95" customHeight="1">
+    <row r="23" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="G23" s="4"/>
       <c r="J23" s="9"/>
       <c r="L23" s="5"/>
     </row>
-    <row r="24" spans="1:12" ht="19.95" customHeight="1">
+    <row r="24" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="G24" s="4"/>
       <c r="L24" s="5"/>
     </row>
-    <row r="25" spans="1:12" ht="19.95" customHeight="1">
+    <row r="25" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="G25" s="4"/>
       <c r="L25" s="5"/>
     </row>
-    <row r="26" spans="1:12" ht="19.95" customHeight="1"/>
-    <row r="27" spans="1:12" ht="19.95" customHeight="1"/>
-    <row r="28" spans="1:12" ht="19.95" customHeight="1"/>
-    <row r="29" spans="1:12" ht="19.95" customHeight="1"/>
-    <row r="30" spans="1:12" ht="19.95" customHeight="1"/>
-    <row r="31" spans="1:12" ht="19.95" customHeight="1"/>
-    <row r="32" spans="1:12" ht="19.95" customHeight="1"/>
-    <row r="33" ht="19.95" customHeight="1"/>
-    <row r="34" ht="19.95" customHeight="1"/>
-    <row r="35" ht="19.95" customHeight="1"/>
-    <row r="36" ht="19.95" customHeight="1"/>
-    <row r="37" ht="19.95" customHeight="1"/>
-    <row r="38" ht="19.95" customHeight="1"/>
-    <row r="39" ht="19.95" customHeight="1"/>
-    <row r="40" ht="19.95" customHeight="1"/>
-    <row r="41" ht="19.95" customHeight="1"/>
-    <row r="42" ht="19.95" customHeight="1"/>
-    <row r="43" ht="19.95" customHeight="1"/>
-    <row r="44" ht="19.95" customHeight="1"/>
-    <row r="45" ht="19.95" customHeight="1"/>
-    <row r="46" ht="19.95" customHeight="1"/>
-    <row r="47" ht="19.95" customHeight="1"/>
-    <row r="48" ht="19.95" customHeight="1"/>
-    <row r="49" ht="19.95" customHeight="1"/>
-    <row r="50" ht="19.95" customHeight="1"/>
-    <row r="51" ht="19.95" customHeight="1"/>
-    <row r="52" ht="19.95" customHeight="1"/>
-    <row r="53" ht="19.95" customHeight="1"/>
-    <row r="54" ht="19.95" customHeight="1"/>
-    <row r="55" ht="19.95" customHeight="1"/>
-    <row r="56" ht="19.95" customHeight="1"/>
-    <row r="57" ht="19.95" customHeight="1"/>
-    <row r="58" ht="19.95" customHeight="1"/>
-    <row r="59" ht="19.95" customHeight="1"/>
-    <row r="60" ht="19.95" customHeight="1"/>
-    <row r="61" ht="19.95" customHeight="1"/>
-    <row r="62" ht="19.95" customHeight="1"/>
-    <row r="63" ht="19.95" customHeight="1"/>
-    <row r="64" ht="19.95" customHeight="1"/>
-    <row r="65" ht="19.95" customHeight="1"/>
-    <row r="66" ht="19.95" customHeight="1"/>
-    <row r="67" ht="19.95" customHeight="1"/>
-    <row r="68" ht="19.95" customHeight="1"/>
-    <row r="69" ht="19.95" customHeight="1"/>
-    <row r="70" ht="19.95" customHeight="1"/>
-    <row r="71" ht="19.95" customHeight="1"/>
-    <row r="72" ht="19.95" customHeight="1"/>
-    <row r="73" ht="19.95" customHeight="1"/>
-    <row r="74" ht="19.95" customHeight="1"/>
-    <row r="75" ht="19.95" customHeight="1"/>
-    <row r="76" ht="19.95" customHeight="1"/>
-    <row r="77" ht="19.95" customHeight="1"/>
-    <row r="78" ht="19.95" customHeight="1"/>
-    <row r="79" ht="19.95" customHeight="1"/>
-    <row r="80" ht="19.95" customHeight="1"/>
-    <row r="81" ht="19.95" customHeight="1"/>
-    <row r="82" ht="19.95" customHeight="1"/>
+    <row r="26" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="27" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="28" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="29" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="30" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="31" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="32" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="33" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="34" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="35" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="36" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="37" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="38" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="39" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="40" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="41" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="42" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="43" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="44" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="45" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="46" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="47" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="48" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="49" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="50" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="51" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="52" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="53" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="54" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="55" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="56" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="57" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="58" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="59" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="60" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="61" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="62" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="63" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="64" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="65" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="66" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="67" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="68" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="69" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="70" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="71" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="72" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="73" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="74" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="75" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="76" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="77" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="78" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="79" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="80" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="81" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="82" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:D3"/>
   </mergeCells>
-  <conditionalFormatting sqref="B13:C15 C12">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+  <conditionalFormatting sqref="B15:C15 C12">
+    <cfRule type="cellIs" dxfId="12" priority="2" operator="equal">
       <formula>"S"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations xWindow="274" yWindow="679" count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C12:C15 B13:B15" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C12 B15:C15" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"S, N"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Introduza a data do casamento nesta célula" sqref="G4 E3" xr:uid="{BCA61B36-4BFD-444C-AEE2-826623C012F2}"/>
@@ -4325,18 +4575,49 @@
     <hyperlink ref="J9" r:id="rId4" xr:uid="{CD58614A-DCB1-40A8-87AB-BEF994E270F3}"/>
     <hyperlink ref="J10" r:id="rId5" xr:uid="{B39318F9-344D-4F96-8DBA-DB9DBFFDB342}"/>
     <hyperlink ref="J11" r:id="rId6" xr:uid="{E5821ECF-18D1-432B-AE93-DC7D3BE8D8D8}"/>
+    <hyperlink ref="J13" r:id="rId7" xr:uid="{AA95B419-AF9B-4A3E-BE2B-A4C36838152B}"/>
+    <hyperlink ref="J14" r:id="rId8" xr:uid="{01219542-9895-4F2E-9512-B6B5D3216204}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="52" fitToHeight="0" orientation="landscape" r:id="rId7"/>
-  <drawing r:id="rId8"/>
+  <pageSetup paperSize="9" scale="52" fitToHeight="0" orientation="landscape" r:id="rId9"/>
+  <drawing r:id="rId10"/>
   <tableParts count="1">
-    <tablePart r:id="rId9"/>
+    <tablePart r:id="rId11"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="24" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2d714a3296df14eba7a100bb665443ca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="49549bf45bfbbfb6cffed527380e77e1" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -4624,36 +4905,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{141D71A4-5CC3-40CD-990C-070FB4B5F315}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5D97E00F-6E84-416B-8452-E6DC935A7A92}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B44AF425-737A-413C-9CB5-588E99FE889D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4672,24 +4944,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5D97E00F-6E84-416B-8452-E6DC935A7A92}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{141D71A4-5CC3-40CD-990C-070FB4B5F315}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/00 - Recolha de Requisitos/RegistodePesquisas.xlsx
+++ b/00 - Recolha de Requisitos/RegistodePesquisas.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37630943-B19A-4F08-A190-5EF9DC8DAE7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25F4BF7A-0BE4-4946-8D9C-3483B3908C60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Brain Storming" sheetId="2" r:id="rId1"/>
@@ -32,10 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="81">
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="87">
   <si>
     <t xml:space="preserve">  </t>
   </si>
@@ -294,9 +291,6 @@
     <t>Activity recognition from acceleration data using AR model representation and SVM</t>
   </si>
   <si>
-    <t>Reconehcimento de atividade humana sem uso sensores</t>
-  </si>
-  <si>
     <t>N/A</t>
   </si>
   <si>
@@ -342,6 +336,41 @@
   <si>
     <t xml:space="preserve">                                  N/A
 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">WebPoseEstimator: A Fundamental and Flexible Pose Estimation Framework for Mobile Web AR
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Camara
+Smartphone
+IMU Sensor
+</t>
+  </si>
+  <si>
+    <t>WASM
+C++
+JavaScript
+HTML</t>
+  </si>
+  <si>
+    <t>Yakun Huang
+Xiuquan Qiao
+Zhijie Tan
+Jiulin Li
+Jianwei Zhang</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?tp=&amp;arnumber=9419132</t>
+  </si>
+  <si>
+    <t>Reconhecimento de atividade humana sem uso sensores</t>
+  </si>
+  <si>
+    <t>A ferramenta desenvolvida teve ótimos resultados, deve destacar-se o facto de ter sido desenvolvida adaptando linguagens de facil acesso, tornando o tracking de movimentos/poses mais acessível a qualquer pessoa.</t>
+  </si>
+  <si>
+    <t>Com base numa câmara e alguns sensores tem por objetivo, baseando-se em APIs desenvolvidas em liguagens acessiveis, fazer o tracking de movimentos e consequentemente mostrar os mesmos num ambiente virtualizado</t>
   </si>
 </sst>
 </file>
@@ -349,14 +378,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="6">
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;\ &quot;€&quot;_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="#,##0_ ;\-#,##0\ "/>
-    <numFmt numFmtId="167" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="168" formatCode="0000"/>
+    <numFmt numFmtId="42" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="#,##0_ ;\-#,##0\ "/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="0000"/>
   </numFmts>
-  <fonts count="52" x14ac:knownFonts="1">
+  <fonts count="53" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -721,8 +750,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Franklin Gothic Book"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -914,6 +949,12 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -1033,11 +1074,11 @@
   </borders>
   <cellStyleXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -1081,7 +1122,7 @@
     <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1167,9 +1208,6 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1182,7 +1220,7 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="166" fontId="23" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="23" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1233,7 +1271,7 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1251,71 +1289,77 @@
     <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="47" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="47" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="48">
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="28" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="32" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="36" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="40" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="44" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="26" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="29" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="33" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="37" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="41" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="45" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="2" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="30" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="34" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="38" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="42" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="46" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="24" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="27" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="31" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="35" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="39" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="43" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="13" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="17" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="19" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3" customBuiltin="1"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6" customBuiltin="1"/>
-    <cellStyle name="Currency" xfId="4" builtinId="4" customBuiltin="1"/>
-    <cellStyle name="Currency [0]" xfId="5" builtinId="7" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="22" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="12" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="8" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="9" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="10" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="11" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Hyperlink" xfId="47" builtinId="8"/>
-    <cellStyle name="Input" xfId="15" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="18" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="14" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="20% - Cor1" xfId="25" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Cor2" xfId="28" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Cor3" xfId="32" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Cor4" xfId="36" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Cor5" xfId="40" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Cor6" xfId="44" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Cor1" xfId="26" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Cor2" xfId="29" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Cor3" xfId="33" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Cor4" xfId="37" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Cor5" xfId="41" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Cor6" xfId="45" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Cor1" xfId="2" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Cor2" xfId="30" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Cor3" xfId="34" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Cor4" xfId="38" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Cor5" xfId="42" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Cor6" xfId="46" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Cabeçalho 1" xfId="8" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Cabeçalho 2" xfId="9" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Cabeçalho 3" xfId="10" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Cabeçalho 4" xfId="11" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Cálculo" xfId="17" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Célula Ligada" xfId="18" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Cor1" xfId="24" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Cor2" xfId="27" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Cor3" xfId="31" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Cor4" xfId="35" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Cor5" xfId="39" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Cor6" xfId="43" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Correto" xfId="12" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Entrada" xfId="15" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Hiperligação" xfId="47" builtinId="8"/>
+    <cellStyle name="Incorreto" xfId="13" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Moeda" xfId="4" builtinId="4" customBuiltin="1"/>
+    <cellStyle name="Moeda [0]" xfId="5" builtinId="7" customBuiltin="1"/>
+    <cellStyle name="Neutro" xfId="14" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
-    <cellStyle name="Note" xfId="21" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="16" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="7" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Nota" xfId="21" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Percentagem" xfId="6" builtinId="5" customBuiltin="1"/>
+    <cellStyle name="Saída" xfId="16" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Separador de milhares [0]" xfId="3" builtinId="6" customBuiltin="1"/>
+    <cellStyle name="Texto de Aviso" xfId="20" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Texto Explicativo" xfId="22" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Título" xfId="7" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="23" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="20" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Verificar Célula" xfId="19" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Vírgula" xfId="1" builtinId="3" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="26">
     <dxf>
@@ -2574,6 +2618,137 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1796327</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>136071</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>4562929</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>2091854</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Imagem 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3AB89AD0-5971-4A77-84A8-A644EF63A245}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11348541" y="22125214"/>
+          <a:ext cx="2766602" cy="1955783"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>18143</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>193073</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2603500</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>1823357</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Imagem 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B169AB6-C269-4CE8-A673-0AEDEA21804E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:srcRect l="6022"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3937000" y="22182216"/>
+          <a:ext cx="2585357" cy="1630284"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>4134062</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>1879697</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Imagem 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B975C71-6194-AD92-1912-D3CD8CADCC8E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15403286" y="21989143"/>
+          <a:ext cx="4134062" cy="1879697"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3710,36 +3885,36 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.7265625" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.69140625" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="23.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.08984375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="70.90625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="23.7265625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="24.453125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="1.453125" style="5" customWidth="1"/>
-    <col min="7" max="16384" width="10.7265625" style="5"/>
+    <col min="1" max="1" width="23.69140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.07421875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="70.921875" style="5" customWidth="1"/>
+    <col min="4" max="4" width="23.69140625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="24.4609375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="1.4609375" style="5" customWidth="1"/>
+    <col min="7" max="16384" width="10.69140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" ht="40.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="11"/>
-      <c r="B1" s="59" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" s="57"/>
+      <c r="B1" s="58" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="13"/>
       <c r="D1" s="19"/>
     </row>
-    <row r="2" spans="1:9" s="2" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="60"/>
+    <row r="2" spans="1:9" s="2" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="59"/>
       <c r="C2" s="24" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" s="24"/>
       <c r="E2" s="6"/>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="1:9" s="2" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="60"/>
+    <row r="3" spans="1:9" s="2" customFormat="1" ht="40.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="59"/>
       <c r="C3" s="26">
         <f ca="1">TODAY()</f>
         <v>44853</v>
@@ -3748,219 +3923,219 @@
       <c r="E3" s="6"/>
       <c r="I3" s="6"/>
     </row>
-    <row r="4" spans="1:9" s="2" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" s="2" customFormat="1" ht="40.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="15"/>
       <c r="C4" s="14"/>
       <c r="D4" s="21"/>
       <c r="I4" s="6"/>
     </row>
-    <row r="5" spans="1:9" s="2" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" s="2" customFormat="1" ht="40.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="25" t="s">
-        <v>4</v>
-      </c>
       <c r="C5" s="25" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E5" s="6"/>
       <c r="I5" s="6"/>
     </row>
-    <row r="6" spans="1:9" s="1" customFormat="1" ht="159.44999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="42"/>
-      <c r="B6" s="42"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="48"/>
+    <row r="6" spans="1:9" s="1" customFormat="1" ht="159.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="41"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="47"/>
     </row>
-    <row r="7" spans="1:9" s="1" customFormat="1" ht="163.19999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="42"/>
-      <c r="B7" s="42"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
+    <row r="7" spans="1:9" s="1" customFormat="1" ht="163.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="41"/>
+      <c r="B7" s="41"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
     </row>
-    <row r="8" spans="1:9" ht="162" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="42"/>
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
+    <row r="8" spans="1:9" ht="162" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="41"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
       <c r="E8" s="5"/>
     </row>
-    <row r="9" spans="1:9" ht="159.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="42"/>
-      <c r="B9" s="42"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
+    <row r="9" spans="1:9" ht="159.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="41"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
       <c r="E9" s="5"/>
     </row>
-    <row r="10" spans="1:9" ht="167.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="51"/>
-      <c r="B10" s="51"/>
-      <c r="C10" s="51"/>
-      <c r="D10" s="51"/>
+    <row r="10" spans="1:9" ht="167.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="50"/>
+      <c r="B10" s="50"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="50"/>
       <c r="E10" s="5"/>
     </row>
-    <row r="11" spans="1:9" ht="156.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="55"/>
-      <c r="B11" s="55"/>
-      <c r="C11" s="55"/>
-      <c r="D11" s="55"/>
+    <row r="11" spans="1:9" ht="156.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="54"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="54"/>
       <c r="E11" s="5"/>
     </row>
-    <row r="12" spans="1:9" ht="25.2" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" ht="25.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="28"/>
       <c r="B12" s="28"/>
       <c r="C12" s="28"/>
       <c r="D12" s="28"/>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" spans="1:9" ht="25.2" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" ht="25.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="28"/>
       <c r="B13" s="28"/>
       <c r="C13" s="28"/>
       <c r="D13" s="28"/>
       <c r="E13" s="5"/>
     </row>
-    <row r="14" spans="1:9" ht="25.2" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" ht="25.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="28"/>
       <c r="B14" s="28"/>
       <c r="C14" s="28"/>
       <c r="D14" s="28"/>
       <c r="E14" s="5"/>
     </row>
-    <row r="15" spans="1:9" ht="25.2" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" ht="25.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="28"/>
       <c r="B15" s="28"/>
       <c r="C15" s="28"/>
       <c r="D15" s="28"/>
       <c r="E15" s="5"/>
     </row>
-    <row r="16" spans="1:9" ht="25.2" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" ht="25.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="28"/>
       <c r="B16" s="28"/>
       <c r="C16" s="28"/>
       <c r="D16" s="28"/>
       <c r="E16" s="5"/>
     </row>
-    <row r="17" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="12"/>
-      <c r="B17" s="57"/>
-      <c r="C17" s="57"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
       <c r="D17" s="12"/>
       <c r="E17" s="5"/>
     </row>
-    <row r="18" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="12"/>
-      <c r="B18" s="57"/>
-      <c r="C18" s="57"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
       <c r="D18" s="12"/>
       <c r="E18" s="5"/>
     </row>
-    <row r="19" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="12"/>
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
       <c r="D19" s="12"/>
       <c r="E19" s="5"/>
     </row>
-    <row r="20" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="12"/>
-      <c r="B20" s="57"/>
+      <c r="B20" s="13"/>
       <c r="C20" s="12"/>
       <c r="D20" s="20"/>
       <c r="E20" s="5"/>
     </row>
-    <row r="21" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="7"/>
       <c r="B21" s="8"/>
       <c r="C21" s="10"/>
       <c r="D21" s="23"/>
       <c r="E21" s="5"/>
     </row>
-    <row r="22" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="7"/>
       <c r="B22" s="8"/>
       <c r="C22" s="10"/>
       <c r="D22" s="9"/>
       <c r="E22" s="5"/>
     </row>
-    <row r="23" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D23" s="4"/>
       <c r="E23" s="5"/>
     </row>
-    <row r="24" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D24" s="4"/>
       <c r="E24" s="5"/>
     </row>
-    <row r="25" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D25" s="4"/>
       <c r="E25" s="5"/>
     </row>
-    <row r="26" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D26" s="4"/>
       <c r="E26" s="5"/>
     </row>
-    <row r="27" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="28" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="29" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="30" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="31" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="32" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="33" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="34" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="35" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="36" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="37" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="38" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="39" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="40" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="41" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="42" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="43" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="44" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="45" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="46" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="47" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="48" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="49" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="50" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="51" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="52" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="53" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="54" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="55" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="56" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="57" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="58" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="59" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="60" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="61" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="62" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="63" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="64" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="65" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="66" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="67" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="68" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="69" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="70" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="71" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="72" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="73" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="74" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="75" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="76" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="77" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="78" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="79" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="80" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="81" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="82" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="83" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="27" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="28" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="29" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="30" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="31" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="32" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="33" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="34" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="35" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="36" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="37" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="38" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="39" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="40" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="41" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="42" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="43" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="44" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="45" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="46" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="47" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="48" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="49" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="50" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="51" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="52" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="53" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="54" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="55" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="56" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="57" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="58" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="59" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="60" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="61" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="62" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="63" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="64" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="65" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="66" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="67" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="68" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="69" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="70" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="71" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="72" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="73" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="74" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="75" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="76" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="77" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="78" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="79" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="80" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="81" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="82" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="83" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:B3"/>
@@ -3987,32 +4162,33 @@
   </sheetPr>
   <dimension ref="A1:P82"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A15" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.7265625" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.69140625" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="23.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.7265625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="33.1796875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="35.08984375" style="5" customWidth="1"/>
-    <col min="5" max="5" width="70.90625" style="5" customWidth="1"/>
-    <col min="6" max="7" width="23.7265625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="24.7265625" style="4" customWidth="1"/>
-    <col min="9" max="10" width="23.7265625" style="4" customWidth="1"/>
-    <col min="11" max="12" width="24.453125" style="4" customWidth="1"/>
-    <col min="13" max="13" width="1.453125" style="5" customWidth="1"/>
-    <col min="14" max="16384" width="10.7265625" style="5"/>
+    <col min="1" max="1" width="23.69140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.69140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="33.15234375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="35.07421875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="70.921875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="50.3046875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="23.69140625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="24.69140625" style="4" customWidth="1"/>
+    <col min="9" max="10" width="23.69140625" style="4" customWidth="1"/>
+    <col min="11" max="12" width="24.4609375" style="4" customWidth="1"/>
+    <col min="13" max="13" width="1.4609375" style="5" customWidth="1"/>
+    <col min="14" max="16384" width="10.69140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:16" ht="40.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="11"/>
-      <c r="B1" s="59" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
+      <c r="B1" s="58" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
       <c r="E1" s="13"/>
       <c r="F1" s="13"/>
       <c r="G1" s="19"/>
@@ -4021,12 +4197,12 @@
       <c r="J1" s="18"/>
       <c r="K1" s="12"/>
     </row>
-    <row r="2" spans="1:16" s="2" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
+    <row r="2" spans="1:16" s="2" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
       <c r="E2" s="24" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2" s="24"/>
       <c r="G2" s="24"/>
@@ -4037,15 +4213,15 @@
       <c r="L2" s="6"/>
       <c r="P2" s="6"/>
     </row>
-    <row r="3" spans="1:16" s="2" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
+    <row r="3" spans="1:16" s="2" customFormat="1" ht="40.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
       <c r="E3" s="26">
         <f ca="1">TODAY()</f>
         <v>44853</v>
       </c>
-      <c r="F3" s="34"/>
+      <c r="F3" s="33"/>
       <c r="G3" s="27"/>
       <c r="H3" s="27"/>
       <c r="I3" s="23"/>
@@ -4054,13 +4230,13 @@
       <c r="L3" s="6"/>
       <c r="P3" s="6"/>
     </row>
-    <row r="4" spans="1:16" s="2" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" s="2" customFormat="1" ht="40.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="15"/>
       <c r="C4" s="14"/>
-      <c r="D4" s="35"/>
+      <c r="D4" s="34"/>
       <c r="E4" s="14"/>
       <c r="F4" s="14" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" s="21"/>
       <c r="H4" s="22"/>
@@ -4069,329 +4245,341 @@
       <c r="K4" s="17"/>
       <c r="P4" s="6"/>
     </row>
-    <row r="5" spans="1:16" s="2" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" s="2" customFormat="1" ht="40.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="C5" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="D5" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="25" t="s">
+      <c r="E5" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="25" t="s">
+      <c r="F5" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="25" t="s">
+      <c r="G5" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="25" t="s">
+      <c r="H5" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="25" t="s">
+      <c r="I5" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="25" t="s">
+      <c r="J5" s="25" t="s">
         <v>11</v>
-      </c>
-      <c r="J5" s="25" t="s">
-        <v>12</v>
       </c>
       <c r="K5" s="17"/>
       <c r="L5" s="6"/>
       <c r="P5" s="6"/>
     </row>
-    <row r="6" spans="1:16" s="1" customFormat="1" ht="159.44999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="42" t="s">
+    <row r="6" spans="1:16" s="1" customFormat="1" ht="159.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="31"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="39" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="39" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="32"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="I6" s="40" t="s">
+      <c r="J6" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="K6" s="12"/>
+      <c r="L6" s="47"/>
+    </row>
+    <row r="7" spans="1:16" s="1" customFormat="1" ht="163.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="41" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="30"/>
+      <c r="D7" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="J6" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="K6" s="12"/>
-      <c r="L6" s="48"/>
-    </row>
-    <row r="7" spans="1:16" s="1" customFormat="1" ht="163.19999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="42" t="s">
+      <c r="J7" s="46" t="s">
         <v>27</v>
-      </c>
-      <c r="B7" s="46" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="31"/>
-      <c r="D7" s="45" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="44" t="s">
-        <v>24</v>
-      </c>
-      <c r="H7" s="40" t="s">
-        <v>23</v>
-      </c>
-      <c r="I7" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="J7" s="47" t="s">
-        <v>28</v>
       </c>
       <c r="K7" s="13"/>
     </row>
-    <row r="8" spans="1:16" ht="162" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="42" t="s">
+    <row r="8" spans="1:16" ht="162" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="39" t="s">
+      <c r="C8" s="29"/>
+      <c r="D8" s="48" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="I8" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="30"/>
-      <c r="D8" s="49" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="44" t="s">
-        <v>33</v>
-      </c>
-      <c r="I8" s="50" t="s">
+      <c r="J8" s="35" t="s">
         <v>31</v>
-      </c>
-      <c r="J8" s="36" t="s">
-        <v>32</v>
       </c>
       <c r="K8" s="13"/>
       <c r="L8" s="5"/>
     </row>
-    <row r="9" spans="1:16" ht="159.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="42" t="s">
+    <row r="9" spans="1:16" ht="159.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="G9" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="I9" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" s="39" t="s">
-        <v>60</v>
-      </c>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32" t="s">
-        <v>59</v>
-      </c>
-      <c r="G9" s="44" t="s">
-        <v>35</v>
-      </c>
-      <c r="H9" s="44" t="s">
-        <v>36</v>
-      </c>
-      <c r="I9" s="50" t="s">
+      <c r="J9" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="J9" s="36" t="s">
-        <v>41</v>
-      </c>
-      <c r="K9" s="43"/>
+      <c r="K9" s="42"/>
       <c r="L9" s="5"/>
     </row>
-    <row r="10" spans="1:16" ht="167.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="51" t="s">
+    <row r="10" spans="1:16" ht="167.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="50" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="B10" s="39" t="s">
+      <c r="C10" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" s="39" t="s">
+      <c r="E10" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="E10" s="52" t="s">
+      <c r="F10" s="31"/>
+      <c r="G10" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="H10" s="52" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="F10" s="32"/>
-      <c r="G10" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="H10" s="53" t="s">
+      <c r="J10" s="53" t="s">
         <v>47</v>
-      </c>
-      <c r="I10" s="52" t="s">
-        <v>46</v>
-      </c>
-      <c r="J10" s="54" t="s">
-        <v>48</v>
       </c>
       <c r="K10" s="13"/>
       <c r="L10" s="5"/>
     </row>
-    <row r="11" spans="1:16" ht="156.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="55" t="s">
+    <row r="11" spans="1:16" ht="156.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="B11" s="56" t="s">
+      <c r="C11" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="46" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" s="46" t="s">
+      <c r="E11" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="E11" s="40" t="s">
+      <c r="F11" s="39"/>
+      <c r="G11" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="H11" s="40"/>
+      <c r="I11" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="F11" s="40"/>
-      <c r="G11" s="41" t="s">
-        <v>37</v>
-      </c>
-      <c r="H11" s="41"/>
-      <c r="I11" s="50" t="s">
+      <c r="J11" s="56" t="s">
         <v>53</v>
-      </c>
-      <c r="J11" s="58" t="s">
-        <v>54</v>
       </c>
       <c r="K11" s="13"/>
       <c r="L11" s="5"/>
     </row>
-    <row r="12" spans="1:16" ht="197.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="42" t="s">
+    <row r="12" spans="1:16" ht="197.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="B12" s="56" t="s">
+      <c r="C12" s="31"/>
+      <c r="D12" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="C12" s="32"/>
-      <c r="D12" s="40" t="s">
+      <c r="E12" s="31"/>
+      <c r="F12" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32" t="s">
-        <v>59</v>
-      </c>
-      <c r="G12" s="44" t="s">
+      <c r="G12" s="43" t="s">
+        <v>60</v>
+      </c>
+      <c r="H12" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="H12" s="44" t="s">
+      <c r="I12" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="I12" s="50" t="s">
+      <c r="J12" s="56" t="s">
         <v>63</v>
-      </c>
-      <c r="J12" s="58" t="s">
-        <v>64</v>
       </c>
       <c r="K12" s="13"/>
       <c r="L12" s="5"/>
     </row>
-    <row r="13" spans="1:16" ht="204.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="42" t="s">
+    <row r="13" spans="1:16" ht="204.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="41" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13" s="55" t="s">
+        <v>84</v>
+      </c>
+      <c r="C13" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="D13" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="E13" s="31"/>
+      <c r="F13" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="B13" s="56" t="s">
-        <v>68</v>
-      </c>
-      <c r="C13" s="61" t="s">
-        <v>72</v>
-      </c>
-      <c r="D13" s="40" t="s">
-        <v>70</v>
-      </c>
-      <c r="E13" s="32"/>
-      <c r="F13" s="28" t="s">
+      <c r="G13" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="H13" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="G13" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="H13" s="42" t="s">
-        <v>71</v>
-      </c>
-      <c r="I13" s="42" t="s">
-        <v>66</v>
-      </c>
-      <c r="J13" s="36" t="s">
+      <c r="I13" s="41" t="s">
         <v>65</v>
+      </c>
+      <c r="J13" s="35" t="s">
+        <v>64</v>
       </c>
       <c r="K13" s="13"/>
       <c r="L13" s="5"/>
     </row>
-    <row r="14" spans="1:16" ht="161.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="42" t="s">
+    <row r="14" spans="1:16" ht="161.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="B14" s="55" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" s="57" t="s">
+        <v>78</v>
+      </c>
+      <c r="D14" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="E14" s="31"/>
+      <c r="F14" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="G14" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="H14" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="I14" s="41" t="s">
         <v>74</v>
       </c>
-      <c r="B14" s="56" t="s">
-        <v>77</v>
-      </c>
-      <c r="C14" s="61" t="s">
-        <v>80</v>
-      </c>
-      <c r="D14" s="40" t="s">
-        <v>78</v>
-      </c>
-      <c r="E14" s="32"/>
-      <c r="F14" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="G14" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="H14" s="42" t="s">
-        <v>79</v>
-      </c>
-      <c r="I14" s="42" t="s">
-        <v>76</v>
-      </c>
-      <c r="J14" s="36" t="s">
-        <v>75</v>
+      <c r="J14" s="35" t="s">
+        <v>73</v>
       </c>
       <c r="K14" s="13"/>
       <c r="L14" s="5"/>
     </row>
-    <row r="15" spans="1:16" ht="25.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" s="29"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="28"/>
+    <row r="15" spans="1:16" ht="185" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="57" t="s">
+        <v>79</v>
+      </c>
+      <c r="B15" s="62" t="s">
+        <v>86</v>
+      </c>
+      <c r="C15" s="61"/>
+      <c r="D15" s="62" t="s">
+        <v>80</v>
+      </c>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="H15" s="43" t="s">
+        <v>85</v>
+      </c>
+      <c r="I15" s="60" t="s">
+        <v>82</v>
+      </c>
+      <c r="J15" s="35" t="s">
+        <v>83</v>
+      </c>
       <c r="K15" s="13"/>
       <c r="L15" s="5"/>
     </row>
-    <row r="16" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="12"/>
       <c r="B16" s="13"/>
       <c r="C16" s="13"/>
@@ -4405,9 +4593,9 @@
       <c r="K16" s="13"/>
       <c r="L16" s="5"/>
     </row>
-    <row r="17" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="12"/>
-      <c r="B17" s="13"/>
+      <c r="B17" s="42"/>
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
       <c r="E17" s="13"/>
@@ -4419,7 +4607,7 @@
       <c r="K17" s="13"/>
       <c r="L17" s="5"/>
     </row>
-    <row r="18" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="12"/>
       <c r="B18" s="12"/>
       <c r="C18" s="12"/>
@@ -4433,7 +4621,7 @@
       <c r="K18" s="13"/>
       <c r="L18" s="5"/>
     </row>
-    <row r="19" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="12"/>
       <c r="B19" s="13"/>
       <c r="C19" s="13"/>
@@ -4447,7 +4635,7 @@
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
     </row>
-    <row r="20" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="7"/>
       <c r="B20" s="8"/>
       <c r="C20" s="9"/>
@@ -4461,7 +4649,7 @@
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
     </row>
-    <row r="21" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="7"/>
       <c r="B21" s="8"/>
       <c r="C21" s="9"/>
@@ -4475,92 +4663,92 @@
       <c r="K21" s="5"/>
       <c r="L21" s="5"/>
     </row>
-    <row r="22" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="G22" s="4"/>
       <c r="J22" s="9"/>
       <c r="L22" s="5"/>
     </row>
-    <row r="23" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="G23" s="4"/>
       <c r="J23" s="9"/>
       <c r="L23" s="5"/>
     </row>
-    <row r="24" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="G24" s="4"/>
       <c r="L24" s="5"/>
     </row>
-    <row r="25" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="G25" s="4"/>
       <c r="L25" s="5"/>
     </row>
-    <row r="26" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="27" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="28" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="29" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="30" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="31" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="32" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="33" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="34" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="35" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="36" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="37" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="38" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="39" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="40" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="41" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="42" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="43" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="44" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="45" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="46" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="47" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="48" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="49" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="50" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="51" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="52" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="53" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="54" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="55" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="56" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="57" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="58" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="59" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="60" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="61" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="62" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="63" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="64" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="65" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="66" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="67" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="68" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="69" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="70" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="71" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="72" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="73" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="74" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="75" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="76" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="77" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="78" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="79" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="80" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="81" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="82" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="26" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="27" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="28" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="29" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="30" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="31" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="32" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="33" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="34" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="35" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="36" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="37" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="38" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="39" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="40" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="41" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="42" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="43" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="44" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="45" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="46" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="47" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="48" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="49" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="50" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="51" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="52" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="53" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="54" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="55" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="56" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="57" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="58" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="59" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="60" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="61" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="62" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="63" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="64" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="65" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="66" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="67" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="68" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="69" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="70" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="71" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="72" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="73" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="74" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="75" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="76" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="77" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="78" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="79" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="80" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="81" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="82" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:D3"/>
   </mergeCells>
-  <conditionalFormatting sqref="B15:C15 C12">
+  <conditionalFormatting sqref="C12">
     <cfRule type="cellIs" dxfId="12" priority="2" operator="equal">
       <formula>"S"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations xWindow="274" yWindow="679" count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C12 B15:C15" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C12" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"S, N"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Introduza a data do casamento nesta célula" sqref="G4 E3" xr:uid="{BCA61B36-4BFD-444C-AEE2-826623C012F2}"/>
@@ -4577,47 +4765,19 @@
     <hyperlink ref="J11" r:id="rId6" xr:uid="{E5821ECF-18D1-432B-AE93-DC7D3BE8D8D8}"/>
     <hyperlink ref="J13" r:id="rId7" xr:uid="{AA95B419-AF9B-4A3E-BE2B-A4C36838152B}"/>
     <hyperlink ref="J14" r:id="rId8" xr:uid="{01219542-9895-4F2E-9512-B6B5D3216204}"/>
+    <hyperlink ref="J15" r:id="rId9" xr:uid="{1F3052D7-D354-4558-A0C3-60761279903A}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="52" fitToHeight="0" orientation="landscape" r:id="rId9"/>
-  <drawing r:id="rId10"/>
+  <pageSetup paperSize="9" scale="52" fitToHeight="0" orientation="landscape" r:id="rId10"/>
+  <drawing r:id="rId11"/>
   <tableParts count="1">
-    <tablePart r:id="rId11"/>
+    <tablePart r:id="rId12"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="24" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2d714a3296df14eba7a100bb665443ca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="49549bf45bfbbfb6cffed527380e77e1" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -4905,27 +5065,36 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{141D71A4-5CC3-40CD-990C-070FB4B5F315}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5D97E00F-6E84-416B-8452-E6DC935A7A92}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B44AF425-737A-413C-9CB5-588E99FE889D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4944,4 +5113,24 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5D97E00F-6E84-416B-8452-E6DC935A7A92}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{141D71A4-5CC3-40CD-990C-070FB4B5F315}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/00 - Recolha de Requisitos/RegistodePesquisas.xlsx
+++ b/00 - Recolha de Requisitos/RegistodePesquisas.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25F4BF7A-0BE4-4946-8D9C-3483B3908C60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33ABD721-4ED6-4F9D-B765-BFEBDB96DB37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Brain Storming" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="91">
   <si>
     <t xml:space="preserve">  </t>
   </si>
@@ -371,6 +371,18 @@
   </si>
   <si>
     <t>Com base numa câmara e alguns sensores tem por objetivo, baseando-se em APIs desenvolvidas em liguagens acessiveis, fazer o tracking de movimentos e consequentemente mostrar os mesmos num ambiente virtualizado</t>
+  </si>
+  <si>
+    <t>Fábricas, Empresas</t>
+  </si>
+  <si>
+    <t>Tornar a tomada de conhecimento relativa à Segurança no Trabalho num processo interavtivo para boa compreensão dos trabalhadores</t>
+  </si>
+  <si>
+    <t>Obrigatoriamente todos os trabalhadores, especialmente de indústrias, devem tomar conhecimento e assinar um documento relativo à Segurança no Trabalho. No entanto poucos tomam atenção aos detalhes do documento, sendo um assunto bastante importante, devia existir algo mais interativo que levasse á compreensão total dos métodos a adotar para um trabalho seguro.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Através de uns óculos VR seria proporcionado um ambiente de trabalho virtual onde todas as regras de segurança e boas práticas no trabalho seriam demonstradas de forma simples e não ficassem na memória como tendo sido uma burocracia que os trabalhadores assinaram. </t>
   </si>
 </sst>
 </file>
@@ -1295,20 +1307,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="48">
@@ -1902,14 +1914,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>5145318</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1788889</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1780271</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>11342</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>252640</xdr:rowOff>
     </xdr:to>
@@ -1940,8 +1952,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="8871860" y="-112485"/>
-          <a:ext cx="1809297" cy="2034268"/>
+          <a:off x="12344403" y="-341085"/>
+          <a:ext cx="1803854" cy="2486024"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3881,16 +3893,16 @@
   </sheetPr>
   <dimension ref="A1:I83"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.69140625" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="23.69140625" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="37.07421875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="70.921875" style="5" customWidth="1"/>
-    <col min="4" max="4" width="23.69140625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="63" style="5" customWidth="1"/>
+    <col min="4" max="4" width="51.69140625" style="5" customWidth="1"/>
     <col min="5" max="5" width="24.4609375" style="4" customWidth="1"/>
     <col min="6" max="6" width="1.4609375" style="5" customWidth="1"/>
     <col min="7" max="16384" width="10.69140625" style="5"/>
@@ -3898,14 +3910,14 @@
   <sheetData>
     <row r="1" spans="1:9" ht="40.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="11"/>
-      <c r="B1" s="58" t="s">
+      <c r="B1" s="61" t="s">
         <v>12</v>
       </c>
       <c r="C1" s="13"/>
       <c r="D1" s="19"/>
     </row>
     <row r="2" spans="1:9" s="2" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="59"/>
+      <c r="B2" s="62"/>
       <c r="C2" s="24" t="s">
         <v>1</v>
       </c>
@@ -3914,7 +3926,7 @@
       <c r="I2" s="6"/>
     </row>
     <row r="3" spans="1:9" s="2" customFormat="1" ht="40.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="59"/>
+      <c r="B3" s="62"/>
       <c r="C3" s="26">
         <f ca="1">TODAY()</f>
         <v>44853</v>
@@ -3946,10 +3958,18 @@
       <c r="I5" s="6"/>
     </row>
     <row r="6" spans="1:9" s="1" customFormat="1" ht="159.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="41"/>
-      <c r="B6" s="41"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
+      <c r="A6" s="41" t="s">
+        <v>87</v>
+      </c>
+      <c r="B6" s="41" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="D6" s="41" t="s">
+        <v>89</v>
+      </c>
       <c r="E6" s="47"/>
     </row>
     <row r="7" spans="1:9" s="1" customFormat="1" ht="163.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -3957,6 +3977,7 @@
       <c r="B7" s="41"/>
       <c r="C7" s="41"/>
       <c r="D7" s="41"/>
+      <c r="E7" s="47"/>
     </row>
     <row r="8" spans="1:9" ht="162" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="41"/>
@@ -4162,7 +4183,7 @@
   </sheetPr>
   <dimension ref="A1:P82"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A15" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A15" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
@@ -4184,11 +4205,11 @@
   <sheetData>
     <row r="1" spans="1:16" ht="40.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="11"/>
-      <c r="B1" s="58" t="s">
+      <c r="B1" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
       <c r="E1" s="13"/>
       <c r="F1" s="13"/>
       <c r="G1" s="19"/>
@@ -4198,9 +4219,9 @@
       <c r="K1" s="12"/>
     </row>
     <row r="2" spans="1:16" s="2" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
       <c r="E2" s="24" t="s">
         <v>1</v>
       </c>
@@ -4214,9 +4235,9 @@
       <c r="P2" s="6"/>
     </row>
     <row r="3" spans="1:16" s="2" customFormat="1" ht="40.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
       <c r="E3" s="26">
         <f ca="1">TODAY()</f>
         <v>44853</v>
@@ -4280,7 +4301,7 @@
       <c r="L5" s="6"/>
       <c r="P5" s="6"/>
     </row>
-    <row r="6" spans="1:16" s="1" customFormat="1" ht="159.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" s="1" customFormat="1" ht="159.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="41" t="s">
         <v>19</v>
       </c>
@@ -4555,11 +4576,11 @@
       <c r="A15" s="57" t="s">
         <v>79</v>
       </c>
-      <c r="B15" s="62" t="s">
+      <c r="B15" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="C15" s="61"/>
-      <c r="D15" s="62" t="s">
+      <c r="C15" s="59"/>
+      <c r="D15" s="60" t="s">
         <v>80</v>
       </c>
       <c r="E15" s="31"/>
@@ -4570,7 +4591,7 @@
       <c r="H15" s="43" t="s">
         <v>85</v>
       </c>
-      <c r="I15" s="60" t="s">
+      <c r="I15" s="58" t="s">
         <v>82</v>
       </c>
       <c r="J15" s="35" t="s">
@@ -4778,6 +4799,35 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="24" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2d714a3296df14eba7a100bb665443ca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="49549bf45bfbbfb6cffed527380e77e1" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -5065,36 +5115,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{141D71A4-5CC3-40CD-990C-070FB4B5F315}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5D97E00F-6E84-416B-8452-E6DC935A7A92}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B44AF425-737A-413C-9CB5-588E99FE889D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5113,24 +5154,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5D97E00F-6E84-416B-8452-E6DC935A7A92}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{141D71A4-5CC3-40CD-990C-070FB4B5F315}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/00 - Recolha de Requisitos/RegistodePesquisas.xlsx
+++ b/00 - Recolha de Requisitos/RegistodePesquisas.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33ABD721-4ED6-4F9D-B765-BFEBDB96DB37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{355AE017-9F94-4BF1-8AE3-1721B147C21C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Brain Storming" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="103">
   <si>
     <t xml:space="preserve">  </t>
   </si>
@@ -384,18 +384,54 @@
   <si>
     <t xml:space="preserve">Através de uns óculos VR seria proporcionado um ambiente de trabalho virtual onde todas as regras de segurança e boas práticas no trabalho seriam demonstradas de forma simples e não ficassem na memória como tendo sido uma burocracia que os trabalhadores assinaram. </t>
   </si>
+  <si>
+    <t>Quarto Vazio</t>
+  </si>
+  <si>
+    <t>Ecrâ virtuais</t>
+  </si>
+  <si>
+    <t>Criar um quarto ao gosto de cada um, nas dimensões reais</t>
+  </si>
+  <si>
+    <t>Pode ser usado com oculos VR ou smartphones</t>
+  </si>
+  <si>
+    <t>Criar um quarto com dimensões de tamanho real onde se pode adicionar mobiliária e acessorios. Para que o usuario possas ver as suas modificações em tamanho real. Tendo melhor noção de como o quarto irá acabar.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ter varios ecras ao mesmo tempo </t>
+  </si>
+  <si>
+    <t>Ao usar uns oculos VR pode se adicionar inumeros ecras ao seu espaço pessoal</t>
+  </si>
+  <si>
+    <t>cartografia de uma fabrica</t>
+  </si>
+  <si>
+    <t>Digitalização/mapeamento de uma fabrica</t>
+  </si>
+  <si>
+    <t>Apresentação da frabirca no interior no exterior, para agentes externos</t>
+  </si>
+  <si>
+    <t>Uso de camerãs em profundidade, sensores, entre outros dispositivos para digitalizar a fabrica.</t>
+  </si>
+  <si>
+    <t>indentificação de um objeto</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="6">
-    <numFmt numFmtId="42" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;\ &quot;€&quot;_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="#,##0_ ;\-#,##0\ "/>
-    <numFmt numFmtId="166" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="167" formatCode="0000"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="#,##0_ ;\-#,##0\ "/>
+    <numFmt numFmtId="167" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="168" formatCode="0000"/>
   </numFmts>
   <fonts count="53" x14ac:knownFonts="1">
     <font>
@@ -1086,11 +1122,11 @@
   </borders>
   <cellStyleXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -1134,7 +1170,7 @@
     <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1232,7 +1268,7 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="165" fontId="23" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="23" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1283,7 +1319,7 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1322,58 +1358,79 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="48">
-    <cellStyle name="20% - Cor1" xfId="25" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Cor2" xfId="28" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Cor3" xfId="32" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Cor4" xfId="36" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Cor5" xfId="40" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Cor6" xfId="44" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Cor1" xfId="26" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Cor2" xfId="29" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Cor3" xfId="33" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Cor4" xfId="37" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Cor5" xfId="41" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Cor6" xfId="45" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Cor1" xfId="2" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Cor2" xfId="30" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Cor3" xfId="34" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Cor4" xfId="38" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Cor5" xfId="42" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Cor6" xfId="46" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Cabeçalho 1" xfId="8" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Cabeçalho 2" xfId="9" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Cabeçalho 3" xfId="10" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Cabeçalho 4" xfId="11" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Cálculo" xfId="17" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Célula Ligada" xfId="18" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Cor1" xfId="24" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Cor2" xfId="27" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Cor3" xfId="31" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Cor4" xfId="35" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Cor5" xfId="39" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Cor6" xfId="43" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Correto" xfId="12" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Entrada" xfId="15" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Hiperligação" xfId="47" builtinId="8"/>
-    <cellStyle name="Incorreto" xfId="13" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Moeda" xfId="4" builtinId="4" customBuiltin="1"/>
-    <cellStyle name="Moeda [0]" xfId="5" builtinId="7" customBuiltin="1"/>
-    <cellStyle name="Neutro" xfId="14" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="28" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="32" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="36" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="40" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="44" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="26" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="29" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="33" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="37" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="41" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="45" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="2" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="30" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="34" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="38" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="42" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="46" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="24" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="27" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="31" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="35" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="39" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="43" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="13" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="17" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3" customBuiltin="1"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6" customBuiltin="1"/>
+    <cellStyle name="Currency" xfId="4" builtinId="4" customBuiltin="1"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="22" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="12" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="8" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="9" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="10" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="11" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8"/>
+    <cellStyle name="Input" xfId="15" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="18" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="14" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
-    <cellStyle name="Nota" xfId="21" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Percentagem" xfId="6" builtinId="5" customBuiltin="1"/>
-    <cellStyle name="Saída" xfId="16" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Separador de milhares [0]" xfId="3" builtinId="6" customBuiltin="1"/>
-    <cellStyle name="Texto de Aviso" xfId="20" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Texto Explicativo" xfId="22" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Título" xfId="7" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Note" xfId="21" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="16" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="7" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="23" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Verificar Célula" xfId="19" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Vírgula" xfId="1" builtinId="3" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="20" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="26">
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFA0C6CC"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="8" tint="0.59996337778862885"/>
+        </left>
+        <right style="thin">
+          <color theme="8" tint="0.59996337778862885"/>
+        </right>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1601,24 +1658,6 @@
         <scheme val="major"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFA0C6CC"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="8" tint="0.59996337778862885"/>
-        </left>
-        <right style="thin">
-          <color theme="8" tint="0.59996337778862885"/>
-        </right>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -2157,15 +2196,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>3014890</xdr:colOff>
+      <xdr:colOff>2895147</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>707572</xdr:rowOff>
+      <xdr:rowOff>696686</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>6073</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>5829930</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>1514106</xdr:rowOff>
+      <xdr:rowOff>1503220</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2188,8 +2227,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12567104" y="5297715"/>
-          <a:ext cx="2573377" cy="806534"/>
+          <a:off x="12605204" y="5301343"/>
+          <a:ext cx="2934783" cy="806534"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2395,15 +2434,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:colOff>199292</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>65314</xdr:rowOff>
+      <xdr:rowOff>14857</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>101553</xdr:colOff>
+      <xdr:colOff>158261</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>2361786</xdr:rowOff>
+      <xdr:rowOff>2455663</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2426,8 +2465,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3918857" y="14935200"/>
-          <a:ext cx="2322239" cy="2296472"/>
+          <a:off x="4173415" y="14885580"/>
+          <a:ext cx="2743200" cy="2440806"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2439,15 +2478,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>217715</xdr:colOff>
+      <xdr:colOff>570478</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>229340</xdr:rowOff>
+      <xdr:rowOff>41030</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>4550229</xdr:colOff>
+      <xdr:colOff>5386754</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>2432107</xdr:rowOff>
+      <xdr:rowOff>2489755</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2470,8 +2509,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9035144" y="15099226"/>
-          <a:ext cx="4332514" cy="2202767"/>
+          <a:off x="10271324" y="14911753"/>
+          <a:ext cx="4816276" cy="2448725"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2483,15 +2522,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>859972</xdr:colOff>
+      <xdr:colOff>1551633</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>37964</xdr:rowOff>
+      <xdr:rowOff>67271</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>3624943</xdr:colOff>
+      <xdr:colOff>4316604</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>2445203</xdr:rowOff>
+      <xdr:rowOff>2474510</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2520,7 +2559,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10570029" y="17411564"/>
+          <a:off x="11252479" y="17446733"/>
           <a:ext cx="2764971" cy="2407239"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2720,15 +2759,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>217714</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>119743</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>4134062</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>139004</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>1879697</xdr:rowOff>
+      <xdr:rowOff>1999440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2751,7 +2790,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15403286" y="21989143"/>
+          <a:off x="15871371" y="22141543"/>
           <a:ext cx="4134062" cy="1879697"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2782,18 +2821,18 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="TBL_Invitations" displayName="TBL_Convites" ref="A5:J15" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="TBL_Invitations" displayName="TBL_Convites" ref="A5:J15" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Local/Contexto" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Objetivos" dataDxfId="8"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Arquitetura global" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Dispositivos" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Tipos de Interação" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Packages de software" dataDxfId="4"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Linguagens de programação" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Avaliação com peritos/utilizadores" dataDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Public-domain" dataDxfId="1"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Site" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Local/Contexto" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Objetivos" dataDxfId="9"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Arquitetura global" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Dispositivos" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Tipos de Interação" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Packages de software" dataDxfId="5"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Linguagens de programação" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Avaliação com peritos/utilizadores" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Public-domain" dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Site" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3893,22 +3932,22 @@
   </sheetPr>
   <dimension ref="A1:I83"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.69140625" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="10.7265625" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.69140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.07421875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="23.7265625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.08984375" style="1" customWidth="1"/>
     <col min="3" max="3" width="63" style="5" customWidth="1"/>
-    <col min="4" max="4" width="51.69140625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="24.4609375" style="4" customWidth="1"/>
-    <col min="6" max="6" width="1.4609375" style="5" customWidth="1"/>
-    <col min="7" max="16384" width="10.69140625" style="5"/>
+    <col min="4" max="4" width="51.7265625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="24.453125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="1.453125" style="5" customWidth="1"/>
+    <col min="7" max="16384" width="10.7265625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="40.25" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:9" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="11"/>
       <c r="B1" s="61" t="s">
         <v>12</v>
@@ -3916,7 +3955,7 @@
       <c r="C1" s="13"/>
       <c r="D1" s="19"/>
     </row>
-    <row r="2" spans="1:9" s="2" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" s="2" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B2" s="62"/>
       <c r="C2" s="24" t="s">
         <v>1</v>
@@ -3925,7 +3964,7 @@
       <c r="E2" s="6"/>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="1:9" s="2" customFormat="1" ht="40.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" s="2" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="62"/>
       <c r="C3" s="26">
         <f ca="1">TODAY()</f>
@@ -3935,13 +3974,13 @@
       <c r="E3" s="6"/>
       <c r="I3" s="6"/>
     </row>
-    <row r="4" spans="1:9" s="2" customFormat="1" ht="40.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:9" s="2" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="15"/>
       <c r="C4" s="14"/>
       <c r="D4" s="21"/>
       <c r="I4" s="6"/>
     </row>
-    <row r="5" spans="1:9" s="2" customFormat="1" ht="40.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:9" s="2" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="25" t="s">
         <v>2</v>
       </c>
@@ -3957,7 +3996,7 @@
       <c r="E5" s="6"/>
       <c r="I5" s="6"/>
     </row>
-    <row r="6" spans="1:9" s="1" customFormat="1" ht="159.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:9" s="1" customFormat="1" ht="159.44999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="41" t="s">
         <v>87</v>
       </c>
@@ -3972,191 +4011,223 @@
       </c>
       <c r="E6" s="47"/>
     </row>
-    <row r="7" spans="1:9" s="1" customFormat="1" ht="163.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="41"/>
-      <c r="B7" s="41"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
+    <row r="7" spans="1:9" s="1" customFormat="1" ht="163.19999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="41" t="s">
+        <v>91</v>
+      </c>
+      <c r="B7" s="41" t="s">
+        <v>93</v>
+      </c>
+      <c r="C7" s="41" t="s">
+        <v>94</v>
+      </c>
+      <c r="D7" s="41" t="s">
+        <v>95</v>
+      </c>
       <c r="E7" s="47"/>
     </row>
-    <row r="8" spans="1:9" ht="162" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="41"/>
-      <c r="B8" s="41"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
+    <row r="8" spans="1:9" ht="162" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="41" t="s">
+        <v>92</v>
+      </c>
+      <c r="B8" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="C8" s="41" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="41" t="s">
+        <v>97</v>
+      </c>
       <c r="E8" s="5"/>
     </row>
-    <row r="9" spans="1:9" ht="159.65" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="41"/>
-      <c r="B9" s="41"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
+    <row r="9" spans="1:9" ht="159.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="41" t="s">
+        <v>98</v>
+      </c>
+      <c r="B9" s="41" t="s">
+        <v>99</v>
+      </c>
+      <c r="C9" s="41" t="s">
+        <v>100</v>
+      </c>
+      <c r="D9" s="41" t="s">
+        <v>101</v>
+      </c>
       <c r="E9" s="5"/>
     </row>
-    <row r="10" spans="1:9" ht="167.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="50"/>
-      <c r="B10" s="50"/>
-      <c r="C10" s="50"/>
-      <c r="D10" s="50"/>
+    <row r="10" spans="1:9" ht="167.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="50" t="s">
+        <v>102</v>
+      </c>
+      <c r="B10" s="50" t="s">
+        <v>102</v>
+      </c>
+      <c r="C10" s="50" t="s">
+        <v>102</v>
+      </c>
+      <c r="D10" s="50" t="s">
+        <v>102</v>
+      </c>
       <c r="E10" s="5"/>
     </row>
-    <row r="11" spans="1:9" ht="156.65" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:9" ht="156.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="54"/>
       <c r="B11" s="54"/>
       <c r="C11" s="54"/>
       <c r="D11" s="54"/>
       <c r="E11" s="5"/>
     </row>
-    <row r="12" spans="1:9" ht="25.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:9" ht="25.2" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="28"/>
       <c r="B12" s="28"/>
       <c r="C12" s="28"/>
       <c r="D12" s="28"/>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" spans="1:9" ht="25.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:9" ht="25.2" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="28"/>
       <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
+      <c r="C13" s="63"/>
       <c r="D13" s="28"/>
       <c r="E13" s="5"/>
     </row>
-    <row r="14" spans="1:9" ht="25.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:9" ht="25.2" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="28"/>
       <c r="B14" s="28"/>
       <c r="C14" s="28"/>
       <c r="D14" s="28"/>
       <c r="E14" s="5"/>
     </row>
-    <row r="15" spans="1:9" ht="25.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:9" ht="25.2" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="28"/>
       <c r="B15" s="28"/>
       <c r="C15" s="28"/>
       <c r="D15" s="28"/>
       <c r="E15" s="5"/>
     </row>
-    <row r="16" spans="1:9" ht="25.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:9" ht="25.2" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="28"/>
       <c r="B16" s="28"/>
       <c r="C16" s="28"/>
       <c r="D16" s="28"/>
       <c r="E16" s="5"/>
     </row>
-    <row r="17" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="12"/>
       <c r="B17" s="13"/>
       <c r="C17" s="13"/>
       <c r="D17" s="12"/>
       <c r="E17" s="5"/>
     </row>
-    <row r="18" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="12"/>
       <c r="B18" s="13"/>
       <c r="C18" s="13"/>
       <c r="D18" s="12"/>
       <c r="E18" s="5"/>
     </row>
-    <row r="19" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="12"/>
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
       <c r="D19" s="12"/>
       <c r="E19" s="5"/>
     </row>
-    <row r="20" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="12"/>
       <c r="B20" s="13"/>
       <c r="C20" s="12"/>
       <c r="D20" s="20"/>
       <c r="E20" s="5"/>
     </row>
-    <row r="21" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="7"/>
       <c r="B21" s="8"/>
       <c r="C21" s="10"/>
       <c r="D21" s="23"/>
       <c r="E21" s="5"/>
     </row>
-    <row r="22" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="7"/>
       <c r="B22" s="8"/>
       <c r="C22" s="10"/>
       <c r="D22" s="9"/>
       <c r="E22" s="5"/>
     </row>
-    <row r="23" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D23" s="4"/>
       <c r="E23" s="5"/>
     </row>
-    <row r="24" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D24" s="4"/>
       <c r="E24" s="5"/>
     </row>
-    <row r="25" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D25" s="4"/>
       <c r="E25" s="5"/>
     </row>
-    <row r="26" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D26" s="4"/>
       <c r="E26" s="5"/>
     </row>
-    <row r="27" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="28" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="29" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="30" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="31" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="32" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="33" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="34" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="35" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="36" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="37" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="38" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="39" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="40" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="41" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="42" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="43" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="44" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="45" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="46" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="47" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="48" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="49" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="50" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="51" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="52" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="53" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="54" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="55" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="56" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="57" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="58" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="59" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="60" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="61" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="62" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="63" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="64" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="65" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="66" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="67" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="68" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="69" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="70" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="71" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="72" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="73" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="74" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="75" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="76" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="77" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="78" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="79" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="80" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="81" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="82" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="83" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="27" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="28" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="29" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="30" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="31" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="32" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="33" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="34" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="35" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="36" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="37" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="38" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="39" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="40" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="41" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="42" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="43" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="44" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="45" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="46" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="47" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="48" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="49" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="50" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="51" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="52" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="53" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="54" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="55" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="56" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="57" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="58" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="59" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="60" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="61" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="62" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="63" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="64" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="65" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="66" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="67" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="68" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="69" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="70" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="71" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="72" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="73" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="74" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="75" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="76" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="77" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="78" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="79" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="80" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="81" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="82" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="83" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:B3"/>
@@ -4183,27 +4254,27 @@
   </sheetPr>
   <dimension ref="A1:P82"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A15" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView showGridLines="0" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.69140625" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="10.7265625" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.69140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.69140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="33.15234375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="35.07421875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="70.921875" style="5" customWidth="1"/>
-    <col min="6" max="6" width="50.3046875" style="5" customWidth="1"/>
-    <col min="7" max="7" width="23.69140625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="24.69140625" style="4" customWidth="1"/>
-    <col min="9" max="10" width="23.69140625" style="4" customWidth="1"/>
-    <col min="11" max="12" width="24.4609375" style="4" customWidth="1"/>
-    <col min="13" max="13" width="1.4609375" style="5" customWidth="1"/>
-    <col min="14" max="16384" width="10.69140625" style="5"/>
+    <col min="1" max="1" width="23.7265625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.7265625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="33.1796875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="35.08984375" style="5" customWidth="1"/>
+    <col min="5" max="5" width="70.90625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="50.26953125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="23.7265625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="24.7265625" style="4" customWidth="1"/>
+    <col min="9" max="10" width="23.7265625" style="4" customWidth="1"/>
+    <col min="11" max="12" width="24.453125" style="4" customWidth="1"/>
+    <col min="13" max="13" width="1.453125" style="5" customWidth="1"/>
+    <col min="14" max="16384" width="10.7265625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="40.25" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:16" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="11"/>
       <c r="B1" s="61" t="s">
         <v>12</v>
@@ -4218,7 +4289,7 @@
       <c r="J1" s="18"/>
       <c r="K1" s="12"/>
     </row>
-    <row r="2" spans="1:16" s="2" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:16" s="2" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B2" s="62"/>
       <c r="C2" s="62"/>
       <c r="D2" s="62"/>
@@ -4234,7 +4305,7 @@
       <c r="L2" s="6"/>
       <c r="P2" s="6"/>
     </row>
-    <row r="3" spans="1:16" s="2" customFormat="1" ht="40.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:16" s="2" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="62"/>
       <c r="C3" s="62"/>
       <c r="D3" s="62"/>
@@ -4251,7 +4322,7 @@
       <c r="L3" s="6"/>
       <c r="P3" s="6"/>
     </row>
-    <row r="4" spans="1:16" s="2" customFormat="1" ht="40.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:16" s="2" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="15"/>
       <c r="C4" s="14"/>
       <c r="D4" s="34"/>
@@ -4266,7 +4337,7 @@
       <c r="K4" s="17"/>
       <c r="P4" s="6"/>
     </row>
-    <row r="5" spans="1:16" s="2" customFormat="1" ht="40.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:16" s="2" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="25" t="s">
         <v>2</v>
       </c>
@@ -4301,7 +4372,7 @@
       <c r="L5" s="6"/>
       <c r="P5" s="6"/>
     </row>
-    <row r="6" spans="1:16" s="1" customFormat="1" ht="159.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" s="1" customFormat="1" ht="159.44999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="41" t="s">
         <v>19</v>
       </c>
@@ -4317,7 +4388,9 @@
       <c r="E6" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="31"/>
+      <c r="F6" s="31" t="s">
+        <v>67</v>
+      </c>
       <c r="G6" s="32"/>
       <c r="H6" s="37" t="s">
         <v>16</v>
@@ -4331,7 +4404,7 @@
       <c r="K6" s="12"/>
       <c r="L6" s="47"/>
     </row>
-    <row r="7" spans="1:16" s="1" customFormat="1" ht="163.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:16" s="1" customFormat="1" ht="163.19999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="41" t="s">
         <v>26</v>
       </c>
@@ -4343,7 +4416,9 @@
         <v>24</v>
       </c>
       <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
+      <c r="F7" s="31" t="s">
+        <v>67</v>
+      </c>
       <c r="G7" s="43" t="s">
         <v>23</v>
       </c>
@@ -4358,7 +4433,7 @@
       </c>
       <c r="K7" s="13"/>
     </row>
-    <row r="8" spans="1:16" ht="162" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:16" ht="162" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="41" t="s">
         <v>28</v>
       </c>
@@ -4370,7 +4445,9 @@
         <v>33</v>
       </c>
       <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
+      <c r="F8" s="31" t="s">
+        <v>67</v>
+      </c>
       <c r="G8" s="32"/>
       <c r="H8" s="43" t="s">
         <v>32</v>
@@ -4384,7 +4461,7 @@
       <c r="K8" s="13"/>
       <c r="L8" s="5"/>
     </row>
-    <row r="9" spans="1:16" ht="159.65" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:16" ht="159.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="41" t="s">
         <v>38</v>
       </c>
@@ -4416,7 +4493,7 @@
       <c r="K9" s="42"/>
       <c r="L9" s="5"/>
     </row>
-    <row r="10" spans="1:16" ht="167.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:16" ht="167.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="50" t="s">
         <v>41</v>
       </c>
@@ -4448,7 +4525,7 @@
       <c r="K10" s="13"/>
       <c r="L10" s="5"/>
     </row>
-    <row r="11" spans="1:16" ht="156.65" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:16" ht="156.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="54" t="s">
         <v>48</v>
       </c>
@@ -4478,7 +4555,7 @@
       <c r="K11" s="13"/>
       <c r="L11" s="5"/>
     </row>
-    <row r="12" spans="1:16" ht="197.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:16" ht="197.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="41" t="s">
         <v>55</v>
       </c>
@@ -4508,7 +4585,7 @@
       <c r="K12" s="13"/>
       <c r="L12" s="5"/>
     </row>
-    <row r="13" spans="1:16" ht="204.65" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:16" ht="204.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="41" t="s">
         <v>66</v>
       </c>
@@ -4540,7 +4617,7 @@
       <c r="K13" s="13"/>
       <c r="L13" s="5"/>
     </row>
-    <row r="14" spans="1:16" ht="161.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:16" ht="161.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="41" t="s">
         <v>72</v>
       </c>
@@ -4572,7 +4649,7 @@
       <c r="K14" s="13"/>
       <c r="L14" s="5"/>
     </row>
-    <row r="15" spans="1:16" ht="185" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:16" ht="184.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="57" t="s">
         <v>79</v>
       </c>
@@ -4600,7 +4677,7 @@
       <c r="K15" s="13"/>
       <c r="L15" s="5"/>
     </row>
-    <row r="16" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="12"/>
       <c r="B16" s="13"/>
       <c r="C16" s="13"/>
@@ -4614,7 +4691,7 @@
       <c r="K16" s="13"/>
       <c r="L16" s="5"/>
     </row>
-    <row r="17" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="12"/>
       <c r="B17" s="42"/>
       <c r="C17" s="13"/>
@@ -4628,7 +4705,7 @@
       <c r="K17" s="13"/>
       <c r="L17" s="5"/>
     </row>
-    <row r="18" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="12"/>
       <c r="B18" s="12"/>
       <c r="C18" s="12"/>
@@ -4642,7 +4719,7 @@
       <c r="K18" s="13"/>
       <c r="L18" s="5"/>
     </row>
-    <row r="19" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="12"/>
       <c r="B19" s="13"/>
       <c r="C19" s="13"/>
@@ -4656,7 +4733,7 @@
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
     </row>
-    <row r="20" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="7"/>
       <c r="B20" s="8"/>
       <c r="C20" s="9"/>
@@ -4670,7 +4747,7 @@
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
     </row>
-    <row r="21" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="7"/>
       <c r="B21" s="8"/>
       <c r="C21" s="9"/>
@@ -4684,87 +4761,87 @@
       <c r="K21" s="5"/>
       <c r="L21" s="5"/>
     </row>
-    <row r="22" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="G22" s="4"/>
       <c r="J22" s="9"/>
       <c r="L22" s="5"/>
     </row>
-    <row r="23" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="G23" s="4"/>
       <c r="J23" s="9"/>
       <c r="L23" s="5"/>
     </row>
-    <row r="24" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="G24" s="4"/>
       <c r="L24" s="5"/>
     </row>
-    <row r="25" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="G25" s="4"/>
       <c r="L25" s="5"/>
     </row>
-    <row r="26" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="27" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="28" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="29" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="30" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="31" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="32" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="33" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="34" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="35" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="36" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="37" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="38" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="39" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="40" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="41" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="42" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="43" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="44" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="45" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="46" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="47" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="48" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="49" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="50" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="51" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="52" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="53" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="54" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="55" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="56" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="57" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="58" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="59" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="60" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="61" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="62" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="63" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="64" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="65" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="66" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="67" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="68" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="69" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="70" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="71" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="72" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="73" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="74" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="75" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="76" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="77" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="78" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="79" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="80" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="81" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="82" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="26" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="27" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="28" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="29" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="30" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="31" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="32" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="33" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="34" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="35" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="36" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="37" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="38" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="39" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="40" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="41" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="42" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="43" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="44" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="45" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="46" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="47" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="48" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="49" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="50" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="51" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="52" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="53" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="54" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="55" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="56" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="57" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="58" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="59" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="60" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="61" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="62" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="63" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="64" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="65" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="66" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="67" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="68" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="69" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="70" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="71" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="72" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="73" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="74" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="75" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="76" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="77" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="78" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="79" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="80" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="81" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="82" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:D3"/>
   </mergeCells>
   <conditionalFormatting sqref="C12">
-    <cfRule type="cellIs" dxfId="12" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4799,35 +4876,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="24" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2d714a3296df14eba7a100bb665443ca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="49549bf45bfbbfb6cffed527380e77e1" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -5115,27 +5163,36 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{141D71A4-5CC3-40CD-990C-070FB4B5F315}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5D97E00F-6E84-416B-8452-E6DC935A7A92}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B44AF425-737A-413C-9CB5-588E99FE889D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5154,4 +5211,24 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5D97E00F-6E84-416B-8452-E6DC935A7A92}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{141D71A4-5CC3-40CD-990C-070FB4B5F315}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/00 - Recolha de Requisitos/RegistodePesquisas.xlsx
+++ b/00 - Recolha de Requisitos/RegistodePesquisas.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{355AE017-9F94-4BF1-8AE3-1721B147C21C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BA82902-56C9-410D-AD77-6E108AD55A22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Brain Storming" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="110">
   <si>
     <t xml:space="preserve">  </t>
   </si>
@@ -420,20 +420,51 @@
   <si>
     <t>indentificação de um objeto</t>
   </si>
+  <si>
+    <t>Sistema de rastreio de movimento sem calibragem, compativel com dispositivos acessíveis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A partir de uma imagem captada pelo Smartphone, em live é possivel, mesmo em casos de cenários estáticos:
+Inicializar uma projeção AR sem qualquer calibração prévia ou inicialização complexa;
+Desempenho em tempo real nos Smartphones, mostrando milhões de conteúdos de AR numa vasta gama de equipamentos acessiveis a inúmeros utilizadores
+</t>
+  </si>
+  <si>
+    <t>A arquitetura é composta por um módulo de análise de movimento, um outro para rastrear uma dada àrea ou de um alvo plano para superficies que devam ser projetadas num dado plano, caso não se trate de um contúdo onde este não seja necessário existe ainda um módulo de estimativa de pose para a calibração automática 6DoF.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Smartphone
+VSlam
+</t>
+  </si>
+  <si>
+    <t>O sistema é capaz de reproduzir qualquer imagem 2D ou 3D num dado alvo, à escala pretendida sem qualquer tipo de Calibragem necessária, todos os testes realizados em smartphones tiveram resultados positivos.</t>
+  </si>
+  <si>
+    <t>Jianing Wei
+Genzhi Ye
+Tyler Mullen
+Matthias Grundmann
+Adel Ahmadyan
+Tingbo Hou</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://research.google/pubs/pub48339/ </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="6">
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;\ &quot;€&quot;_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="#,##0_ ;\-#,##0\ "/>
-    <numFmt numFmtId="167" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="168" formatCode="0000"/>
+    <numFmt numFmtId="42" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="#,##0_ ;\-#,##0\ "/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="0000"/>
   </numFmts>
-  <fonts count="53" x14ac:knownFonts="1">
+  <fonts count="54" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -804,8 +835,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <name val="Franklin Gothic Book"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1003,6 +1041,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -1122,11 +1166,11 @@
   </borders>
   <cellStyleXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -1170,7 +1214,7 @@
     <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1268,7 +1312,7 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="166" fontId="23" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="23" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1319,7 +1363,7 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1352,85 +1396,91 @@
     <xf numFmtId="0" fontId="26" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="3" borderId="0" xfId="47" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="48">
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="28" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="32" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="36" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="40" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="44" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="26" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="29" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="33" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="37" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="41" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="45" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="2" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="30" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="34" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="38" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="42" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="46" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="24" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="27" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="31" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="35" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="39" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="43" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="13" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="17" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="19" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3" customBuiltin="1"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6" customBuiltin="1"/>
-    <cellStyle name="Currency" xfId="4" builtinId="4" customBuiltin="1"/>
-    <cellStyle name="Currency [0]" xfId="5" builtinId="7" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="22" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="12" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="8" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="9" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="10" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="11" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Hyperlink" xfId="47" builtinId="8"/>
-    <cellStyle name="Input" xfId="15" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="18" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="14" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="20% - Cor1" xfId="25" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Cor2" xfId="28" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Cor3" xfId="32" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Cor4" xfId="36" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Cor5" xfId="40" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Cor6" xfId="44" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Cor1" xfId="26" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Cor2" xfId="29" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Cor3" xfId="33" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Cor4" xfId="37" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Cor5" xfId="41" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Cor6" xfId="45" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Cor1" xfId="2" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Cor2" xfId="30" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Cor3" xfId="34" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Cor4" xfId="38" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Cor5" xfId="42" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Cor6" xfId="46" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Cabeçalho 1" xfId="8" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Cabeçalho 2" xfId="9" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Cabeçalho 3" xfId="10" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Cabeçalho 4" xfId="11" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Cálculo" xfId="17" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Célula Ligada" xfId="18" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Cor1" xfId="24" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Cor2" xfId="27" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Cor3" xfId="31" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Cor4" xfId="35" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Cor5" xfId="39" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Cor6" xfId="43" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Correto" xfId="12" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Entrada" xfId="15" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Hiperligação" xfId="47" builtinId="8"/>
+    <cellStyle name="Incorreto" xfId="13" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Moeda" xfId="4" builtinId="4" customBuiltin="1"/>
+    <cellStyle name="Moeda [0]" xfId="5" builtinId="7" customBuiltin="1"/>
+    <cellStyle name="Neutro" xfId="14" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
-    <cellStyle name="Note" xfId="21" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="16" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="7" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Nota" xfId="21" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Percentagem" xfId="6" builtinId="5" customBuiltin="1"/>
+    <cellStyle name="Saída" xfId="16" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Separador de milhares [0]" xfId="3" builtinId="6" customBuiltin="1"/>
+    <cellStyle name="Texto de Aviso" xfId="20" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Texto Explicativo" xfId="22" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Título" xfId="7" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="23" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="20" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Verificar Célula" xfId="19" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Vírgula" xfId="1" builtinId="3" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="26">
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFA0C6CC"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="8" tint="0.59996337778862885"/>
-        </left>
-        <right style="thin">
-          <color theme="8" tint="0.59996337778862885"/>
-        </right>
-      </border>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1658,6 +1708,24 @@
         <scheme val="major"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFA0C6CC"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="8" tint="0.59996337778862885"/>
+        </left>
+        <right style="thin">
+          <color theme="8" tint="0.59996337778862885"/>
+        </right>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -2065,7 +2133,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>1803400</xdr:colOff>
+      <xdr:colOff>1803399</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>459014</xdr:rowOff>
     </xdr:to>
@@ -2245,8 +2313,8 @@
       <xdr:rowOff>119744</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>3140</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1590640</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>1937658</xdr:rowOff>
     </xdr:to>
@@ -2765,7 +2833,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>139004</xdr:colOff>
+      <xdr:colOff>139005</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>1999440</xdr:rowOff>
     </xdr:to>
@@ -2800,6 +2868,50 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1028095</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>694999</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>4906226</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>4423342</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Imagem 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88666E59-979B-444D-B109-9A67DE6D9AAE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11717262" y="25036666"/>
+          <a:ext cx="3878131" cy="3728343"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2821,18 +2933,18 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="TBL_Invitations" displayName="TBL_Convites" ref="A5:J15" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="TBL_Invitations" displayName="TBL_Convites" ref="A5:J15" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Local/Contexto" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Objetivos" dataDxfId="9"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Arquitetura global" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Dispositivos" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Tipos de Interação" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Packages de software" dataDxfId="5"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Linguagens de programação" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Avaliação com peritos/utilizadores" dataDxfId="3"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Public-domain" dataDxfId="2"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Site" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Local/Contexto" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Objetivos" dataDxfId="8"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Arquitetura global" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Dispositivos" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Tipos de Interação" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Packages de software" dataDxfId="4"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Linguagens de programação" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Avaliação com peritos/utilizadores" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Public-domain" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Site" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3932,31 +4044,31 @@
   </sheetPr>
   <dimension ref="A1:I83"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A9" zoomScale="61" zoomScaleNormal="61" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.7265625" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.69140625" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="23.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.08984375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="23.69140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.07421875" style="1" customWidth="1"/>
     <col min="3" max="3" width="63" style="5" customWidth="1"/>
-    <col min="4" max="4" width="51.7265625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="24.453125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="1.453125" style="5" customWidth="1"/>
-    <col min="7" max="16384" width="10.7265625" style="5"/>
+    <col min="4" max="4" width="51.69140625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="24.4609375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="1.4609375" style="5" customWidth="1"/>
+    <col min="7" max="16384" width="10.69140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" ht="40.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="11"/>
-      <c r="B1" s="61" t="s">
+      <c r="B1" s="62" t="s">
         <v>12</v>
       </c>
       <c r="C1" s="13"/>
       <c r="D1" s="19"/>
     </row>
-    <row r="2" spans="1:9" s="2" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="62"/>
+    <row r="2" spans="1:9" s="2" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="63"/>
       <c r="C2" s="24" t="s">
         <v>1</v>
       </c>
@@ -3964,23 +4076,23 @@
       <c r="E2" s="6"/>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="1:9" s="2" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="62"/>
+    <row r="3" spans="1:9" s="2" customFormat="1" ht="40.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="63"/>
       <c r="C3" s="26">
         <f ca="1">TODAY()</f>
-        <v>44853</v>
+        <v>44855</v>
       </c>
       <c r="D3" s="27"/>
       <c r="E3" s="6"/>
       <c r="I3" s="6"/>
     </row>
-    <row r="4" spans="1:9" s="2" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" s="2" customFormat="1" ht="40.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="15"/>
       <c r="C4" s="14"/>
       <c r="D4" s="21"/>
       <c r="I4" s="6"/>
     </row>
-    <row r="5" spans="1:9" s="2" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" s="2" customFormat="1" ht="40.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="25" t="s">
         <v>2</v>
       </c>
@@ -3996,7 +4108,7 @@
       <c r="E5" s="6"/>
       <c r="I5" s="6"/>
     </row>
-    <row r="6" spans="1:9" s="1" customFormat="1" ht="159.44999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" s="1" customFormat="1" ht="159.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="41" t="s">
         <v>87</v>
       </c>
@@ -4011,7 +4123,7 @@
       </c>
       <c r="E6" s="47"/>
     </row>
-    <row r="7" spans="1:9" s="1" customFormat="1" ht="163.19999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" s="1" customFormat="1" ht="163.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="41" t="s">
         <v>91</v>
       </c>
@@ -4026,7 +4138,7 @@
       </c>
       <c r="E7" s="47"/>
     </row>
-    <row r="8" spans="1:9" ht="162" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="162" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="41" t="s">
         <v>92</v>
       </c>
@@ -4041,7 +4153,7 @@
       </c>
       <c r="E8" s="5"/>
     </row>
-    <row r="9" spans="1:9" ht="159.6" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" ht="159.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="41" t="s">
         <v>98</v>
       </c>
@@ -4056,7 +4168,7 @@
       </c>
       <c r="E9" s="5"/>
     </row>
-    <row r="10" spans="1:9" ht="167.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="167.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="50" t="s">
         <v>102</v>
       </c>
@@ -4071,163 +4183,163 @@
       </c>
       <c r="E10" s="5"/>
     </row>
-    <row r="11" spans="1:9" ht="156.6" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" ht="156.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="54"/>
       <c r="B11" s="54"/>
       <c r="C11" s="54"/>
       <c r="D11" s="54"/>
       <c r="E11" s="5"/>
     </row>
-    <row r="12" spans="1:9" ht="25.2" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" ht="25.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="28"/>
       <c r="B12" s="28"/>
       <c r="C12" s="28"/>
       <c r="D12" s="28"/>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" spans="1:9" ht="25.2" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" ht="25.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="28"/>
       <c r="B13" s="28"/>
-      <c r="C13" s="63"/>
+      <c r="C13" s="61"/>
       <c r="D13" s="28"/>
       <c r="E13" s="5"/>
     </row>
-    <row r="14" spans="1:9" ht="25.2" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" ht="25.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="28"/>
       <c r="B14" s="28"/>
       <c r="C14" s="28"/>
       <c r="D14" s="28"/>
       <c r="E14" s="5"/>
     </row>
-    <row r="15" spans="1:9" ht="25.2" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" ht="25.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="28"/>
       <c r="B15" s="28"/>
       <c r="C15" s="28"/>
       <c r="D15" s="28"/>
       <c r="E15" s="5"/>
     </row>
-    <row r="16" spans="1:9" ht="25.2" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" ht="25.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="28"/>
       <c r="B16" s="28"/>
       <c r="C16" s="28"/>
       <c r="D16" s="28"/>
       <c r="E16" s="5"/>
     </row>
-    <row r="17" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="12"/>
       <c r="B17" s="13"/>
       <c r="C17" s="13"/>
       <c r="D17" s="12"/>
       <c r="E17" s="5"/>
     </row>
-    <row r="18" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="12"/>
       <c r="B18" s="13"/>
       <c r="C18" s="13"/>
       <c r="D18" s="12"/>
       <c r="E18" s="5"/>
     </row>
-    <row r="19" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="12"/>
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
       <c r="D19" s="12"/>
       <c r="E19" s="5"/>
     </row>
-    <row r="20" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="12"/>
       <c r="B20" s="13"/>
       <c r="C20" s="12"/>
       <c r="D20" s="20"/>
       <c r="E20" s="5"/>
     </row>
-    <row r="21" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="7"/>
       <c r="B21" s="8"/>
       <c r="C21" s="10"/>
       <c r="D21" s="23"/>
       <c r="E21" s="5"/>
     </row>
-    <row r="22" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="7"/>
       <c r="B22" s="8"/>
       <c r="C22" s="10"/>
       <c r="D22" s="9"/>
       <c r="E22" s="5"/>
     </row>
-    <row r="23" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D23" s="4"/>
       <c r="E23" s="5"/>
     </row>
-    <row r="24" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D24" s="4"/>
       <c r="E24" s="5"/>
     </row>
-    <row r="25" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D25" s="4"/>
       <c r="E25" s="5"/>
     </row>
-    <row r="26" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D26" s="4"/>
       <c r="E26" s="5"/>
     </row>
-    <row r="27" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="28" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="29" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="30" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="31" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="32" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="33" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="34" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="35" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="36" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="37" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="38" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="39" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="40" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="41" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="42" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="43" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="44" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="45" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="46" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="47" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="48" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="49" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="50" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="51" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="52" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="53" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="54" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="55" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="56" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="57" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="58" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="59" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="60" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="61" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="62" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="63" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="64" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="65" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="66" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="67" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="68" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="69" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="70" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="71" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="72" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="73" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="74" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="75" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="76" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="77" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="78" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="79" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="80" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="81" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="82" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="83" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="27" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="28" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="29" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="30" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="31" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="32" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="33" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="34" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="35" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="36" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="37" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="38" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="39" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="40" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="41" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="42" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="43" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="44" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="45" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="46" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="47" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="48" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="49" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="50" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="51" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="52" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="53" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="54" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="55" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="56" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="57" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="58" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="59" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="60" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="61" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="62" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="63" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="64" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="65" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="66" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="67" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="68" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="69" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="70" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="71" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="72" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="73" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="74" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="75" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="76" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="77" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="78" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="79" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="80" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="81" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="82" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="83" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:B3"/>
@@ -4254,33 +4366,33 @@
   </sheetPr>
   <dimension ref="A1:P82"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A15" zoomScale="42" zoomScaleNormal="42" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.7265625" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.69140625" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="23.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.7265625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="33.1796875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="35.08984375" style="5" customWidth="1"/>
-    <col min="5" max="5" width="70.90625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="50.26953125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="23.7265625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="24.7265625" style="4" customWidth="1"/>
-    <col min="9" max="10" width="23.7265625" style="4" customWidth="1"/>
-    <col min="11" max="12" width="24.453125" style="4" customWidth="1"/>
-    <col min="13" max="13" width="1.453125" style="5" customWidth="1"/>
-    <col min="14" max="16384" width="10.7265625" style="5"/>
+    <col min="1" max="1" width="23.69140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.4609375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="33.15234375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="35.07421875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="70.921875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="50.23046875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="23.69140625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="24.69140625" style="4" customWidth="1"/>
+    <col min="9" max="10" width="23.69140625" style="4" customWidth="1"/>
+    <col min="11" max="12" width="24.4609375" style="4" customWidth="1"/>
+    <col min="13" max="13" width="1.4609375" style="5" customWidth="1"/>
+    <col min="14" max="16384" width="10.69140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:16" ht="40.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="11"/>
-      <c r="B1" s="61" t="s">
+      <c r="B1" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
       <c r="E1" s="13"/>
       <c r="F1" s="13"/>
       <c r="G1" s="19"/>
@@ -4289,10 +4401,10 @@
       <c r="J1" s="18"/>
       <c r="K1" s="12"/>
     </row>
-    <row r="2" spans="1:16" s="2" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
+    <row r="2" spans="1:16" s="2" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
       <c r="E2" s="24" t="s">
         <v>1</v>
       </c>
@@ -4305,13 +4417,13 @@
       <c r="L2" s="6"/>
       <c r="P2" s="6"/>
     </row>
-    <row r="3" spans="1:16" s="2" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
+    <row r="3" spans="1:16" s="2" customFormat="1" ht="40.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
       <c r="E3" s="26">
         <f ca="1">TODAY()</f>
-        <v>44853</v>
+        <v>44855</v>
       </c>
       <c r="F3" s="33"/>
       <c r="G3" s="27"/>
@@ -4322,7 +4434,7 @@
       <c r="L3" s="6"/>
       <c r="P3" s="6"/>
     </row>
-    <row r="4" spans="1:16" s="2" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" s="2" customFormat="1" ht="40.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="15"/>
       <c r="C4" s="14"/>
       <c r="D4" s="34"/>
@@ -4337,7 +4449,7 @@
       <c r="K4" s="17"/>
       <c r="P4" s="6"/>
     </row>
-    <row r="5" spans="1:16" s="2" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" s="2" customFormat="1" ht="40.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="25" t="s">
         <v>2</v>
       </c>
@@ -4372,7 +4484,7 @@
       <c r="L5" s="6"/>
       <c r="P5" s="6"/>
     </row>
-    <row r="6" spans="1:16" s="1" customFormat="1" ht="159.44999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" s="1" customFormat="1" ht="159.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="41" t="s">
         <v>19</v>
       </c>
@@ -4404,7 +4516,7 @@
       <c r="K6" s="12"/>
       <c r="L6" s="47"/>
     </row>
-    <row r="7" spans="1:16" s="1" customFormat="1" ht="163.19999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" s="1" customFormat="1" ht="163.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="41" t="s">
         <v>26</v>
       </c>
@@ -4433,7 +4545,7 @@
       </c>
       <c r="K7" s="13"/>
     </row>
-    <row r="8" spans="1:16" ht="162" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" ht="162" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="41" t="s">
         <v>28</v>
       </c>
@@ -4461,7 +4573,7 @@
       <c r="K8" s="13"/>
       <c r="L8" s="5"/>
     </row>
-    <row r="9" spans="1:16" ht="159.6" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" ht="159.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="41" t="s">
         <v>38</v>
       </c>
@@ -4493,7 +4605,7 @@
       <c r="K9" s="42"/>
       <c r="L9" s="5"/>
     </row>
-    <row r="10" spans="1:16" ht="167.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" ht="167.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="50" t="s">
         <v>41</v>
       </c>
@@ -4525,7 +4637,7 @@
       <c r="K10" s="13"/>
       <c r="L10" s="5"/>
     </row>
-    <row r="11" spans="1:16" ht="156.6" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" ht="156.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="54" t="s">
         <v>48</v>
       </c>
@@ -4555,7 +4667,7 @@
       <c r="K11" s="13"/>
       <c r="L11" s="5"/>
     </row>
-    <row r="12" spans="1:16" ht="197.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" ht="197.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="41" t="s">
         <v>55</v>
       </c>
@@ -4585,7 +4697,7 @@
       <c r="K12" s="13"/>
       <c r="L12" s="5"/>
     </row>
-    <row r="13" spans="1:16" ht="204.6" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" ht="204.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="41" t="s">
         <v>66</v>
       </c>
@@ -4617,7 +4729,7 @@
       <c r="K13" s="13"/>
       <c r="L13" s="5"/>
     </row>
-    <row r="14" spans="1:16" ht="161.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16" ht="161.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="41" t="s">
         <v>72</v>
       </c>
@@ -4649,7 +4761,7 @@
       <c r="K14" s="13"/>
       <c r="L14" s="5"/>
     </row>
-    <row r="15" spans="1:16" ht="184.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" ht="185" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="57" t="s">
         <v>79</v>
       </c>
@@ -4677,21 +4789,34 @@
       <c r="K15" s="13"/>
       <c r="L15" s="5"/>
     </row>
-    <row r="16" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="12"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="5"/>
+    <row r="16" spans="1:16" s="70" customFormat="1" ht="386.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="64" t="s">
+        <v>103</v>
+      </c>
+      <c r="B16" s="65" t="s">
+        <v>104</v>
+      </c>
+      <c r="C16" s="65" t="s">
+        <v>105</v>
+      </c>
+      <c r="D16" s="65" t="s">
+        <v>106</v>
+      </c>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="71"/>
+      <c r="H16" s="66" t="s">
+        <v>107</v>
+      </c>
+      <c r="I16" s="67" t="s">
+        <v>108</v>
+      </c>
+      <c r="J16" s="68" t="s">
+        <v>109</v>
+      </c>
+      <c r="K16" s="69"/>
     </row>
-    <row r="17" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="12"/>
       <c r="B17" s="42"/>
       <c r="C17" s="13"/>
@@ -4705,7 +4830,7 @@
       <c r="K17" s="13"/>
       <c r="L17" s="5"/>
     </row>
-    <row r="18" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="12"/>
       <c r="B18" s="12"/>
       <c r="C18" s="12"/>
@@ -4719,7 +4844,7 @@
       <c r="K18" s="13"/>
       <c r="L18" s="5"/>
     </row>
-    <row r="19" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="12"/>
       <c r="B19" s="13"/>
       <c r="C19" s="13"/>
@@ -4733,7 +4858,7 @@
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
     </row>
-    <row r="20" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="7"/>
       <c r="B20" s="8"/>
       <c r="C20" s="9"/>
@@ -4747,7 +4872,7 @@
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
     </row>
-    <row r="21" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="7"/>
       <c r="B21" s="8"/>
       <c r="C21" s="9"/>
@@ -4761,87 +4886,87 @@
       <c r="K21" s="5"/>
       <c r="L21" s="5"/>
     </row>
-    <row r="22" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="G22" s="4"/>
       <c r="J22" s="9"/>
       <c r="L22" s="5"/>
     </row>
-    <row r="23" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="G23" s="4"/>
       <c r="J23" s="9"/>
       <c r="L23" s="5"/>
     </row>
-    <row r="24" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="G24" s="4"/>
       <c r="L24" s="5"/>
     </row>
-    <row r="25" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="G25" s="4"/>
       <c r="L25" s="5"/>
     </row>
-    <row r="26" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="27" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="28" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="29" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="30" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="31" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="32" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="33" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="34" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="35" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="36" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="37" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="38" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="39" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="40" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="41" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="42" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="43" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="44" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="45" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="46" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="47" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="48" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="49" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="50" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="51" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="52" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="53" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="54" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="55" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="56" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="57" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="58" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="59" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="60" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="61" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="62" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="63" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="64" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="65" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="66" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="67" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="68" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="69" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="70" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="71" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="72" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="73" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="74" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="75" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="76" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="77" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="78" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="79" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="80" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="81" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="82" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="26" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="27" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="28" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="29" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="30" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="31" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="32" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="33" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="34" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="35" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="36" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="37" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="38" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="39" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="40" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="41" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="42" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="43" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="44" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="45" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="46" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="47" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="48" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="49" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="50" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="51" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="52" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="53" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="54" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="55" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="56" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="57" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="58" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="59" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="60" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="61" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="62" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="63" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="64" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="65" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="66" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="67" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="68" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="69" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="70" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="71" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="72" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="73" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="74" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="75" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="76" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="77" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="78" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="79" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="80" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="81" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="82" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:D3"/>
   </mergeCells>
   <conditionalFormatting sqref="C12">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="2" operator="equal">
       <formula>"S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4864,18 +4989,48 @@
     <hyperlink ref="J13" r:id="rId7" xr:uid="{AA95B419-AF9B-4A3E-BE2B-A4C36838152B}"/>
     <hyperlink ref="J14" r:id="rId8" xr:uid="{01219542-9895-4F2E-9512-B6B5D3216204}"/>
     <hyperlink ref="J15" r:id="rId9" xr:uid="{1F3052D7-D354-4558-A0C3-60761279903A}"/>
+    <hyperlink ref="J16" r:id="rId10" xr:uid="{44BF53B1-C1BB-4504-B4FA-BB443EBBD225}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="52" fitToHeight="0" orientation="landscape" r:id="rId10"/>
-  <drawing r:id="rId11"/>
+  <pageSetup paperSize="9" scale="52" fitToHeight="0" orientation="landscape" r:id="rId11"/>
+  <drawing r:id="rId12"/>
   <tableParts count="1">
-    <tablePart r:id="rId12"/>
+    <tablePart r:id="rId13"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="24" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2d714a3296df14eba7a100bb665443ca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="49549bf45bfbbfb6cffed527380e77e1" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -5163,36 +5318,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{141D71A4-5CC3-40CD-990C-070FB4B5F315}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5D97E00F-6E84-416B-8452-E6DC935A7A92}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B44AF425-737A-413C-9CB5-588E99FE889D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5211,24 +5357,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5D97E00F-6E84-416B-8452-E6DC935A7A92}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{141D71A4-5CC3-40CD-990C-070FB4B5F315}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/00 - Recolha de Requisitos/RegistodePesquisas.xlsx
+++ b/00 - Recolha de Requisitos/RegistodePesquisas.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BA82902-56C9-410D-AD77-6E108AD55A22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC71AFD2-E476-4658-A3B3-FEA2C4E555FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-2190" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Brain Storming" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="114">
   <si>
     <t xml:space="preserve">  </t>
   </si>
@@ -450,6 +450,19 @@
   </si>
   <si>
     <t xml:space="preserve">https://research.google/pubs/pub48339/ </t>
+  </si>
+  <si>
+    <t>Comparative study of AR software development kits (SDK's)</t>
+  </si>
+  <si>
+    <t>Know the difference between 
+augmented reality and virtual reality ; know the working of AR system; .Related work done using several AR SDK’s; Augmented reality SDK’s along with their features and comparison of AR SDK’s based on different criteria</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Android                                                           IOS                                                                 Unity 3D                                                  Windows               </t>
+  </si>
+  <si>
+    <t>(metaio) Obj, Fbx e md2 model formats for 3D; (ARmedia) consist of renderer to render 3D model, tracker to track the target, capture for capturing frames from the device camera and interface to native android and iOS.</t>
   </si>
 </sst>
 </file>
@@ -1214,7 +1227,7 @@
     <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1399,35 +1412,44 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="3" borderId="0" xfId="47" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="3" borderId="0" xfId="47" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="48">
@@ -2085,7 +2107,7 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>2268</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>468086</xdr:rowOff>
+      <xdr:rowOff>469991</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2133,7 +2155,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>1803399</xdr:colOff>
+      <xdr:colOff>1807209</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>459014</xdr:rowOff>
     </xdr:to>
@@ -2185,7 +2207,7 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>3631</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>1802279</xdr:rowOff>
+      <xdr:rowOff>1806089</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2226,9 +2248,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>2677263</xdr:colOff>
+      <xdr:colOff>2679168</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>1950562</xdr:rowOff>
+      <xdr:rowOff>1952467</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2272,7 +2294,7 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>5829930</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>1503220</xdr:rowOff>
+      <xdr:rowOff>1507030</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2314,9 +2336,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1590640</xdr:colOff>
+      <xdr:colOff>1588735</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>1937658</xdr:rowOff>
+      <xdr:rowOff>1935753</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2364,9 +2386,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>3634484</xdr:colOff>
+      <xdr:colOff>3638294</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>1988819</xdr:rowOff>
+      <xdr:rowOff>1990724</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2414,9 +2436,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>2254624</xdr:colOff>
+      <xdr:colOff>2256529</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>21770</xdr:rowOff>
+      <xdr:rowOff>17960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2464,7 +2486,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>4960480</xdr:colOff>
+      <xdr:colOff>4962385</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>1981200</xdr:rowOff>
     </xdr:to>
@@ -2508,9 +2530,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>158261</xdr:colOff>
+      <xdr:colOff>160166</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>2455663</xdr:rowOff>
+      <xdr:rowOff>2459473</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2552,9 +2574,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>5386754</xdr:colOff>
+      <xdr:colOff>5390564</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>2489755</xdr:rowOff>
+      <xdr:rowOff>2493565</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2596,7 +2618,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>4316604</xdr:colOff>
+      <xdr:colOff>4318509</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>2474510</xdr:rowOff>
     </xdr:to>
@@ -2646,9 +2668,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>3339193</xdr:colOff>
+      <xdr:colOff>3335383</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>1929493</xdr:rowOff>
+      <xdr:rowOff>1925683</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2696,9 +2718,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>5728607</xdr:colOff>
+      <xdr:colOff>5732417</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>1911805</xdr:rowOff>
+      <xdr:rowOff>1913710</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2746,7 +2768,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>4562929</xdr:colOff>
+      <xdr:colOff>4561024</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>2091854</xdr:rowOff>
     </xdr:to>
@@ -2790,9 +2812,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>2603500</xdr:colOff>
+      <xdr:colOff>2607310</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>1823357</xdr:rowOff>
+      <xdr:rowOff>1821452</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2833,9 +2855,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>139005</xdr:colOff>
+      <xdr:colOff>135195</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>1999440</xdr:rowOff>
+      <xdr:rowOff>2003250</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2877,7 +2899,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>4906226</xdr:colOff>
+      <xdr:colOff>4904321</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>4423342</xdr:rowOff>
     </xdr:to>
@@ -4048,27 +4070,27 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.69140625" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="10.7265625" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.69140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.07421875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="23.7265625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.08984375" style="1" customWidth="1"/>
     <col min="3" max="3" width="63" style="5" customWidth="1"/>
-    <col min="4" max="4" width="51.69140625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="24.4609375" style="4" customWidth="1"/>
-    <col min="6" max="6" width="1.4609375" style="5" customWidth="1"/>
-    <col min="7" max="16384" width="10.69140625" style="5"/>
+    <col min="4" max="4" width="51.7265625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="24.453125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="1.453125" style="5" customWidth="1"/>
+    <col min="7" max="16384" width="10.7265625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="40.25" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:9" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="11"/>
-      <c r="B1" s="62" t="s">
+      <c r="B1" s="70" t="s">
         <v>12</v>
       </c>
       <c r="C1" s="13"/>
       <c r="D1" s="19"/>
     </row>
-    <row r="2" spans="1:9" s="2" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="63"/>
+    <row r="2" spans="1:9" s="2" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B2" s="71"/>
       <c r="C2" s="24" t="s">
         <v>1</v>
       </c>
@@ -4076,23 +4098,23 @@
       <c r="E2" s="6"/>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="1:9" s="2" customFormat="1" ht="40.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="63"/>
+    <row r="3" spans="1:9" s="2" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="71"/>
       <c r="C3" s="26">
         <f ca="1">TODAY()</f>
-        <v>44855</v>
+        <v>44856</v>
       </c>
       <c r="D3" s="27"/>
       <c r="E3" s="6"/>
       <c r="I3" s="6"/>
     </row>
-    <row r="4" spans="1:9" s="2" customFormat="1" ht="40.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:9" s="2" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="15"/>
       <c r="C4" s="14"/>
       <c r="D4" s="21"/>
       <c r="I4" s="6"/>
     </row>
-    <row r="5" spans="1:9" s="2" customFormat="1" ht="40.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:9" s="2" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="25" t="s">
         <v>2</v>
       </c>
@@ -4108,7 +4130,7 @@
       <c r="E5" s="6"/>
       <c r="I5" s="6"/>
     </row>
-    <row r="6" spans="1:9" s="1" customFormat="1" ht="159.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:9" s="1" customFormat="1" ht="159.44999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="41" t="s">
         <v>87</v>
       </c>
@@ -4123,7 +4145,7 @@
       </c>
       <c r="E6" s="47"/>
     </row>
-    <row r="7" spans="1:9" s="1" customFormat="1" ht="163.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:9" s="1" customFormat="1" ht="163.19999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="41" t="s">
         <v>91</v>
       </c>
@@ -4138,7 +4160,7 @@
       </c>
       <c r="E7" s="47"/>
     </row>
-    <row r="8" spans="1:9" ht="162" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:9" ht="162" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="41" t="s">
         <v>92</v>
       </c>
@@ -4153,7 +4175,7 @@
       </c>
       <c r="E8" s="5"/>
     </row>
-    <row r="9" spans="1:9" ht="159.65" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:9" ht="159.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="41" t="s">
         <v>98</v>
       </c>
@@ -4168,7 +4190,7 @@
       </c>
       <c r="E9" s="5"/>
     </row>
-    <row r="10" spans="1:9" ht="167.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:9" ht="167.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="50" t="s">
         <v>102</v>
       </c>
@@ -4183,163 +4205,163 @@
       </c>
       <c r="E10" s="5"/>
     </row>
-    <row r="11" spans="1:9" ht="156.65" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:9" ht="156.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="54"/>
       <c r="B11" s="54"/>
       <c r="C11" s="54"/>
       <c r="D11" s="54"/>
       <c r="E11" s="5"/>
     </row>
-    <row r="12" spans="1:9" ht="25.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:9" ht="25.2" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="28"/>
       <c r="B12" s="28"/>
       <c r="C12" s="28"/>
       <c r="D12" s="28"/>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" spans="1:9" ht="25.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:9" ht="25.2" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="28"/>
       <c r="B13" s="28"/>
       <c r="C13" s="61"/>
       <c r="D13" s="28"/>
       <c r="E13" s="5"/>
     </row>
-    <row r="14" spans="1:9" ht="25.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:9" ht="25.2" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="28"/>
       <c r="B14" s="28"/>
       <c r="C14" s="28"/>
       <c r="D14" s="28"/>
       <c r="E14" s="5"/>
     </row>
-    <row r="15" spans="1:9" ht="25.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:9" ht="25.2" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="28"/>
       <c r="B15" s="28"/>
       <c r="C15" s="28"/>
       <c r="D15" s="28"/>
       <c r="E15" s="5"/>
     </row>
-    <row r="16" spans="1:9" ht="25.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:9" ht="25.2" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="28"/>
       <c r="B16" s="28"/>
       <c r="C16" s="28"/>
       <c r="D16" s="28"/>
       <c r="E16" s="5"/>
     </row>
-    <row r="17" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="12"/>
       <c r="B17" s="13"/>
       <c r="C17" s="13"/>
       <c r="D17" s="12"/>
       <c r="E17" s="5"/>
     </row>
-    <row r="18" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="12"/>
       <c r="B18" s="13"/>
       <c r="C18" s="13"/>
       <c r="D18" s="12"/>
       <c r="E18" s="5"/>
     </row>
-    <row r="19" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="12"/>
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
       <c r="D19" s="12"/>
       <c r="E19" s="5"/>
     </row>
-    <row r="20" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="12"/>
       <c r="B20" s="13"/>
       <c r="C20" s="12"/>
       <c r="D20" s="20"/>
       <c r="E20" s="5"/>
     </row>
-    <row r="21" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="7"/>
       <c r="B21" s="8"/>
       <c r="C21" s="10"/>
       <c r="D21" s="23"/>
       <c r="E21" s="5"/>
     </row>
-    <row r="22" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="7"/>
       <c r="B22" s="8"/>
       <c r="C22" s="10"/>
       <c r="D22" s="9"/>
       <c r="E22" s="5"/>
     </row>
-    <row r="23" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D23" s="4"/>
       <c r="E23" s="5"/>
     </row>
-    <row r="24" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D24" s="4"/>
       <c r="E24" s="5"/>
     </row>
-    <row r="25" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D25" s="4"/>
       <c r="E25" s="5"/>
     </row>
-    <row r="26" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D26" s="4"/>
       <c r="E26" s="5"/>
     </row>
-    <row r="27" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="28" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="29" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="30" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="31" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="32" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="33" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="34" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="35" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="36" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="37" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="38" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="39" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="40" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="41" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="42" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="43" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="44" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="45" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="46" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="47" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="48" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="49" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="50" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="51" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="52" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="53" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="54" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="55" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="56" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="57" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="58" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="59" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="60" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="61" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="62" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="63" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="64" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="65" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="66" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="67" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="68" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="69" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="70" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="71" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="72" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="73" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="74" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="75" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="76" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="77" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="78" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="79" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="80" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="81" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="82" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="83" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="27" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="28" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="29" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="30" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="31" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="32" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="33" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="34" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="35" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="36" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="37" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="38" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="39" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="40" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="41" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="42" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="43" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="44" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="45" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="46" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="47" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="48" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="49" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="50" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="51" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="52" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="53" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="54" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="55" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="56" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="57" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="58" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="59" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="60" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="61" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="62" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="63" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="64" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="65" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="66" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="67" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="68" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="69" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="70" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="71" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="72" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="73" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="74" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="75" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="76" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="77" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="78" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="79" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="80" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="81" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="82" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="83" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:B3"/>
@@ -4366,33 +4388,33 @@
   </sheetPr>
   <dimension ref="A1:P82"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A15" zoomScale="42" zoomScaleNormal="42" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.69140625" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="10.7265625" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.69140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.4609375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="33.15234375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="35.07421875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="70.921875" style="5" customWidth="1"/>
-    <col min="6" max="6" width="50.23046875" style="5" customWidth="1"/>
-    <col min="7" max="7" width="23.69140625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="24.69140625" style="4" customWidth="1"/>
-    <col min="9" max="10" width="23.69140625" style="4" customWidth="1"/>
-    <col min="11" max="12" width="24.4609375" style="4" customWidth="1"/>
-    <col min="13" max="13" width="1.4609375" style="5" customWidth="1"/>
-    <col min="14" max="16384" width="10.69140625" style="5"/>
+    <col min="1" max="1" width="23.7265625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.453125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="33.1796875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="35.08984375" style="5" customWidth="1"/>
+    <col min="5" max="5" width="70.90625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="50.26953125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="23.7265625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="24.7265625" style="4" customWidth="1"/>
+    <col min="9" max="10" width="23.7265625" style="4" customWidth="1"/>
+    <col min="11" max="12" width="24.453125" style="4" customWidth="1"/>
+    <col min="13" max="13" width="1.453125" style="5" customWidth="1"/>
+    <col min="14" max="16384" width="10.7265625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="40.25" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:16" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="11"/>
-      <c r="B1" s="62" t="s">
+      <c r="B1" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
       <c r="E1" s="13"/>
       <c r="F1" s="13"/>
       <c r="G1" s="19"/>
@@ -4401,10 +4423,10 @@
       <c r="J1" s="18"/>
       <c r="K1" s="12"/>
     </row>
-    <row r="2" spans="1:16" s="2" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
+    <row r="2" spans="1:16" s="2" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
       <c r="E2" s="24" t="s">
         <v>1</v>
       </c>
@@ -4417,13 +4439,13 @@
       <c r="L2" s="6"/>
       <c r="P2" s="6"/>
     </row>
-    <row r="3" spans="1:16" s="2" customFormat="1" ht="40.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
+    <row r="3" spans="1:16" s="2" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
       <c r="E3" s="26">
         <f ca="1">TODAY()</f>
-        <v>44855</v>
+        <v>44856</v>
       </c>
       <c r="F3" s="33"/>
       <c r="G3" s="27"/>
@@ -4434,7 +4456,7 @@
       <c r="L3" s="6"/>
       <c r="P3" s="6"/>
     </row>
-    <row r="4" spans="1:16" s="2" customFormat="1" ht="40.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:16" s="2" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="15"/>
       <c r="C4" s="14"/>
       <c r="D4" s="34"/>
@@ -4449,7 +4471,7 @@
       <c r="K4" s="17"/>
       <c r="P4" s="6"/>
     </row>
-    <row r="5" spans="1:16" s="2" customFormat="1" ht="40.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:16" s="2" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="25" t="s">
         <v>2</v>
       </c>
@@ -4484,7 +4506,7 @@
       <c r="L5" s="6"/>
       <c r="P5" s="6"/>
     </row>
-    <row r="6" spans="1:16" s="1" customFormat="1" ht="159.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" s="1" customFormat="1" ht="159.44999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="41" t="s">
         <v>19</v>
       </c>
@@ -4516,7 +4538,7 @@
       <c r="K6" s="12"/>
       <c r="L6" s="47"/>
     </row>
-    <row r="7" spans="1:16" s="1" customFormat="1" ht="163.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:16" s="1" customFormat="1" ht="163.19999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="41" t="s">
         <v>26</v>
       </c>
@@ -4545,7 +4567,7 @@
       </c>
       <c r="K7" s="13"/>
     </row>
-    <row r="8" spans="1:16" ht="162" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:16" ht="162" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="41" t="s">
         <v>28</v>
       </c>
@@ -4573,7 +4595,7 @@
       <c r="K8" s="13"/>
       <c r="L8" s="5"/>
     </row>
-    <row r="9" spans="1:16" ht="159.65" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:16" ht="159.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="41" t="s">
         <v>38</v>
       </c>
@@ -4605,7 +4627,7 @@
       <c r="K9" s="42"/>
       <c r="L9" s="5"/>
     </row>
-    <row r="10" spans="1:16" ht="167.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:16" ht="167.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="50" t="s">
         <v>41</v>
       </c>
@@ -4637,7 +4659,7 @@
       <c r="K10" s="13"/>
       <c r="L10" s="5"/>
     </row>
-    <row r="11" spans="1:16" ht="156.65" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:16" ht="156.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="54" t="s">
         <v>48</v>
       </c>
@@ -4667,7 +4689,7 @@
       <c r="K11" s="13"/>
       <c r="L11" s="5"/>
     </row>
-    <row r="12" spans="1:16" ht="197.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:16" ht="197.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="41" t="s">
         <v>55</v>
       </c>
@@ -4697,7 +4719,7 @@
       <c r="K12" s="13"/>
       <c r="L12" s="5"/>
     </row>
-    <row r="13" spans="1:16" ht="204.65" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:16" ht="204.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="41" t="s">
         <v>66</v>
       </c>
@@ -4729,7 +4751,7 @@
       <c r="K13" s="13"/>
       <c r="L13" s="5"/>
     </row>
-    <row r="14" spans="1:16" ht="161.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:16" ht="161.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="41" t="s">
         <v>72</v>
       </c>
@@ -4761,7 +4783,7 @@
       <c r="K14" s="13"/>
       <c r="L14" s="5"/>
     </row>
-    <row r="15" spans="1:16" ht="185" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:16" ht="184.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="57" t="s">
         <v>79</v>
       </c>
@@ -4789,48 +4811,56 @@
       <c r="K15" s="13"/>
       <c r="L15" s="5"/>
     </row>
-    <row r="16" spans="1:16" s="70" customFormat="1" ht="386.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="64" t="s">
+    <row r="16" spans="1:16" s="68" customFormat="1" ht="386.55" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="62" t="s">
         <v>103</v>
       </c>
-      <c r="B16" s="65" t="s">
+      <c r="B16" s="63" t="s">
         <v>104</v>
       </c>
-      <c r="C16" s="65" t="s">
+      <c r="C16" s="63" t="s">
         <v>105</v>
       </c>
-      <c r="D16" s="65" t="s">
+      <c r="D16" s="63" t="s">
         <v>106</v>
       </c>
       <c r="E16" s="29"/>
       <c r="F16" s="29"/>
-      <c r="G16" s="71"/>
-      <c r="H16" s="66" t="s">
+      <c r="G16" s="69"/>
+      <c r="H16" s="64" t="s">
         <v>107</v>
       </c>
-      <c r="I16" s="67" t="s">
+      <c r="I16" s="65" t="s">
         <v>108</v>
       </c>
-      <c r="J16" s="68" t="s">
+      <c r="J16" s="66" t="s">
         <v>109</v>
       </c>
-      <c r="K16" s="69"/>
+      <c r="K16" s="67"/>
     </row>
-    <row r="17" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="12"/>
-      <c r="B17" s="42"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
+    <row r="17" spans="1:12" ht="148.19999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="72" t="s">
+        <v>110</v>
+      </c>
+      <c r="B17" s="73" t="s">
+        <v>111</v>
+      </c>
+      <c r="C17" s="73" t="s">
+        <v>113</v>
+      </c>
+      <c r="D17" s="74" t="s">
+        <v>112</v>
+      </c>
+      <c r="E17" s="73"/>
+      <c r="F17" s="72"/>
+      <c r="G17" s="72"/>
+      <c r="H17" s="72"/>
+      <c r="I17" s="72"/>
+      <c r="J17" s="72"/>
       <c r="K17" s="13"/>
       <c r="L17" s="5"/>
     </row>
-    <row r="18" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="12"/>
       <c r="B18" s="12"/>
       <c r="C18" s="12"/>
@@ -4844,7 +4874,7 @@
       <c r="K18" s="13"/>
       <c r="L18" s="5"/>
     </row>
-    <row r="19" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="12"/>
       <c r="B19" s="13"/>
       <c r="C19" s="13"/>
@@ -4858,7 +4888,7 @@
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
     </row>
-    <row r="20" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="7"/>
       <c r="B20" s="8"/>
       <c r="C20" s="9"/>
@@ -4872,7 +4902,7 @@
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
     </row>
-    <row r="21" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="7"/>
       <c r="B21" s="8"/>
       <c r="C21" s="9"/>
@@ -4886,81 +4916,81 @@
       <c r="K21" s="5"/>
       <c r="L21" s="5"/>
     </row>
-    <row r="22" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="G22" s="4"/>
       <c r="J22" s="9"/>
       <c r="L22" s="5"/>
     </row>
-    <row r="23" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="G23" s="4"/>
       <c r="J23" s="9"/>
       <c r="L23" s="5"/>
     </row>
-    <row r="24" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="G24" s="4"/>
       <c r="L24" s="5"/>
     </row>
-    <row r="25" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="G25" s="4"/>
       <c r="L25" s="5"/>
     </row>
-    <row r="26" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="27" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="28" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="29" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="30" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="31" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="32" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="33" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="34" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="35" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="36" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="37" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="38" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="39" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="40" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="41" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="42" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="43" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="44" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="45" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="46" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="47" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="48" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="49" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="50" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="51" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="52" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="53" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="54" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="55" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="56" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="57" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="58" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="59" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="60" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="61" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="62" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="63" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="64" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="65" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="66" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="67" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="68" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="69" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="70" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="71" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="72" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="73" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="74" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="75" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="76" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="77" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="78" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="79" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="80" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="81" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="82" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="26" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="27" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="28" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="29" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="30" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="31" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="32" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="33" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="34" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="35" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="36" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="37" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="38" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="39" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="40" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="41" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="42" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="43" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="44" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="45" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="46" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="47" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="48" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="49" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="50" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="51" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="52" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="53" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="54" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="55" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="56" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="57" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="58" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="59" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="60" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="61" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="62" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="63" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="64" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="65" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="66" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="67" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="68" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="69" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="70" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="71" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="72" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="73" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="74" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="75" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="76" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="77" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="78" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="79" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="80" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="81" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="82" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:D3"/>
@@ -5002,35 +5032,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="24" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2d714a3296df14eba7a100bb665443ca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="49549bf45bfbbfb6cffed527380e77e1" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -5318,27 +5319,36 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{141D71A4-5CC3-40CD-990C-070FB4B5F315}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5D97E00F-6E84-416B-8452-E6DC935A7A92}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B44AF425-737A-413C-9CB5-588E99FE889D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5357,4 +5367,24 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5D97E00F-6E84-416B-8452-E6DC935A7A92}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{141D71A4-5CC3-40CD-990C-070FB4B5F315}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/00 - Recolha de Requisitos/RegistodePesquisas.xlsx
+++ b/00 - Recolha de Requisitos/RegistodePesquisas.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC71AFD2-E476-4658-A3B3-FEA2C4E555FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB6889CB-F10D-4356-A160-AD4E9E703B36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-2190" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="118">
   <si>
     <t xml:space="preserve">  </t>
   </si>
@@ -459,10 +459,22 @@
 augmented reality and virtual reality ; know the working of AR system; .Related work done using several AR SDK’s; Augmented reality SDK’s along with their features and comparison of AR SDK’s based on different criteria</t>
   </si>
   <si>
-    <t xml:space="preserve"> Android                                                           IOS                                                                 Unity 3D                                                  Windows               </t>
-  </si>
-  <si>
     <t>(metaio) Obj, Fbx e md2 model formats for 3D; (ARmedia) consist of renderer to render 3D model, tracker to track the target, capture for capturing frames from the device camera and interface to native android and iOS.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D'Fusion technology integrates real time interactive 3D graphics contents on a live video stream; POI’s tracking, support for QR code and barcode reading, built in 3D renderer, optimizations for mobile chips, LLA Marker tracking are different types of interaction; ARmedia SDK </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Android                                                           IOS                                                                                                                                </t>
+  </si>
+  <si>
+    <t>Windows                                                                                                                          Unity 3D</t>
+  </si>
+  <si>
+    <t>Dhiraj Amin                      Sharvari Govilkar</t>
+  </si>
+  <si>
+    <t>International Journal on Computational Sciences &amp; Applications (IJCSA) Vol.5, No.1,February 2015</t>
   </si>
 </sst>
 </file>
@@ -1227,7 +1239,7 @@
     <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1436,19 +1448,28 @@
     <xf numFmtId="0" fontId="53" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -2107,7 +2128,7 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>2268</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>469991</xdr:rowOff>
+      <xdr:rowOff>477611</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2248,9 +2269,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>2679168</xdr:colOff>
+      <xdr:colOff>2686788</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>1952467</xdr:rowOff>
+      <xdr:rowOff>1963897</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2336,9 +2357,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1588735</xdr:colOff>
+      <xdr:colOff>1581115</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>1935753</xdr:rowOff>
+      <xdr:rowOff>1926228</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2388,7 +2409,7 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>3638294</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>1990724</xdr:rowOff>
+      <xdr:rowOff>2002154</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2436,7 +2457,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>2256529</xdr:colOff>
+      <xdr:colOff>2267959</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>17960</xdr:rowOff>
     </xdr:to>
@@ -2486,7 +2507,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>4962385</xdr:colOff>
+      <xdr:colOff>4973815</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>1981200</xdr:rowOff>
     </xdr:to>
@@ -2530,7 +2551,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>160166</xdr:colOff>
+      <xdr:colOff>171596</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>2459473</xdr:rowOff>
     </xdr:to>
@@ -2618,7 +2639,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>4318509</xdr:colOff>
+      <xdr:colOff>4326129</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>2474510</xdr:rowOff>
     </xdr:to>
@@ -2720,7 +2741,7 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>5732417</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>1913710</xdr:rowOff>
+      <xdr:rowOff>1925140</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2768,7 +2789,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>4561024</xdr:colOff>
+      <xdr:colOff>4555309</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>2091854</xdr:rowOff>
     </xdr:to>
@@ -2814,7 +2835,7 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>2607310</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>1821452</xdr:rowOff>
+      <xdr:rowOff>1811927</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2899,7 +2920,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>4904321</xdr:colOff>
+      <xdr:colOff>4898606</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>4423342</xdr:rowOff>
     </xdr:to>
@@ -4083,14 +4104,14 @@
   <sheetData>
     <row r="1" spans="1:9" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="11"/>
-      <c r="B1" s="70" t="s">
+      <c r="B1" s="73" t="s">
         <v>12</v>
       </c>
       <c r="C1" s="13"/>
       <c r="D1" s="19"/>
     </row>
     <row r="2" spans="1:9" s="2" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="71"/>
+      <c r="B2" s="74"/>
       <c r="C2" s="24" t="s">
         <v>1</v>
       </c>
@@ -4099,7 +4120,7 @@
       <c r="I2" s="6"/>
     </row>
     <row r="3" spans="1:9" s="2" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="71"/>
+      <c r="B3" s="74"/>
       <c r="C3" s="26">
         <f ca="1">TODAY()</f>
         <v>44856</v>
@@ -4388,8 +4409,8 @@
   </sheetPr>
   <dimension ref="A1:P82"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7265625" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4410,11 +4431,11 @@
   <sheetData>
     <row r="1" spans="1:16" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="11"/>
-      <c r="B1" s="70" t="s">
+      <c r="B1" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
       <c r="E1" s="13"/>
       <c r="F1" s="13"/>
       <c r="G1" s="19"/>
@@ -4424,9 +4445,9 @@
       <c r="K1" s="12"/>
     </row>
     <row r="2" spans="1:16" s="2" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
       <c r="E2" s="24" t="s">
         <v>1</v>
       </c>
@@ -4440,9 +4461,9 @@
       <c r="P2" s="6"/>
     </row>
     <row r="3" spans="1:16" s="2" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
       <c r="E3" s="26">
         <f ca="1">TODAY()</f>
         <v>44856</v>
@@ -4839,24 +4860,34 @@
       <c r="K16" s="67"/>
     </row>
     <row r="17" spans="1:12" ht="148.19999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="72" t="s">
+      <c r="A17" s="70" t="s">
         <v>110</v>
       </c>
-      <c r="B17" s="73" t="s">
+      <c r="B17" s="71" t="s">
         <v>111</v>
       </c>
-      <c r="C17" s="73" t="s">
+      <c r="C17" s="71" t="s">
+        <v>112</v>
+      </c>
+      <c r="D17" s="72" t="s">
+        <v>114</v>
+      </c>
+      <c r="E17" s="75" t="s">
         <v>113</v>
       </c>
-      <c r="D17" s="74" t="s">
-        <v>112</v>
-      </c>
-      <c r="E17" s="73"/>
-      <c r="F17" s="72"/>
-      <c r="G17" s="72"/>
-      <c r="H17" s="72"/>
-      <c r="I17" s="72"/>
-      <c r="J17" s="72"/>
+      <c r="F17" s="76" t="s">
+        <v>115</v>
+      </c>
+      <c r="G17" s="70"/>
+      <c r="H17" s="70" t="s">
+        <v>36</v>
+      </c>
+      <c r="I17" s="77" t="s">
+        <v>116</v>
+      </c>
+      <c r="J17" s="77" t="s">
+        <v>117</v>
+      </c>
       <c r="K17" s="13"/>
       <c r="L17" s="5"/>
     </row>
@@ -5032,6 +5063,35 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="24" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2d714a3296df14eba7a100bb665443ca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="49549bf45bfbbfb6cffed527380e77e1" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -5319,36 +5379,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{141D71A4-5CC3-40CD-990C-070FB4B5F315}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5D97E00F-6E84-416B-8452-E6DC935A7A92}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B44AF425-737A-413C-9CB5-588E99FE889D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5367,24 +5418,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5D97E00F-6E84-416B-8452-E6DC935A7A92}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{141D71A4-5CC3-40CD-990C-070FB4B5F315}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/00 - Recolha de Requisitos/RegistodePesquisas.xlsx
+++ b/00 - Recolha de Requisitos/RegistodePesquisas.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB6889CB-F10D-4356-A160-AD4E9E703B36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F180077-2739-44F6-BD6B-F3E961468955}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-2190" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Brain Storming" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="124">
   <si>
     <t xml:space="preserve">  </t>
   </si>
@@ -476,18 +476,47 @@
   <si>
     <t>International Journal on Computational Sciences &amp; Applications (IJCSA) Vol.5, No.1,February 2015</t>
   </si>
+  <si>
+    <t>Recent Advances in Wearable Sensors and Integrated
+Functional Devices for Virtual and Augmented Reality
+Applications</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Descrever algumas tecnlogias para realçar a interação humana 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
+  </si>
+  <si>
+    <t>Hojoong Kim
+Young-Tae Kwon
+Hyo-Ryoung Lim
+Jong-Hoon Kim
+Yun-Soung Kim
+Woon-Hong Yeo</t>
+  </si>
+  <si>
+    <t>Sensores de toque, momivimento e forca devidamente sincronizados. Poderam levar a AR a melhorar drasticamente, dando uma melhor interação entre usarios.
+Trabalho futuro será tornar esta experiência "multi-user", onde usuários poderam interagir uns com os outros como no mundo fisico.</t>
+  </si>
+  <si>
+    <t>Ver Pdf para ver as diferentes 
+interações com diferentes dispositivos</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="6">
-    <numFmt numFmtId="42" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;\ &quot;€&quot;_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="#,##0_ ;\-#,##0\ "/>
-    <numFmt numFmtId="166" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="167" formatCode="0000"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="#,##0_ ;\-#,##0\ "/>
+    <numFmt numFmtId="167" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="168" formatCode="0000"/>
   </numFmts>
   <fonts count="54" x14ac:knownFonts="1">
     <font>
@@ -1191,11 +1220,11 @@
   </borders>
   <cellStyleXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -1337,7 +1366,7 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="165" fontId="23" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="23" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1388,7 +1417,7 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1457,71 +1486,71 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="48">
-    <cellStyle name="20% - Cor1" xfId="25" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Cor2" xfId="28" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Cor3" xfId="32" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Cor4" xfId="36" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Cor5" xfId="40" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Cor6" xfId="44" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Cor1" xfId="26" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Cor2" xfId="29" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Cor3" xfId="33" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Cor4" xfId="37" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Cor5" xfId="41" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Cor6" xfId="45" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Cor1" xfId="2" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Cor2" xfId="30" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Cor3" xfId="34" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Cor4" xfId="38" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Cor5" xfId="42" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Cor6" xfId="46" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Cabeçalho 1" xfId="8" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Cabeçalho 2" xfId="9" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Cabeçalho 3" xfId="10" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Cabeçalho 4" xfId="11" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Cálculo" xfId="17" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Célula Ligada" xfId="18" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Cor1" xfId="24" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Cor2" xfId="27" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Cor3" xfId="31" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Cor4" xfId="35" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Cor5" xfId="39" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Cor6" xfId="43" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Correto" xfId="12" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Entrada" xfId="15" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Hiperligação" xfId="47" builtinId="8"/>
-    <cellStyle name="Incorreto" xfId="13" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Moeda" xfId="4" builtinId="4" customBuiltin="1"/>
-    <cellStyle name="Moeda [0]" xfId="5" builtinId="7" customBuiltin="1"/>
-    <cellStyle name="Neutro" xfId="14" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="28" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="32" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="36" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="40" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="44" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="26" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="29" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="33" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="37" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="41" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="45" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="2" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="30" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="34" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="38" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="42" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="46" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="24" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="27" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="31" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="35" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="39" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="43" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="13" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="17" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3" customBuiltin="1"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6" customBuiltin="1"/>
+    <cellStyle name="Currency" xfId="4" builtinId="4" customBuiltin="1"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="22" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="12" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="8" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="9" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="10" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="11" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8"/>
+    <cellStyle name="Input" xfId="15" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="18" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="14" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
-    <cellStyle name="Nota" xfId="21" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Percentagem" xfId="6" builtinId="5" customBuiltin="1"/>
-    <cellStyle name="Saída" xfId="16" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Separador de milhares [0]" xfId="3" builtinId="6" customBuiltin="1"/>
-    <cellStyle name="Texto de Aviso" xfId="20" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Texto Explicativo" xfId="22" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Título" xfId="7" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Note" xfId="21" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="16" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="7" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="23" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Verificar Célula" xfId="19" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Vírgula" xfId="1" builtinId="3" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="20" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="26">
     <dxf>
@@ -2955,6 +2984,56 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2005853</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1075000</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>4873214</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="Picture 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4478137C-2BB8-17A5-F937-EB5C8816A7A7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7126941" y="31185971"/>
+          <a:ext cx="4784147" cy="4873214"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4104,14 +4183,14 @@
   <sheetData>
     <row r="1" spans="1:9" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="11"/>
-      <c r="B1" s="73" t="s">
+      <c r="B1" s="76" t="s">
         <v>12</v>
       </c>
       <c r="C1" s="13"/>
       <c r="D1" s="19"/>
     </row>
     <row r="2" spans="1:9" s="2" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="74"/>
+      <c r="B2" s="77"/>
       <c r="C2" s="24" t="s">
         <v>1</v>
       </c>
@@ -4120,7 +4199,7 @@
       <c r="I2" s="6"/>
     </row>
     <row r="3" spans="1:9" s="2" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="74"/>
+      <c r="B3" s="77"/>
       <c r="C3" s="26">
         <f ca="1">TODAY()</f>
         <v>44856</v>
@@ -4409,8 +4488,8 @@
   </sheetPr>
   <dimension ref="A1:P82"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F17" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7265625" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4431,11 +4510,11 @@
   <sheetData>
     <row r="1" spans="1:16" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="11"/>
-      <c r="B1" s="73" t="s">
+      <c r="B1" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
       <c r="E1" s="13"/>
       <c r="F1" s="13"/>
       <c r="G1" s="19"/>
@@ -4445,9 +4524,9 @@
       <c r="K1" s="12"/>
     </row>
     <row r="2" spans="1:16" s="2" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
       <c r="E2" s="24" t="s">
         <v>1</v>
       </c>
@@ -4461,9 +4540,9 @@
       <c r="P2" s="6"/>
     </row>
     <row r="3" spans="1:16" s="2" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="74"/>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
+      <c r="B3" s="77"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
       <c r="E3" s="26">
         <f ca="1">TODAY()</f>
         <v>44856</v>
@@ -4527,7 +4606,7 @@
       <c r="L5" s="6"/>
       <c r="P5" s="6"/>
     </row>
-    <row r="6" spans="1:16" s="1" customFormat="1" ht="159.44999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" s="1" customFormat="1" ht="159.44999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="41" t="s">
         <v>19</v>
       </c>
@@ -4872,38 +4951,55 @@
       <c r="D17" s="72" t="s">
         <v>114</v>
       </c>
-      <c r="E17" s="75" t="s">
+      <c r="E17" s="73" t="s">
         <v>113</v>
       </c>
-      <c r="F17" s="76" t="s">
+      <c r="F17" s="74" t="s">
         <v>115</v>
       </c>
       <c r="G17" s="70"/>
       <c r="H17" s="70" t="s">
         <v>36</v>
       </c>
-      <c r="I17" s="77" t="s">
+      <c r="I17" s="75" t="s">
         <v>116</v>
       </c>
-      <c r="J17" s="77" t="s">
+      <c r="J17" s="75" t="s">
         <v>117</v>
       </c>
       <c r="K17" s="13"/>
       <c r="L17" s="5"/>
     </row>
-    <row r="18" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="12"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="5"/>
+    <row r="18" spans="1:12" s="68" customFormat="1" ht="386.55" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="62" t="s">
+        <v>118</v>
+      </c>
+      <c r="B18" s="63" t="s">
+        <v>119</v>
+      </c>
+      <c r="C18" s="63" t="s">
+        <v>67</v>
+      </c>
+      <c r="D18" s="63" t="s">
+        <v>120</v>
+      </c>
+      <c r="E18" s="38" t="s">
+        <v>123</v>
+      </c>
+      <c r="F18" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="G18" s="69"/>
+      <c r="H18" s="64" t="s">
+        <v>122</v>
+      </c>
+      <c r="I18" s="65" t="s">
+        <v>121</v>
+      </c>
+      <c r="J18" s="66" t="s">
+        <v>109</v>
+      </c>
+      <c r="K18" s="67"/>
     </row>
     <row r="19" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="12"/>
@@ -5051,47 +5147,19 @@
     <hyperlink ref="J14" r:id="rId8" xr:uid="{01219542-9895-4F2E-9512-B6B5D3216204}"/>
     <hyperlink ref="J15" r:id="rId9" xr:uid="{1F3052D7-D354-4558-A0C3-60761279903A}"/>
     <hyperlink ref="J16" r:id="rId10" xr:uid="{44BF53B1-C1BB-4504-B4FA-BB443EBBD225}"/>
+    <hyperlink ref="J18" r:id="rId11" xr:uid="{48D2BFCE-7B4C-4192-9698-83D7622621CC}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="52" fitToHeight="0" orientation="landscape" r:id="rId11"/>
-  <drawing r:id="rId12"/>
+  <pageSetup paperSize="9" scale="52" fitToHeight="0" orientation="landscape" r:id="rId12"/>
+  <drawing r:id="rId13"/>
   <tableParts count="1">
-    <tablePart r:id="rId13"/>
+    <tablePart r:id="rId14"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="24" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2d714a3296df14eba7a100bb665443ca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="49549bf45bfbbfb6cffed527380e77e1" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -5379,27 +5447,36 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{141D71A4-5CC3-40CD-990C-070FB4B5F315}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5D97E00F-6E84-416B-8452-E6DC935A7A92}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B44AF425-737A-413C-9CB5-588E99FE889D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5418,4 +5495,24 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5D97E00F-6E84-416B-8452-E6DC935A7A92}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{141D71A4-5CC3-40CD-990C-070FB4B5F315}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/00 - Recolha de Requisitos/RegistodePesquisas.xlsx
+++ b/00 - Recolha de Requisitos/RegistodePesquisas.xlsx
@@ -3,15 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F180077-2739-44F6-BD6B-F3E961468955}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F985449C-BEB4-4FCB-9670-D235ACBFF161}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="15" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Brain Storming" sheetId="2" r:id="rId1"/>
     <sheet name="Registo de Pesquisas" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,12 +19,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -32,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="131">
   <si>
     <t xml:space="preserve">  </t>
   </si>
@@ -505,6 +502,31 @@
     <t>Ver Pdf para ver as diferentes 
 interações com diferentes dispositivos</t>
   </si>
+  <si>
+    <t>A Novel Augmented Reality Mobile-Based Application for Biomechanical Measurement</t>
+  </si>
+  <si>
+    <t>Desenvolver uma aplicação capaz de avaliar postura e range de movimeots humanos com a ajuda de marcadores</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Smartphone</t>
+  </si>
+  <si>
+    <t>OpenGL para reenderizar visuais
+ AprilTag2 library</t>
+  </si>
+  <si>
+    <t>c
+java</t>
+  </si>
+  <si>
+    <t>A aplicação trackeou e mostrou de maneira efectiva aângulos baseados nas avaliações obtidas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shahin Basiratzadeh Edward D. Lemaire
+</t>
+  </si>
 </sst>
 </file>
 
@@ -518,7 +540,7 @@
     <numFmt numFmtId="167" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
     <numFmt numFmtId="168" formatCode="0000"/>
   </numFmts>
-  <fonts count="54" x14ac:knownFonts="1">
+  <fonts count="55">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -896,6 +918,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Franklin Gothic Book"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="37">
     <fill>
@@ -1268,7 +1298,7 @@
     <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1501,56 +1531,65 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="48">
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="28" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="32" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="36" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="40" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="44" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="26" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="29" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="33" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="37" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="41" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="45" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="2" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="30" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="34" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="38" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="42" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="46" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="24" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="27" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="31" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="35" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="39" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="43" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="13" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="17" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="19" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3" customBuiltin="1"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6" customBuiltin="1"/>
-    <cellStyle name="Currency" xfId="4" builtinId="4" customBuiltin="1"/>
-    <cellStyle name="Currency [0]" xfId="5" builtinId="7" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="22" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="12" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="8" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="9" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="10" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="11" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Hyperlink" xfId="47" builtinId="8"/>
-    <cellStyle name="Input" xfId="15" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="18" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="14" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="20% - Cor1" xfId="25" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Cor2" xfId="28" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Cor3" xfId="32" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Cor4" xfId="36" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Cor5" xfId="40" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Cor6" xfId="44" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Cor1" xfId="26" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Cor2" xfId="29" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Cor3" xfId="33" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Cor4" xfId="37" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Cor5" xfId="41" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Cor6" xfId="45" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Cor1" xfId="2" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Cor2" xfId="30" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Cor3" xfId="34" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Cor4" xfId="38" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Cor5" xfId="42" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Cor6" xfId="46" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Cabeçalho 1" xfId="8" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Cabeçalho 2" xfId="9" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Cabeçalho 3" xfId="10" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Cabeçalho 4" xfId="11" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Cálculo" xfId="17" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Célula Ligada" xfId="18" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Cor1" xfId="24" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Cor2" xfId="27" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Cor3" xfId="31" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Cor4" xfId="35" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Cor5" xfId="39" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Cor6" xfId="43" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Correto" xfId="12" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Entrada" xfId="15" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Hiperligação" xfId="47" builtinId="8"/>
+    <cellStyle name="Incorreto" xfId="13" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Moeda" xfId="4" builtinId="4" customBuiltin="1"/>
+    <cellStyle name="Moeda [0]" xfId="5" builtinId="7" customBuiltin="1"/>
+    <cellStyle name="Neutro" xfId="14" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
-    <cellStyle name="Note" xfId="21" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="16" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="7" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Nota" xfId="21" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Percentagem" xfId="6" builtinId="5" customBuiltin="1"/>
+    <cellStyle name="Saída" xfId="16" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Separador de milhares [0]" xfId="3" builtinId="6" customBuiltin="1"/>
+    <cellStyle name="Texto de Aviso" xfId="20" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Texto Explicativo" xfId="22" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Título" xfId="7" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="23" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="20" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Verificar Célula" xfId="19" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Vírgula" xfId="1" builtinId="3" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="26">
     <dxf>
@@ -2204,8 +2243,8 @@
       <xdr:rowOff>10885</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1807209</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>3213</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>459014</xdr:rowOff>
     </xdr:to>
@@ -2342,7 +2381,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>5829930</xdr:colOff>
+      <xdr:colOff>5393685</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>1507030</xdr:rowOff>
     </xdr:to>
@@ -2768,7 +2807,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>5732417</xdr:colOff>
+      <xdr:colOff>5389517</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>1925140</xdr:rowOff>
     </xdr:to>
@@ -2862,7 +2901,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>2607310</xdr:colOff>
+      <xdr:colOff>2531110</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>1811927</xdr:rowOff>
     </xdr:to>
@@ -2993,7 +3032,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1075000</xdr:colOff>
+      <xdr:colOff>1086430</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>4873214</xdr:rowOff>
     </xdr:to>
@@ -3026,6 +3065,94 @@
         <a:xfrm>
           <a:off x="7126941" y="31185971"/>
           <a:ext cx="4784147" cy="4873214"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2836157</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>420647</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2074040</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>1851626</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Imagem 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B45C435A-162E-9D6D-B8A3-457A84B55FD6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4643963" y="36537892"/>
+          <a:ext cx="2085858" cy="1430979"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>29159</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>4827437</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>4136649</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>117716</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Imagem 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58D5049E-2636-AD2D-88CA-96EF4B057663}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9904057" y="36036391"/>
+          <a:ext cx="4115110" cy="2181325"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4170,18 +4297,18 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.7265625" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="21" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="23.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.08984375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="23.69921875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.09765625" style="1" customWidth="1"/>
     <col min="3" max="3" width="63" style="5" customWidth="1"/>
-    <col min="4" max="4" width="51.7265625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="24.453125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="1.453125" style="5" customWidth="1"/>
-    <col min="7" max="16384" width="10.7265625" style="5"/>
+    <col min="4" max="4" width="51.69921875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="24.5" style="4" customWidth="1"/>
+    <col min="6" max="6" width="1.5" style="5" customWidth="1"/>
+    <col min="7" max="16384" width="10.69921875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" ht="40.200000000000003" customHeight="1">
       <c r="A1" s="11"/>
       <c r="B1" s="76" t="s">
         <v>12</v>
@@ -4189,7 +4316,7 @@
       <c r="C1" s="13"/>
       <c r="D1" s="19"/>
     </row>
-    <row r="2" spans="1:9" s="2" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" s="2" customFormat="1" ht="42" customHeight="1">
       <c r="B2" s="77"/>
       <c r="C2" s="24" t="s">
         <v>1</v>
@@ -4198,7 +4325,7 @@
       <c r="E2" s="6"/>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="1:9" s="2" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" s="2" customFormat="1" ht="40.200000000000003" customHeight="1">
       <c r="B3" s="77"/>
       <c r="C3" s="26">
         <f ca="1">TODAY()</f>
@@ -4208,13 +4335,13 @@
       <c r="E3" s="6"/>
       <c r="I3" s="6"/>
     </row>
-    <row r="4" spans="1:9" s="2" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" s="2" customFormat="1" ht="40.200000000000003" customHeight="1">
       <c r="B4" s="15"/>
       <c r="C4" s="14"/>
       <c r="D4" s="21"/>
       <c r="I4" s="6"/>
     </row>
-    <row r="5" spans="1:9" s="2" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" s="2" customFormat="1" ht="40.200000000000003" customHeight="1">
       <c r="A5" s="25" t="s">
         <v>2</v>
       </c>
@@ -4230,7 +4357,7 @@
       <c r="E5" s="6"/>
       <c r="I5" s="6"/>
     </row>
-    <row r="6" spans="1:9" s="1" customFormat="1" ht="159.44999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" s="1" customFormat="1" ht="159.44999999999999" customHeight="1">
       <c r="A6" s="41" t="s">
         <v>87</v>
       </c>
@@ -4245,7 +4372,7 @@
       </c>
       <c r="E6" s="47"/>
     </row>
-    <row r="7" spans="1:9" s="1" customFormat="1" ht="163.19999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" s="1" customFormat="1" ht="163.19999999999999" customHeight="1">
       <c r="A7" s="41" t="s">
         <v>91</v>
       </c>
@@ -4260,7 +4387,7 @@
       </c>
       <c r="E7" s="47"/>
     </row>
-    <row r="8" spans="1:9" ht="162" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="162" customHeight="1">
       <c r="A8" s="41" t="s">
         <v>92</v>
       </c>
@@ -4275,7 +4402,7 @@
       </c>
       <c r="E8" s="5"/>
     </row>
-    <row r="9" spans="1:9" ht="159.6" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" ht="159.6" customHeight="1">
       <c r="A9" s="41" t="s">
         <v>98</v>
       </c>
@@ -4290,7 +4417,7 @@
       </c>
       <c r="E9" s="5"/>
     </row>
-    <row r="10" spans="1:9" ht="167.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="167.4" customHeight="1">
       <c r="A10" s="50" t="s">
         <v>102</v>
       </c>
@@ -4305,163 +4432,163 @@
       </c>
       <c r="E10" s="5"/>
     </row>
-    <row r="11" spans="1:9" ht="156.6" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" ht="156.6" customHeight="1">
       <c r="A11" s="54"/>
       <c r="B11" s="54"/>
       <c r="C11" s="54"/>
       <c r="D11" s="54"/>
       <c r="E11" s="5"/>
     </row>
-    <row r="12" spans="1:9" ht="25.2" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" ht="25.2" customHeight="1">
       <c r="A12" s="28"/>
       <c r="B12" s="28"/>
       <c r="C12" s="28"/>
       <c r="D12" s="28"/>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" spans="1:9" ht="25.2" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" ht="25.2" customHeight="1">
       <c r="A13" s="28"/>
       <c r="B13" s="28"/>
       <c r="C13" s="61"/>
       <c r="D13" s="28"/>
       <c r="E13" s="5"/>
     </row>
-    <row r="14" spans="1:9" ht="25.2" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" ht="25.2" customHeight="1">
       <c r="A14" s="28"/>
       <c r="B14" s="28"/>
       <c r="C14" s="28"/>
       <c r="D14" s="28"/>
       <c r="E14" s="5"/>
     </row>
-    <row r="15" spans="1:9" ht="25.2" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" ht="25.2" customHeight="1">
       <c r="A15" s="28"/>
       <c r="B15" s="28"/>
       <c r="C15" s="28"/>
       <c r="D15" s="28"/>
       <c r="E15" s="5"/>
     </row>
-    <row r="16" spans="1:9" ht="25.2" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" ht="25.2" customHeight="1">
       <c r="A16" s="28"/>
       <c r="B16" s="28"/>
       <c r="C16" s="28"/>
       <c r="D16" s="28"/>
       <c r="E16" s="5"/>
     </row>
-    <row r="17" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" ht="19.95" customHeight="1">
       <c r="A17" s="12"/>
       <c r="B17" s="13"/>
       <c r="C17" s="13"/>
       <c r="D17" s="12"/>
       <c r="E17" s="5"/>
     </row>
-    <row r="18" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" ht="19.95" customHeight="1">
       <c r="A18" s="12"/>
       <c r="B18" s="13"/>
       <c r="C18" s="13"/>
       <c r="D18" s="12"/>
       <c r="E18" s="5"/>
     </row>
-    <row r="19" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" ht="19.95" customHeight="1">
       <c r="A19" s="12"/>
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
       <c r="D19" s="12"/>
       <c r="E19" s="5"/>
     </row>
-    <row r="20" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:5" ht="19.95" customHeight="1">
       <c r="A20" s="12"/>
       <c r="B20" s="13"/>
       <c r="C20" s="12"/>
       <c r="D20" s="20"/>
       <c r="E20" s="5"/>
     </row>
-    <row r="21" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" ht="19.95" customHeight="1">
       <c r="A21" s="7"/>
       <c r="B21" s="8"/>
       <c r="C21" s="10"/>
       <c r="D21" s="23"/>
       <c r="E21" s="5"/>
     </row>
-    <row r="22" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" ht="19.95" customHeight="1">
       <c r="A22" s="7"/>
       <c r="B22" s="8"/>
       <c r="C22" s="10"/>
       <c r="D22" s="9"/>
       <c r="E22" s="5"/>
     </row>
-    <row r="23" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" ht="19.95" customHeight="1">
       <c r="D23" s="4"/>
       <c r="E23" s="5"/>
     </row>
-    <row r="24" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" ht="19.95" customHeight="1">
       <c r="D24" s="4"/>
       <c r="E24" s="5"/>
     </row>
-    <row r="25" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" ht="19.95" customHeight="1">
       <c r="D25" s="4"/>
       <c r="E25" s="5"/>
     </row>
-    <row r="26" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" ht="19.95" customHeight="1">
       <c r="D26" s="4"/>
       <c r="E26" s="5"/>
     </row>
-    <row r="27" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="28" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="29" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="30" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="31" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="32" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="33" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="34" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="35" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="36" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="37" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="38" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="39" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="40" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="41" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="42" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="43" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="44" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="45" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="46" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="47" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="48" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="49" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="50" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="51" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="52" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="53" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="54" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="55" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="56" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="57" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="58" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="59" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="60" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="61" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="62" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="63" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="64" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="65" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="66" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="67" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="68" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="69" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="70" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="71" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="72" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="73" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="74" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="75" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="76" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="77" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="78" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="79" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="80" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="81" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="82" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="83" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="27" spans="1:5" ht="19.95" customHeight="1"/>
+    <row r="28" spans="1:5" ht="19.95" customHeight="1"/>
+    <row r="29" spans="1:5" ht="19.95" customHeight="1"/>
+    <row r="30" spans="1:5" ht="19.95" customHeight="1"/>
+    <row r="31" spans="1:5" ht="19.95" customHeight="1"/>
+    <row r="32" spans="1:5" ht="19.95" customHeight="1"/>
+    <row r="33" ht="19.95" customHeight="1"/>
+    <row r="34" ht="19.95" customHeight="1"/>
+    <row r="35" ht="19.95" customHeight="1"/>
+    <row r="36" ht="19.95" customHeight="1"/>
+    <row r="37" ht="19.95" customHeight="1"/>
+    <row r="38" ht="19.95" customHeight="1"/>
+    <row r="39" ht="19.95" customHeight="1"/>
+    <row r="40" ht="19.95" customHeight="1"/>
+    <row r="41" ht="19.95" customHeight="1"/>
+    <row r="42" ht="19.95" customHeight="1"/>
+    <row r="43" ht="19.95" customHeight="1"/>
+    <row r="44" ht="19.95" customHeight="1"/>
+    <row r="45" ht="19.95" customHeight="1"/>
+    <row r="46" ht="19.95" customHeight="1"/>
+    <row r="47" ht="19.95" customHeight="1"/>
+    <row r="48" ht="19.95" customHeight="1"/>
+    <row r="49" ht="19.95" customHeight="1"/>
+    <row r="50" ht="19.95" customHeight="1"/>
+    <row r="51" ht="19.95" customHeight="1"/>
+    <row r="52" ht="19.95" customHeight="1"/>
+    <row r="53" ht="19.95" customHeight="1"/>
+    <row r="54" ht="19.95" customHeight="1"/>
+    <row r="55" ht="19.95" customHeight="1"/>
+    <row r="56" ht="19.95" customHeight="1"/>
+    <row r="57" ht="19.95" customHeight="1"/>
+    <row r="58" ht="19.95" customHeight="1"/>
+    <row r="59" ht="19.95" customHeight="1"/>
+    <row r="60" ht="19.95" customHeight="1"/>
+    <row r="61" ht="19.95" customHeight="1"/>
+    <row r="62" ht="19.95" customHeight="1"/>
+    <row r="63" ht="19.95" customHeight="1"/>
+    <row r="64" ht="19.95" customHeight="1"/>
+    <row r="65" ht="19.95" customHeight="1"/>
+    <row r="66" ht="19.95" customHeight="1"/>
+    <row r="67" ht="19.95" customHeight="1"/>
+    <row r="68" ht="19.95" customHeight="1"/>
+    <row r="69" ht="19.95" customHeight="1"/>
+    <row r="70" ht="19.95" customHeight="1"/>
+    <row r="71" ht="19.95" customHeight="1"/>
+    <row r="72" ht="19.95" customHeight="1"/>
+    <row r="73" ht="19.95" customHeight="1"/>
+    <row r="74" ht="19.95" customHeight="1"/>
+    <row r="75" ht="19.95" customHeight="1"/>
+    <row r="76" ht="19.95" customHeight="1"/>
+    <row r="77" ht="19.95" customHeight="1"/>
+    <row r="78" ht="19.95" customHeight="1"/>
+    <row r="79" ht="19.95" customHeight="1"/>
+    <row r="80" ht="19.95" customHeight="1"/>
+    <row r="81" ht="19.95" customHeight="1"/>
+    <row r="82" ht="19.95" customHeight="1"/>
+    <row r="83" ht="19.95" customHeight="1"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:B3"/>
@@ -4488,27 +4615,27 @@
   </sheetPr>
   <dimension ref="A1:P82"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F17" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E18" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.7265625" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="21" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="23.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.453125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="33.1796875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="35.08984375" style="5" customWidth="1"/>
-    <col min="5" max="5" width="70.90625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="50.26953125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="23.7265625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="24.7265625" style="4" customWidth="1"/>
-    <col min="9" max="10" width="23.7265625" style="4" customWidth="1"/>
-    <col min="11" max="12" width="24.453125" style="4" customWidth="1"/>
-    <col min="13" max="13" width="1.453125" style="5" customWidth="1"/>
-    <col min="14" max="16384" width="10.7265625" style="5"/>
+    <col min="1" max="1" width="23.69921875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="33.19921875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="35.09765625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="70.8984375" style="5" customWidth="1"/>
+    <col min="6" max="6" width="50.296875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="23.69921875" style="5" customWidth="1"/>
+    <col min="8" max="8" width="24.69921875" style="4" customWidth="1"/>
+    <col min="9" max="10" width="23.69921875" style="4" customWidth="1"/>
+    <col min="11" max="12" width="24.5" style="4" customWidth="1"/>
+    <col min="13" max="13" width="1.5" style="5" customWidth="1"/>
+    <col min="14" max="16384" width="10.69921875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:16" ht="40.200000000000003" customHeight="1">
       <c r="A1" s="11"/>
       <c r="B1" s="76" t="s">
         <v>12</v>
@@ -4523,7 +4650,7 @@
       <c r="J1" s="18"/>
       <c r="K1" s="12"/>
     </row>
-    <row r="2" spans="1:16" s="2" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:16" s="2" customFormat="1" ht="42" customHeight="1">
       <c r="B2" s="77"/>
       <c r="C2" s="77"/>
       <c r="D2" s="77"/>
@@ -4539,7 +4666,7 @@
       <c r="L2" s="6"/>
       <c r="P2" s="6"/>
     </row>
-    <row r="3" spans="1:16" s="2" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" s="2" customFormat="1" ht="40.200000000000003" customHeight="1">
       <c r="B3" s="77"/>
       <c r="C3" s="77"/>
       <c r="D3" s="77"/>
@@ -4556,7 +4683,7 @@
       <c r="L3" s="6"/>
       <c r="P3" s="6"/>
     </row>
-    <row r="4" spans="1:16" s="2" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" s="2" customFormat="1" ht="40.200000000000003" customHeight="1">
       <c r="B4" s="15"/>
       <c r="C4" s="14"/>
       <c r="D4" s="34"/>
@@ -4571,7 +4698,7 @@
       <c r="K4" s="17"/>
       <c r="P4" s="6"/>
     </row>
-    <row r="5" spans="1:16" s="2" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" s="2" customFormat="1" ht="40.200000000000003" customHeight="1">
       <c r="A5" s="25" t="s">
         <v>2</v>
       </c>
@@ -4606,7 +4733,7 @@
       <c r="L5" s="6"/>
       <c r="P5" s="6"/>
     </row>
-    <row r="6" spans="1:16" s="1" customFormat="1" ht="159.44999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" s="1" customFormat="1" ht="159.44999999999999" customHeight="1">
       <c r="A6" s="41" t="s">
         <v>19</v>
       </c>
@@ -4638,7 +4765,7 @@
       <c r="K6" s="12"/>
       <c r="L6" s="47"/>
     </row>
-    <row r="7" spans="1:16" s="1" customFormat="1" ht="163.19999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" s="1" customFormat="1" ht="163.19999999999999" customHeight="1">
       <c r="A7" s="41" t="s">
         <v>26</v>
       </c>
@@ -4667,7 +4794,7 @@
       </c>
       <c r="K7" s="13"/>
     </row>
-    <row r="8" spans="1:16" ht="162" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" ht="162" customHeight="1">
       <c r="A8" s="41" t="s">
         <v>28</v>
       </c>
@@ -4695,7 +4822,7 @@
       <c r="K8" s="13"/>
       <c r="L8" s="5"/>
     </row>
-    <row r="9" spans="1:16" ht="159.6" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" ht="159.6" customHeight="1">
       <c r="A9" s="41" t="s">
         <v>38</v>
       </c>
@@ -4727,7 +4854,7 @@
       <c r="K9" s="42"/>
       <c r="L9" s="5"/>
     </row>
-    <row r="10" spans="1:16" ht="167.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" ht="167.4" customHeight="1">
       <c r="A10" s="50" t="s">
         <v>41</v>
       </c>
@@ -4759,7 +4886,7 @@
       <c r="K10" s="13"/>
       <c r="L10" s="5"/>
     </row>
-    <row r="11" spans="1:16" ht="156.6" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" ht="156.6" customHeight="1">
       <c r="A11" s="54" t="s">
         <v>48</v>
       </c>
@@ -4789,7 +4916,7 @@
       <c r="K11" s="13"/>
       <c r="L11" s="5"/>
     </row>
-    <row r="12" spans="1:16" ht="197.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" ht="197.4" customHeight="1">
       <c r="A12" s="41" t="s">
         <v>55</v>
       </c>
@@ -4819,7 +4946,7 @@
       <c r="K12" s="13"/>
       <c r="L12" s="5"/>
     </row>
-    <row r="13" spans="1:16" ht="204.6" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" ht="204.6" customHeight="1">
       <c r="A13" s="41" t="s">
         <v>66</v>
       </c>
@@ -4851,7 +4978,7 @@
       <c r="K13" s="13"/>
       <c r="L13" s="5"/>
     </row>
-    <row r="14" spans="1:16" ht="161.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16" ht="161.4" customHeight="1">
       <c r="A14" s="41" t="s">
         <v>72</v>
       </c>
@@ -4883,7 +5010,7 @@
       <c r="K14" s="13"/>
       <c r="L14" s="5"/>
     </row>
-    <row r="15" spans="1:16" ht="184.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" ht="184.95" customHeight="1">
       <c r="A15" s="57" t="s">
         <v>79</v>
       </c>
@@ -4911,7 +5038,7 @@
       <c r="K15" s="13"/>
       <c r="L15" s="5"/>
     </row>
-    <row r="16" spans="1:16" s="68" customFormat="1" ht="386.55" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16" s="68" customFormat="1" ht="386.55" customHeight="1">
       <c r="A16" s="62" t="s">
         <v>103</v>
       </c>
@@ -4938,7 +5065,7 @@
       </c>
       <c r="K16" s="67"/>
     </row>
-    <row r="17" spans="1:12" ht="148.19999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" ht="148.19999999999999" customHeight="1">
       <c r="A17" s="70" t="s">
         <v>110</v>
       </c>
@@ -4970,7 +5097,7 @@
       <c r="K17" s="13"/>
       <c r="L17" s="5"/>
     </row>
-    <row r="18" spans="1:12" s="68" customFormat="1" ht="386.55" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" s="68" customFormat="1" ht="386.55" customHeight="1">
       <c r="A18" s="62" t="s">
         <v>118</v>
       </c>
@@ -5001,21 +5128,35 @@
       </c>
       <c r="K18" s="67"/>
     </row>
-    <row r="19" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="12"/>
-      <c r="B19" s="13"/>
+    <row r="19" spans="1:12" ht="156" customHeight="1">
+      <c r="A19" s="78" t="s">
+        <v>124</v>
+      </c>
+      <c r="B19" s="71" t="s">
+        <v>125</v>
+      </c>
       <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
+      <c r="D19" s="71" t="s">
+        <v>126</v>
+      </c>
       <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
+      <c r="F19" s="79" t="s">
+        <v>127</v>
+      </c>
+      <c r="G19" s="38" t="s">
+        <v>128</v>
+      </c>
+      <c r="H19" s="79" t="s">
+        <v>129</v>
+      </c>
+      <c r="I19" s="80" t="s">
+        <v>130</v>
+      </c>
       <c r="J19" s="13"/>
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
     </row>
-    <row r="20" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" ht="19.95" customHeight="1">
       <c r="A20" s="7"/>
       <c r="B20" s="8"/>
       <c r="C20" s="9"/>
@@ -5029,7 +5170,7 @@
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
     </row>
-    <row r="21" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" ht="19.95" customHeight="1">
       <c r="A21" s="7"/>
       <c r="B21" s="8"/>
       <c r="C21" s="9"/>
@@ -5043,81 +5184,81 @@
       <c r="K21" s="5"/>
       <c r="L21" s="5"/>
     </row>
-    <row r="22" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" ht="19.95" customHeight="1">
       <c r="G22" s="4"/>
       <c r="J22" s="9"/>
       <c r="L22" s="5"/>
     </row>
-    <row r="23" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" ht="19.95" customHeight="1">
       <c r="G23" s="4"/>
       <c r="J23" s="9"/>
       <c r="L23" s="5"/>
     </row>
-    <row r="24" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" ht="19.95" customHeight="1">
       <c r="G24" s="4"/>
       <c r="L24" s="5"/>
     </row>
-    <row r="25" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" ht="19.95" customHeight="1">
       <c r="G25" s="4"/>
       <c r="L25" s="5"/>
     </row>
-    <row r="26" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="27" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="28" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="29" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="30" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="31" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="32" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="33" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="34" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="35" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="36" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="37" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="38" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="39" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="40" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="41" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="42" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="43" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="44" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="45" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="46" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="47" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="48" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="49" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="50" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="51" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="52" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="53" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="54" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="55" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="56" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="57" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="58" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="59" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="60" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="61" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="62" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="63" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="64" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="65" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="66" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="67" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="68" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="69" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="70" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="71" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="72" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="73" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="74" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="75" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="76" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="77" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="78" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="79" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="80" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="81" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="82" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="26" spans="1:12" ht="19.95" customHeight="1"/>
+    <row r="27" spans="1:12" ht="19.95" customHeight="1"/>
+    <row r="28" spans="1:12" ht="19.95" customHeight="1"/>
+    <row r="29" spans="1:12" ht="19.95" customHeight="1"/>
+    <row r="30" spans="1:12" ht="19.95" customHeight="1"/>
+    <row r="31" spans="1:12" ht="19.95" customHeight="1"/>
+    <row r="32" spans="1:12" ht="19.95" customHeight="1"/>
+    <row r="33" ht="19.95" customHeight="1"/>
+    <row r="34" ht="19.95" customHeight="1"/>
+    <row r="35" ht="19.95" customHeight="1"/>
+    <row r="36" ht="19.95" customHeight="1"/>
+    <row r="37" ht="19.95" customHeight="1"/>
+    <row r="38" ht="19.95" customHeight="1"/>
+    <row r="39" ht="19.95" customHeight="1"/>
+    <row r="40" ht="19.95" customHeight="1"/>
+    <row r="41" ht="19.95" customHeight="1"/>
+    <row r="42" ht="19.95" customHeight="1"/>
+    <row r="43" ht="19.95" customHeight="1"/>
+    <row r="44" ht="19.95" customHeight="1"/>
+    <row r="45" ht="19.95" customHeight="1"/>
+    <row r="46" ht="19.95" customHeight="1"/>
+    <row r="47" ht="19.95" customHeight="1"/>
+    <row r="48" ht="19.95" customHeight="1"/>
+    <row r="49" ht="19.95" customHeight="1"/>
+    <row r="50" ht="19.95" customHeight="1"/>
+    <row r="51" ht="19.95" customHeight="1"/>
+    <row r="52" ht="19.95" customHeight="1"/>
+    <row r="53" ht="19.95" customHeight="1"/>
+    <row r="54" ht="19.95" customHeight="1"/>
+    <row r="55" ht="19.95" customHeight="1"/>
+    <row r="56" ht="19.95" customHeight="1"/>
+    <row r="57" ht="19.95" customHeight="1"/>
+    <row r="58" ht="19.95" customHeight="1"/>
+    <row r="59" ht="19.95" customHeight="1"/>
+    <row r="60" ht="19.95" customHeight="1"/>
+    <row r="61" ht="19.95" customHeight="1"/>
+    <row r="62" ht="19.95" customHeight="1"/>
+    <row r="63" ht="19.95" customHeight="1"/>
+    <row r="64" ht="19.95" customHeight="1"/>
+    <row r="65" ht="19.95" customHeight="1"/>
+    <row r="66" ht="19.95" customHeight="1"/>
+    <row r="67" ht="19.95" customHeight="1"/>
+    <row r="68" ht="19.95" customHeight="1"/>
+    <row r="69" ht="19.95" customHeight="1"/>
+    <row r="70" ht="19.95" customHeight="1"/>
+    <row r="71" ht="19.95" customHeight="1"/>
+    <row r="72" ht="19.95" customHeight="1"/>
+    <row r="73" ht="19.95" customHeight="1"/>
+    <row r="74" ht="19.95" customHeight="1"/>
+    <row r="75" ht="19.95" customHeight="1"/>
+    <row r="76" ht="19.95" customHeight="1"/>
+    <row r="77" ht="19.95" customHeight="1"/>
+    <row r="78" ht="19.95" customHeight="1"/>
+    <row r="79" ht="19.95" customHeight="1"/>
+    <row r="80" ht="19.95" customHeight="1"/>
+    <row r="81" ht="19.95" customHeight="1"/>
+    <row r="82" ht="19.95" customHeight="1"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:D3"/>
@@ -5448,15 +5589,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
@@ -5474,6 +5606,15 @@
     <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5498,14 +5639,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5D97E00F-6E84-416B-8452-E6DC935A7A92}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{141D71A4-5CC3-40CD-990C-070FB4B5F315}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -5515,4 +5648,12 @@
     <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5D97E00F-6E84-416B-8452-E6DC935A7A92}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/00 - Recolha de Requisitos/RegistodePesquisas.xlsx
+++ b/00 - Recolha de Requisitos/RegistodePesquisas.xlsx
@@ -3,15 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F985449C-BEB4-4FCB-9670-D235ACBFF161}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{727D40B1-4480-4135-8D03-513EF21A95C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="15" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Brain Storming" sheetId="2" r:id="rId1"/>
     <sheet name="Registo de Pesquisas" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,9 +19,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -462,9 +465,6 @@
     <t xml:space="preserve">D'Fusion technology integrates real time interactive 3D graphics contents on a live video stream; POI’s tracking, support for QR code and barcode reading, built in 3D renderer, optimizations for mobile chips, LLA Marker tracking are different types of interaction; ARmedia SDK </t>
   </si>
   <si>
-    <t xml:space="preserve"> Android                                                           IOS                                                                                                                                </t>
-  </si>
-  <si>
     <t>Windows                                                                                                                          Unity 3D</t>
   </si>
   <si>
@@ -495,10 +495,6 @@
 Woon-Hong Yeo</t>
   </si>
   <si>
-    <t>Sensores de toque, momivimento e forca devidamente sincronizados. Poderam levar a AR a melhorar drasticamente, dando uma melhor interação entre usarios.
-Trabalho futuro será tornar esta experiência "multi-user", onde usuários poderam interagir uns com os outros como no mundo fisico.</t>
-  </si>
-  <si>
     <t>Ver Pdf para ver as diferentes 
 interações com diferentes dispositivos</t>
   </si>
@@ -526,6 +522,14 @@
   <si>
     <t xml:space="preserve">Shahin Basiratzadeh Edward D. Lemaire
 </t>
+  </si>
+  <si>
+    <t>Sensores de toque, movimento e forca devidamente sincronizados. Poderão levar a AR a melhorar drasticamente, dando uma melhor interação entre usuários.
+Trabalho futuro será tornar esta experiência "multi-user", onde usuários poderão interagir uns com os outros como no mundo fisico.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Android  
+ IOS                                                                                                                                </t>
   </si>
 </sst>
 </file>
@@ -533,14 +537,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="6">
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;\ &quot;€&quot;_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="#,##0_ ;\-#,##0\ "/>
-    <numFmt numFmtId="167" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="168" formatCode="0000"/>
+    <numFmt numFmtId="42" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="#,##0_ ;\-#,##0\ "/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="0000"/>
   </numFmts>
-  <fonts count="55">
+  <fonts count="55" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1250,11 +1254,11 @@
   </borders>
   <cellStyleXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -1298,7 +1302,7 @@
     <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1396,7 +1400,7 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="166" fontId="23" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="23" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1447,7 +1451,7 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1516,29 +1520,26 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="48">
@@ -2196,7 +2197,7 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>2268</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>477611</xdr:rowOff>
+      <xdr:rowOff>482691</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2244,7 +2245,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>3213</xdr:colOff>
+      <xdr:colOff>7023</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>459014</xdr:rowOff>
     </xdr:to>
@@ -2294,9 +2295,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>3631</xdr:colOff>
+      <xdr:colOff>7441</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>1806089</xdr:rowOff>
+      <xdr:rowOff>1816249</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2337,9 +2338,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>2686788</xdr:colOff>
+      <xdr:colOff>2691868</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>1963897</xdr:rowOff>
+      <xdr:rowOff>1968977</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2381,9 +2382,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>5393685</xdr:colOff>
+      <xdr:colOff>5392415</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>1507030</xdr:rowOff>
+      <xdr:rowOff>1505760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2425,9 +2426,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1581115</xdr:colOff>
+      <xdr:colOff>1586195</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>1926228</xdr:rowOff>
+      <xdr:rowOff>1924958</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2475,9 +2476,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>3638294</xdr:colOff>
+      <xdr:colOff>3643374</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>2002154</xdr:rowOff>
+      <xdr:rowOff>2007234</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2525,9 +2526,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>2267959</xdr:colOff>
+      <xdr:colOff>2273039</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>17960</xdr:rowOff>
+      <xdr:rowOff>23040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2575,7 +2576,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>4973815</xdr:colOff>
+      <xdr:colOff>4978895</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>1981200</xdr:rowOff>
     </xdr:to>
@@ -2619,9 +2620,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>171596</xdr:colOff>
+      <xdr:colOff>176676</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>2459473</xdr:rowOff>
+      <xdr:rowOff>2458203</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2663,9 +2664,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>5390564</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>2493565</xdr:rowOff>
+      <xdr:colOff>5395644</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>2274</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2707,7 +2708,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>4326129</xdr:colOff>
+      <xdr:colOff>4331209</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>2474510</xdr:rowOff>
     </xdr:to>
@@ -2757,9 +2758,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>3335383</xdr:colOff>
+      <xdr:colOff>3340463</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>1925683</xdr:rowOff>
+      <xdr:rowOff>1930763</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2807,9 +2808,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>5389517</xdr:colOff>
+      <xdr:colOff>5394597</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>1925140</xdr:rowOff>
+      <xdr:rowOff>1930220</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2857,9 +2858,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>4555309</xdr:colOff>
+      <xdr:colOff>4554039</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>2091854</xdr:rowOff>
+      <xdr:rowOff>2088044</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2901,9 +2902,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>2531110</xdr:colOff>
+      <xdr:colOff>2536190</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>1811927</xdr:rowOff>
+      <xdr:rowOff>1810657</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2944,9 +2945,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>135195</xdr:colOff>
+      <xdr:colOff>140275</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>2003250</xdr:rowOff>
+      <xdr:rowOff>2001980</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2988,9 +2989,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>4898606</xdr:colOff>
+      <xdr:colOff>4897336</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>4423342</xdr:rowOff>
+      <xdr:rowOff>4427152</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3032,9 +3033,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1086430</xdr:colOff>
+      <xdr:colOff>1091510</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>4873214</xdr:rowOff>
+      <xdr:rowOff>4869404</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3082,9 +3083,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>2074040</xdr:colOff>
+      <xdr:colOff>2079120</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>1851626</xdr:rowOff>
+      <xdr:rowOff>1850356</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3120,15 +3121,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>29159</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>4827437</xdr:rowOff>
+      <xdr:colOff>72712</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>140839</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>4136649</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>117716</xdr:rowOff>
+      <xdr:colOff>4184012</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>100384</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3151,8 +3152,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9904057" y="36036391"/>
-          <a:ext cx="4115110" cy="2181325"/>
+          <a:off x="10763124" y="36212574"/>
+          <a:ext cx="4111300" cy="2189516"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4297,27 +4298,27 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="21" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="10.69140625" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="23.69921875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.09765625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="23.69140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.07421875" style="1" customWidth="1"/>
     <col min="3" max="3" width="63" style="5" customWidth="1"/>
-    <col min="4" max="4" width="51.69921875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="24.5" style="4" customWidth="1"/>
-    <col min="6" max="6" width="1.5" style="5" customWidth="1"/>
-    <col min="7" max="16384" width="10.69921875" style="5"/>
+    <col min="4" max="4" width="51.69140625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="24.4609375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="1.4609375" style="5" customWidth="1"/>
+    <col min="7" max="16384" width="10.69140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="40.200000000000003" customHeight="1">
+    <row r="1" spans="1:9" ht="40.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="11"/>
-      <c r="B1" s="76" t="s">
+      <c r="B1" s="78" t="s">
         <v>12</v>
       </c>
       <c r="C1" s="13"/>
       <c r="D1" s="19"/>
     </row>
-    <row r="2" spans="1:9" s="2" customFormat="1" ht="42" customHeight="1">
-      <c r="B2" s="77"/>
+    <row r="2" spans="1:9" s="2" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="79"/>
       <c r="C2" s="24" t="s">
         <v>1</v>
       </c>
@@ -4325,8 +4326,8 @@
       <c r="E2" s="6"/>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="1:9" s="2" customFormat="1" ht="40.200000000000003" customHeight="1">
-      <c r="B3" s="77"/>
+    <row r="3" spans="1:9" s="2" customFormat="1" ht="40.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="79"/>
       <c r="C3" s="26">
         <f ca="1">TODAY()</f>
         <v>44856</v>
@@ -4335,13 +4336,13 @@
       <c r="E3" s="6"/>
       <c r="I3" s="6"/>
     </row>
-    <row r="4" spans="1:9" s="2" customFormat="1" ht="40.200000000000003" customHeight="1">
+    <row r="4" spans="1:9" s="2" customFormat="1" ht="40.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="15"/>
       <c r="C4" s="14"/>
       <c r="D4" s="21"/>
       <c r="I4" s="6"/>
     </row>
-    <row r="5" spans="1:9" s="2" customFormat="1" ht="40.200000000000003" customHeight="1">
+    <row r="5" spans="1:9" s="2" customFormat="1" ht="40.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="25" t="s">
         <v>2</v>
       </c>
@@ -4357,7 +4358,7 @@
       <c r="E5" s="6"/>
       <c r="I5" s="6"/>
     </row>
-    <row r="6" spans="1:9" s="1" customFormat="1" ht="159.44999999999999" customHeight="1">
+    <row r="6" spans="1:9" s="1" customFormat="1" ht="159.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="41" t="s">
         <v>87</v>
       </c>
@@ -4372,7 +4373,7 @@
       </c>
       <c r="E6" s="47"/>
     </row>
-    <row r="7" spans="1:9" s="1" customFormat="1" ht="163.19999999999999" customHeight="1">
+    <row r="7" spans="1:9" s="1" customFormat="1" ht="163.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="41" t="s">
         <v>91</v>
       </c>
@@ -4387,7 +4388,7 @@
       </c>
       <c r="E7" s="47"/>
     </row>
-    <row r="8" spans="1:9" ht="162" customHeight="1">
+    <row r="8" spans="1:9" ht="162" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="41" t="s">
         <v>92</v>
       </c>
@@ -4402,7 +4403,7 @@
       </c>
       <c r="E8" s="5"/>
     </row>
-    <row r="9" spans="1:9" ht="159.6" customHeight="1">
+    <row r="9" spans="1:9" ht="159.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="41" t="s">
         <v>98</v>
       </c>
@@ -4417,7 +4418,7 @@
       </c>
       <c r="E9" s="5"/>
     </row>
-    <row r="10" spans="1:9" ht="167.4" customHeight="1">
+    <row r="10" spans="1:9" ht="167.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="50" t="s">
         <v>102</v>
       </c>
@@ -4432,163 +4433,163 @@
       </c>
       <c r="E10" s="5"/>
     </row>
-    <row r="11" spans="1:9" ht="156.6" customHeight="1">
+    <row r="11" spans="1:9" ht="156.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="54"/>
       <c r="B11" s="54"/>
       <c r="C11" s="54"/>
       <c r="D11" s="54"/>
       <c r="E11" s="5"/>
     </row>
-    <row r="12" spans="1:9" ht="25.2" customHeight="1">
+    <row r="12" spans="1:9" ht="25.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="28"/>
       <c r="B12" s="28"/>
       <c r="C12" s="28"/>
       <c r="D12" s="28"/>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" spans="1:9" ht="25.2" customHeight="1">
+    <row r="13" spans="1:9" ht="25.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="28"/>
       <c r="B13" s="28"/>
       <c r="C13" s="61"/>
       <c r="D13" s="28"/>
       <c r="E13" s="5"/>
     </row>
-    <row r="14" spans="1:9" ht="25.2" customHeight="1">
+    <row r="14" spans="1:9" ht="25.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="28"/>
       <c r="B14" s="28"/>
       <c r="C14" s="28"/>
       <c r="D14" s="28"/>
       <c r="E14" s="5"/>
     </row>
-    <row r="15" spans="1:9" ht="25.2" customHeight="1">
+    <row r="15" spans="1:9" ht="25.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="28"/>
       <c r="B15" s="28"/>
       <c r="C15" s="28"/>
       <c r="D15" s="28"/>
       <c r="E15" s="5"/>
     </row>
-    <row r="16" spans="1:9" ht="25.2" customHeight="1">
+    <row r="16" spans="1:9" ht="25.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="28"/>
       <c r="B16" s="28"/>
       <c r="C16" s="28"/>
       <c r="D16" s="28"/>
       <c r="E16" s="5"/>
     </row>
-    <row r="17" spans="1:5" ht="19.95" customHeight="1">
+    <row r="17" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="12"/>
       <c r="B17" s="13"/>
       <c r="C17" s="13"/>
       <c r="D17" s="12"/>
       <c r="E17" s="5"/>
     </row>
-    <row r="18" spans="1:5" ht="19.95" customHeight="1">
+    <row r="18" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="12"/>
       <c r="B18" s="13"/>
       <c r="C18" s="13"/>
       <c r="D18" s="12"/>
       <c r="E18" s="5"/>
     </row>
-    <row r="19" spans="1:5" ht="19.95" customHeight="1">
+    <row r="19" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="12"/>
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
       <c r="D19" s="12"/>
       <c r="E19" s="5"/>
     </row>
-    <row r="20" spans="1:5" ht="19.95" customHeight="1">
+    <row r="20" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="12"/>
       <c r="B20" s="13"/>
       <c r="C20" s="12"/>
       <c r="D20" s="20"/>
       <c r="E20" s="5"/>
     </row>
-    <row r="21" spans="1:5" ht="19.95" customHeight="1">
+    <row r="21" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="7"/>
       <c r="B21" s="8"/>
       <c r="C21" s="10"/>
       <c r="D21" s="23"/>
       <c r="E21" s="5"/>
     </row>
-    <row r="22" spans="1:5" ht="19.95" customHeight="1">
+    <row r="22" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="7"/>
       <c r="B22" s="8"/>
       <c r="C22" s="10"/>
       <c r="D22" s="9"/>
       <c r="E22" s="5"/>
     </row>
-    <row r="23" spans="1:5" ht="19.95" customHeight="1">
+    <row r="23" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D23" s="4"/>
       <c r="E23" s="5"/>
     </row>
-    <row r="24" spans="1:5" ht="19.95" customHeight="1">
+    <row r="24" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D24" s="4"/>
       <c r="E24" s="5"/>
     </row>
-    <row r="25" spans="1:5" ht="19.95" customHeight="1">
+    <row r="25" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D25" s="4"/>
       <c r="E25" s="5"/>
     </row>
-    <row r="26" spans="1:5" ht="19.95" customHeight="1">
+    <row r="26" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D26" s="4"/>
       <c r="E26" s="5"/>
     </row>
-    <row r="27" spans="1:5" ht="19.95" customHeight="1"/>
-    <row r="28" spans="1:5" ht="19.95" customHeight="1"/>
-    <row r="29" spans="1:5" ht="19.95" customHeight="1"/>
-    <row r="30" spans="1:5" ht="19.95" customHeight="1"/>
-    <row r="31" spans="1:5" ht="19.95" customHeight="1"/>
-    <row r="32" spans="1:5" ht="19.95" customHeight="1"/>
-    <row r="33" ht="19.95" customHeight="1"/>
-    <row r="34" ht="19.95" customHeight="1"/>
-    <row r="35" ht="19.95" customHeight="1"/>
-    <row r="36" ht="19.95" customHeight="1"/>
-    <row r="37" ht="19.95" customHeight="1"/>
-    <row r="38" ht="19.95" customHeight="1"/>
-    <row r="39" ht="19.95" customHeight="1"/>
-    <row r="40" ht="19.95" customHeight="1"/>
-    <row r="41" ht="19.95" customHeight="1"/>
-    <row r="42" ht="19.95" customHeight="1"/>
-    <row r="43" ht="19.95" customHeight="1"/>
-    <row r="44" ht="19.95" customHeight="1"/>
-    <row r="45" ht="19.95" customHeight="1"/>
-    <row r="46" ht="19.95" customHeight="1"/>
-    <row r="47" ht="19.95" customHeight="1"/>
-    <row r="48" ht="19.95" customHeight="1"/>
-    <row r="49" ht="19.95" customHeight="1"/>
-    <row r="50" ht="19.95" customHeight="1"/>
-    <row r="51" ht="19.95" customHeight="1"/>
-    <row r="52" ht="19.95" customHeight="1"/>
-    <row r="53" ht="19.95" customHeight="1"/>
-    <row r="54" ht="19.95" customHeight="1"/>
-    <row r="55" ht="19.95" customHeight="1"/>
-    <row r="56" ht="19.95" customHeight="1"/>
-    <row r="57" ht="19.95" customHeight="1"/>
-    <row r="58" ht="19.95" customHeight="1"/>
-    <row r="59" ht="19.95" customHeight="1"/>
-    <row r="60" ht="19.95" customHeight="1"/>
-    <row r="61" ht="19.95" customHeight="1"/>
-    <row r="62" ht="19.95" customHeight="1"/>
-    <row r="63" ht="19.95" customHeight="1"/>
-    <row r="64" ht="19.95" customHeight="1"/>
-    <row r="65" ht="19.95" customHeight="1"/>
-    <row r="66" ht="19.95" customHeight="1"/>
-    <row r="67" ht="19.95" customHeight="1"/>
-    <row r="68" ht="19.95" customHeight="1"/>
-    <row r="69" ht="19.95" customHeight="1"/>
-    <row r="70" ht="19.95" customHeight="1"/>
-    <row r="71" ht="19.95" customHeight="1"/>
-    <row r="72" ht="19.95" customHeight="1"/>
-    <row r="73" ht="19.95" customHeight="1"/>
-    <row r="74" ht="19.95" customHeight="1"/>
-    <row r="75" ht="19.95" customHeight="1"/>
-    <row r="76" ht="19.95" customHeight="1"/>
-    <row r="77" ht="19.95" customHeight="1"/>
-    <row r="78" ht="19.95" customHeight="1"/>
-    <row r="79" ht="19.95" customHeight="1"/>
-    <row r="80" ht="19.95" customHeight="1"/>
-    <row r="81" ht="19.95" customHeight="1"/>
-    <row r="82" ht="19.95" customHeight="1"/>
-    <row r="83" ht="19.95" customHeight="1"/>
+    <row r="27" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="28" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="29" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="30" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="31" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="32" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="33" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="34" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="35" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="36" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="37" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="38" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="39" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="40" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="41" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="42" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="43" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="44" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="45" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="46" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="47" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="48" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="49" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="50" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="51" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="52" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="53" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="54" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="55" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="56" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="57" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="58" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="59" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="60" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="61" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="62" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="63" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="64" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="65" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="66" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="67" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="68" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="69" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="70" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="71" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="72" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="73" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="74" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="75" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="76" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="77" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="78" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="79" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="80" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="81" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="82" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="83" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:B3"/>
@@ -4615,33 +4616,33 @@
   </sheetPr>
   <dimension ref="A1:P82"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E18" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A18" zoomScale="68" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="21" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="10.69140625" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="23.69921875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="33.19921875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="35.09765625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="70.8984375" style="5" customWidth="1"/>
-    <col min="6" max="6" width="50.296875" style="5" customWidth="1"/>
-    <col min="7" max="7" width="23.69921875" style="5" customWidth="1"/>
-    <col min="8" max="8" width="24.69921875" style="4" customWidth="1"/>
-    <col min="9" max="10" width="23.69921875" style="4" customWidth="1"/>
-    <col min="11" max="12" width="24.5" style="4" customWidth="1"/>
-    <col min="13" max="13" width="1.5" style="5" customWidth="1"/>
-    <col min="14" max="16384" width="10.69921875" style="5"/>
+    <col min="1" max="1" width="23.69140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.4609375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="33.23046875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="35.07421875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="70.921875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="50.3046875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="23.69140625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="24.69140625" style="4" customWidth="1"/>
+    <col min="9" max="10" width="23.69140625" style="4" customWidth="1"/>
+    <col min="11" max="12" width="24.4609375" style="4" customWidth="1"/>
+    <col min="13" max="13" width="1.4609375" style="5" customWidth="1"/>
+    <col min="14" max="16384" width="10.69140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="40.200000000000003" customHeight="1">
+    <row r="1" spans="1:16" ht="40.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="11"/>
-      <c r="B1" s="76" t="s">
+      <c r="B1" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
       <c r="E1" s="13"/>
       <c r="F1" s="13"/>
       <c r="G1" s="19"/>
@@ -4650,10 +4651,10 @@
       <c r="J1" s="18"/>
       <c r="K1" s="12"/>
     </row>
-    <row r="2" spans="1:16" s="2" customFormat="1" ht="42" customHeight="1">
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
+    <row r="2" spans="1:16" s="2" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
       <c r="E2" s="24" t="s">
         <v>1</v>
       </c>
@@ -4666,10 +4667,10 @@
       <c r="L2" s="6"/>
       <c r="P2" s="6"/>
     </row>
-    <row r="3" spans="1:16" s="2" customFormat="1" ht="40.200000000000003" customHeight="1">
-      <c r="B3" s="77"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
+    <row r="3" spans="1:16" s="2" customFormat="1" ht="40.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="79"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
       <c r="E3" s="26">
         <f ca="1">TODAY()</f>
         <v>44856</v>
@@ -4683,7 +4684,7 @@
       <c r="L3" s="6"/>
       <c r="P3" s="6"/>
     </row>
-    <row r="4" spans="1:16" s="2" customFormat="1" ht="40.200000000000003" customHeight="1">
+    <row r="4" spans="1:16" s="2" customFormat="1" ht="40.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="15"/>
       <c r="C4" s="14"/>
       <c r="D4" s="34"/>
@@ -4698,7 +4699,7 @@
       <c r="K4" s="17"/>
       <c r="P4" s="6"/>
     </row>
-    <row r="5" spans="1:16" s="2" customFormat="1" ht="40.200000000000003" customHeight="1">
+    <row r="5" spans="1:16" s="2" customFormat="1" ht="40.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="25" t="s">
         <v>2</v>
       </c>
@@ -4733,7 +4734,7 @@
       <c r="L5" s="6"/>
       <c r="P5" s="6"/>
     </row>
-    <row r="6" spans="1:16" s="1" customFormat="1" ht="159.44999999999999" customHeight="1">
+    <row r="6" spans="1:16" s="1" customFormat="1" ht="159.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="41" t="s">
         <v>19</v>
       </c>
@@ -4765,7 +4766,7 @@
       <c r="K6" s="12"/>
       <c r="L6" s="47"/>
     </row>
-    <row r="7" spans="1:16" s="1" customFormat="1" ht="163.19999999999999" customHeight="1">
+    <row r="7" spans="1:16" s="1" customFormat="1" ht="163.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="41" t="s">
         <v>26</v>
       </c>
@@ -4794,7 +4795,7 @@
       </c>
       <c r="K7" s="13"/>
     </row>
-    <row r="8" spans="1:16" ht="162" customHeight="1">
+    <row r="8" spans="1:16" ht="162" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="41" t="s">
         <v>28</v>
       </c>
@@ -4822,7 +4823,7 @@
       <c r="K8" s="13"/>
       <c r="L8" s="5"/>
     </row>
-    <row r="9" spans="1:16" ht="159.6" customHeight="1">
+    <row r="9" spans="1:16" ht="159.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="41" t="s">
         <v>38</v>
       </c>
@@ -4854,7 +4855,7 @@
       <c r="K9" s="42"/>
       <c r="L9" s="5"/>
     </row>
-    <row r="10" spans="1:16" ht="167.4" customHeight="1">
+    <row r="10" spans="1:16" ht="167.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="50" t="s">
         <v>41</v>
       </c>
@@ -4886,7 +4887,7 @@
       <c r="K10" s="13"/>
       <c r="L10" s="5"/>
     </row>
-    <row r="11" spans="1:16" ht="156.6" customHeight="1">
+    <row r="11" spans="1:16" ht="156.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="54" t="s">
         <v>48</v>
       </c>
@@ -4916,7 +4917,7 @@
       <c r="K11" s="13"/>
       <c r="L11" s="5"/>
     </row>
-    <row r="12" spans="1:16" ht="197.4" customHeight="1">
+    <row r="12" spans="1:16" ht="197.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="41" t="s">
         <v>55</v>
       </c>
@@ -4946,7 +4947,7 @@
       <c r="K12" s="13"/>
       <c r="L12" s="5"/>
     </row>
-    <row r="13" spans="1:16" ht="204.6" customHeight="1">
+    <row r="13" spans="1:16" ht="204.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="41" t="s">
         <v>66</v>
       </c>
@@ -4978,7 +4979,7 @@
       <c r="K13" s="13"/>
       <c r="L13" s="5"/>
     </row>
-    <row r="14" spans="1:16" ht="161.4" customHeight="1">
+    <row r="14" spans="1:16" ht="161.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="41" t="s">
         <v>72</v>
       </c>
@@ -5010,7 +5011,7 @@
       <c r="K14" s="13"/>
       <c r="L14" s="5"/>
     </row>
-    <row r="15" spans="1:16" ht="184.95" customHeight="1">
+    <row r="15" spans="1:16" ht="185" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="57" t="s">
         <v>79</v>
       </c>
@@ -5038,7 +5039,7 @@
       <c r="K15" s="13"/>
       <c r="L15" s="5"/>
     </row>
-    <row r="16" spans="1:16" s="68" customFormat="1" ht="386.55" customHeight="1">
+    <row r="16" spans="1:16" s="68" customFormat="1" ht="386.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="62" t="s">
         <v>103</v>
       </c>
@@ -5065,7 +5066,7 @@
       </c>
       <c r="K16" s="67"/>
     </row>
-    <row r="17" spans="1:12" ht="148.19999999999999" customHeight="1">
+    <row r="17" spans="1:12" ht="148.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="70" t="s">
         <v>110</v>
       </c>
@@ -5076,87 +5077,87 @@
         <v>112</v>
       </c>
       <c r="D17" s="72" t="s">
+        <v>130</v>
+      </c>
+      <c r="E17" s="74" t="s">
+        <v>113</v>
+      </c>
+      <c r="F17" s="73" t="s">
         <v>114</v>
-      </c>
-      <c r="E17" s="73" t="s">
-        <v>113</v>
-      </c>
-      <c r="F17" s="74" t="s">
-        <v>115</v>
       </c>
       <c r="G17" s="70"/>
       <c r="H17" s="70" t="s">
         <v>36</v>
       </c>
-      <c r="I17" s="75" t="s">
+      <c r="I17" s="74" t="s">
+        <v>115</v>
+      </c>
+      <c r="J17" s="74" t="s">
         <v>116</v>
-      </c>
-      <c r="J17" s="75" t="s">
-        <v>117</v>
       </c>
       <c r="K17" s="13"/>
       <c r="L17" s="5"/>
     </row>
-    <row r="18" spans="1:12" s="68" customFormat="1" ht="386.55" customHeight="1">
+    <row r="18" spans="1:12" s="68" customFormat="1" ht="386.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="62" t="s">
+        <v>117</v>
+      </c>
+      <c r="B18" s="63" t="s">
         <v>118</v>
-      </c>
-      <c r="B18" s="63" t="s">
-        <v>119</v>
       </c>
       <c r="C18" s="63" t="s">
         <v>67</v>
       </c>
       <c r="D18" s="63" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E18" s="38" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F18" s="29" t="s">
         <v>67</v>
       </c>
       <c r="G18" s="69"/>
       <c r="H18" s="64" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="I18" s="65" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J18" s="66" t="s">
         <v>109</v>
       </c>
       <c r="K18" s="67"/>
     </row>
-    <row r="19" spans="1:12" ht="156" customHeight="1">
-      <c r="A19" s="78" t="s">
-        <v>124</v>
+    <row r="19" spans="1:12" ht="156" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="75" t="s">
+        <v>122</v>
       </c>
       <c r="B19" s="71" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="71" t="s">
+        <v>124</v>
+      </c>
+      <c r="E19" s="12"/>
+      <c r="F19" s="76" t="s">
+        <v>125</v>
+      </c>
+      <c r="G19" s="38" t="s">
         <v>126</v>
       </c>
-      <c r="E19" s="12"/>
-      <c r="F19" s="79" t="s">
+      <c r="H19" s="76" t="s">
         <v>127</v>
       </c>
-      <c r="G19" s="38" t="s">
+      <c r="I19" s="77" t="s">
         <v>128</v>
-      </c>
-      <c r="H19" s="79" t="s">
-        <v>129</v>
-      </c>
-      <c r="I19" s="80" t="s">
-        <v>130</v>
       </c>
       <c r="J19" s="13"/>
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
     </row>
-    <row r="20" spans="1:12" ht="19.95" customHeight="1">
+    <row r="20" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="7"/>
       <c r="B20" s="8"/>
       <c r="C20" s="9"/>
@@ -5170,7 +5171,7 @@
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
     </row>
-    <row r="21" spans="1:12" ht="19.95" customHeight="1">
+    <row r="21" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="7"/>
       <c r="B21" s="8"/>
       <c r="C21" s="9"/>
@@ -5184,81 +5185,81 @@
       <c r="K21" s="5"/>
       <c r="L21" s="5"/>
     </row>
-    <row r="22" spans="1:12" ht="19.95" customHeight="1">
+    <row r="22" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="G22" s="4"/>
       <c r="J22" s="9"/>
       <c r="L22" s="5"/>
     </row>
-    <row r="23" spans="1:12" ht="19.95" customHeight="1">
+    <row r="23" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="G23" s="4"/>
       <c r="J23" s="9"/>
       <c r="L23" s="5"/>
     </row>
-    <row r="24" spans="1:12" ht="19.95" customHeight="1">
+    <row r="24" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="G24" s="4"/>
       <c r="L24" s="5"/>
     </row>
-    <row r="25" spans="1:12" ht="19.95" customHeight="1">
+    <row r="25" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="G25" s="4"/>
       <c r="L25" s="5"/>
     </row>
-    <row r="26" spans="1:12" ht="19.95" customHeight="1"/>
-    <row r="27" spans="1:12" ht="19.95" customHeight="1"/>
-    <row r="28" spans="1:12" ht="19.95" customHeight="1"/>
-    <row r="29" spans="1:12" ht="19.95" customHeight="1"/>
-    <row r="30" spans="1:12" ht="19.95" customHeight="1"/>
-    <row r="31" spans="1:12" ht="19.95" customHeight="1"/>
-    <row r="32" spans="1:12" ht="19.95" customHeight="1"/>
-    <row r="33" ht="19.95" customHeight="1"/>
-    <row r="34" ht="19.95" customHeight="1"/>
-    <row r="35" ht="19.95" customHeight="1"/>
-    <row r="36" ht="19.95" customHeight="1"/>
-    <row r="37" ht="19.95" customHeight="1"/>
-    <row r="38" ht="19.95" customHeight="1"/>
-    <row r="39" ht="19.95" customHeight="1"/>
-    <row r="40" ht="19.95" customHeight="1"/>
-    <row r="41" ht="19.95" customHeight="1"/>
-    <row r="42" ht="19.95" customHeight="1"/>
-    <row r="43" ht="19.95" customHeight="1"/>
-    <row r="44" ht="19.95" customHeight="1"/>
-    <row r="45" ht="19.95" customHeight="1"/>
-    <row r="46" ht="19.95" customHeight="1"/>
-    <row r="47" ht="19.95" customHeight="1"/>
-    <row r="48" ht="19.95" customHeight="1"/>
-    <row r="49" ht="19.95" customHeight="1"/>
-    <row r="50" ht="19.95" customHeight="1"/>
-    <row r="51" ht="19.95" customHeight="1"/>
-    <row r="52" ht="19.95" customHeight="1"/>
-    <row r="53" ht="19.95" customHeight="1"/>
-    <row r="54" ht="19.95" customHeight="1"/>
-    <row r="55" ht="19.95" customHeight="1"/>
-    <row r="56" ht="19.95" customHeight="1"/>
-    <row r="57" ht="19.95" customHeight="1"/>
-    <row r="58" ht="19.95" customHeight="1"/>
-    <row r="59" ht="19.95" customHeight="1"/>
-    <row r="60" ht="19.95" customHeight="1"/>
-    <row r="61" ht="19.95" customHeight="1"/>
-    <row r="62" ht="19.95" customHeight="1"/>
-    <row r="63" ht="19.95" customHeight="1"/>
-    <row r="64" ht="19.95" customHeight="1"/>
-    <row r="65" ht="19.95" customHeight="1"/>
-    <row r="66" ht="19.95" customHeight="1"/>
-    <row r="67" ht="19.95" customHeight="1"/>
-    <row r="68" ht="19.95" customHeight="1"/>
-    <row r="69" ht="19.95" customHeight="1"/>
-    <row r="70" ht="19.95" customHeight="1"/>
-    <row r="71" ht="19.95" customHeight="1"/>
-    <row r="72" ht="19.95" customHeight="1"/>
-    <row r="73" ht="19.95" customHeight="1"/>
-    <row r="74" ht="19.95" customHeight="1"/>
-    <row r="75" ht="19.95" customHeight="1"/>
-    <row r="76" ht="19.95" customHeight="1"/>
-    <row r="77" ht="19.95" customHeight="1"/>
-    <row r="78" ht="19.95" customHeight="1"/>
-    <row r="79" ht="19.95" customHeight="1"/>
-    <row r="80" ht="19.95" customHeight="1"/>
-    <row r="81" ht="19.95" customHeight="1"/>
-    <row r="82" ht="19.95" customHeight="1"/>
+    <row r="26" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="27" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="28" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="29" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="30" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="31" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="32" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="33" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="34" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="35" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="36" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="37" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="38" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="39" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="40" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="41" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="42" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="43" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="44" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="45" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="46" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="47" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="48" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="49" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="50" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="51" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="52" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="53" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="54" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="55" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="56" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="57" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="58" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="59" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="60" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="61" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="62" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="63" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="64" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="65" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="66" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="67" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="68" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="69" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="70" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="71" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="72" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="73" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="74" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="75" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="76" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="77" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="78" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="79" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="80" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="81" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="82" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:D3"/>
@@ -5301,6 +5302,35 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="24" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2d714a3296df14eba7a100bb665443ca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="49549bf45bfbbfb6cffed527380e77e1" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -5588,36 +5618,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5D97E00F-6E84-416B-8452-E6DC935A7A92}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{141D71A4-5CC3-40CD-990C-070FB4B5F315}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B44AF425-737A-413C-9CB5-588E99FE889D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5636,24 +5657,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{141D71A4-5CC3-40CD-990C-070FB4B5F315}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5D97E00F-6E84-416B-8452-E6DC935A7A92}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/00 - Recolha de Requisitos/RegistodePesquisas.xlsx
+++ b/00 - Recolha de Requisitos/RegistodePesquisas.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{727D40B1-4480-4135-8D03-513EF21A95C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A14BEC43-DE9D-4722-A6EE-5521D6DC640B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Brain Storming" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="137">
   <si>
     <t xml:space="preserve">  </t>
   </si>
@@ -513,10 +513,6 @@
  AprilTag2 library</t>
   </si>
   <si>
-    <t>c
-java</t>
-  </si>
-  <si>
     <t>A aplicação trackeou e mostrou de maneira efectiva aângulos baseados nas avaliações obtidas</t>
   </si>
   <si>
@@ -530,6 +526,35 @@
   <si>
     <t xml:space="preserve"> Android  
  IOS                                                                                                                                </t>
+  </si>
+  <si>
+    <t>Motion Capture Technology in Industrial
+Applications: A Systematic Review</t>
+  </si>
+  <si>
+    <t>https://www.mdpi.com/1424-8220/20/19/5687</t>
+  </si>
+  <si>
+    <t>https://www.mdpi.com/2673-8430/2/2/21</t>
+  </si>
+  <si>
+    <t>Matteo Menolotto 
+ Dimitrios-Sokratis Komaris
+Salvatore Tedesco
+Brendan O’Flynn
+ Michael Walsh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Capturar movimentos e capturá-los digitalmente usando cameras de infravermelhos
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Câmaras de infravermelhos</t>
+  </si>
+  <si>
+    <t>Java 
+C</t>
   </si>
 </sst>
 </file>
@@ -537,12 +562,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="6">
-    <numFmt numFmtId="42" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;\ &quot;€&quot;_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="#,##0_ ;\-#,##0\ "/>
-    <numFmt numFmtId="166" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="167" formatCode="0000"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="#,##0_ ;\-#,##0\ "/>
+    <numFmt numFmtId="167" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="168" formatCode="0000"/>
   </numFmts>
   <fonts count="55" x14ac:knownFonts="1">
     <font>
@@ -1254,11 +1279,11 @@
   </borders>
   <cellStyleXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -1302,7 +1327,7 @@
     <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1400,7 +1425,7 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="165" fontId="23" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="23" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1451,7 +1476,7 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1541,56 +1566,59 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="47" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="48">
-    <cellStyle name="20% - Cor1" xfId="25" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Cor2" xfId="28" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Cor3" xfId="32" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Cor4" xfId="36" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Cor5" xfId="40" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Cor6" xfId="44" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Cor1" xfId="26" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Cor2" xfId="29" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Cor3" xfId="33" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Cor4" xfId="37" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Cor5" xfId="41" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Cor6" xfId="45" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Cor1" xfId="2" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Cor2" xfId="30" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Cor3" xfId="34" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Cor4" xfId="38" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Cor5" xfId="42" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Cor6" xfId="46" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Cabeçalho 1" xfId="8" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Cabeçalho 2" xfId="9" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Cabeçalho 3" xfId="10" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Cabeçalho 4" xfId="11" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Cálculo" xfId="17" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Célula Ligada" xfId="18" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Cor1" xfId="24" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Cor2" xfId="27" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Cor3" xfId="31" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Cor4" xfId="35" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Cor5" xfId="39" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Cor6" xfId="43" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Correto" xfId="12" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Entrada" xfId="15" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Hiperligação" xfId="47" builtinId="8"/>
-    <cellStyle name="Incorreto" xfId="13" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Moeda" xfId="4" builtinId="4" customBuiltin="1"/>
-    <cellStyle name="Moeda [0]" xfId="5" builtinId="7" customBuiltin="1"/>
-    <cellStyle name="Neutro" xfId="14" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="28" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="32" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="36" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="40" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="44" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="26" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="29" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="33" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="37" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="41" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="45" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="2" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="30" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="34" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="38" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="42" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="46" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="24" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="27" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="31" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="35" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="39" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="43" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="13" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="17" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3" customBuiltin="1"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6" customBuiltin="1"/>
+    <cellStyle name="Currency" xfId="4" builtinId="4" customBuiltin="1"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="22" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="12" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="8" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="9" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="10" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="11" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8"/>
+    <cellStyle name="Input" xfId="15" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="18" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="14" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
-    <cellStyle name="Nota" xfId="21" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Percentagem" xfId="6" builtinId="5" customBuiltin="1"/>
-    <cellStyle name="Saída" xfId="16" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Separador de milhares [0]" xfId="3" builtinId="6" customBuiltin="1"/>
-    <cellStyle name="Texto de Aviso" xfId="20" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Texto Explicativo" xfId="22" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Título" xfId="7" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Note" xfId="21" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="16" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="7" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="23" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Verificar Célula" xfId="19" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Vírgula" xfId="1" builtinId="3" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="20" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="26">
     <dxf>
@@ -3121,15 +3149,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>72712</xdr:colOff>
+      <xdr:colOff>72711</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>140839</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>4184012</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>100384</xdr:rowOff>
+      <xdr:colOff>4482352</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>2330355</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3152,8 +3180,158 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10763124" y="36212574"/>
-          <a:ext cx="4111300" cy="2189516"/>
+          <a:off x="10920005" y="36234986"/>
+          <a:ext cx="4409641" cy="2189516"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>98612</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>161363</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>4814048</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>4707926</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="Picture 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{825EC2A2-EB80-921B-8DDF-253488A8513C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10954871" y="38664775"/>
+          <a:ext cx="4715436" cy="4546563"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>3316940</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>89645</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>174914</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>2943560</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="Picture 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7BA12C05-2F9D-D89B-EC38-E5240BB9C144}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20116799" y="38593057"/>
+          <a:ext cx="5132397" cy="2853915"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>3290047</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>2939695</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>197224</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>4212066</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="Picture 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9EF87368-D7AC-AF65-1893-79D0A4062268}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20089906" y="41443107"/>
+          <a:ext cx="5181600" cy="1272371"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4298,18 +4476,18 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.69140625" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="10.7265625" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.69140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.07421875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="23.7265625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.08984375" style="1" customWidth="1"/>
     <col min="3" max="3" width="63" style="5" customWidth="1"/>
-    <col min="4" max="4" width="51.69140625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="24.4609375" style="4" customWidth="1"/>
-    <col min="6" max="6" width="1.4609375" style="5" customWidth="1"/>
-    <col min="7" max="16384" width="10.69140625" style="5"/>
+    <col min="4" max="4" width="51.7265625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="24.453125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="1.453125" style="5" customWidth="1"/>
+    <col min="7" max="16384" width="10.7265625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="40.25" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:9" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="11"/>
       <c r="B1" s="78" t="s">
         <v>12</v>
@@ -4317,7 +4495,7 @@
       <c r="C1" s="13"/>
       <c r="D1" s="19"/>
     </row>
-    <row r="2" spans="1:9" s="2" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" s="2" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B2" s="79"/>
       <c r="C2" s="24" t="s">
         <v>1</v>
@@ -4326,23 +4504,23 @@
       <c r="E2" s="6"/>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="1:9" s="2" customFormat="1" ht="40.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" s="2" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="79"/>
       <c r="C3" s="26">
         <f ca="1">TODAY()</f>
-        <v>44856</v>
+        <v>44867</v>
       </c>
       <c r="D3" s="27"/>
       <c r="E3" s="6"/>
       <c r="I3" s="6"/>
     </row>
-    <row r="4" spans="1:9" s="2" customFormat="1" ht="40.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:9" s="2" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="15"/>
       <c r="C4" s="14"/>
       <c r="D4" s="21"/>
       <c r="I4" s="6"/>
     </row>
-    <row r="5" spans="1:9" s="2" customFormat="1" ht="40.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:9" s="2" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="25" t="s">
         <v>2</v>
       </c>
@@ -4358,7 +4536,7 @@
       <c r="E5" s="6"/>
       <c r="I5" s="6"/>
     </row>
-    <row r="6" spans="1:9" s="1" customFormat="1" ht="159.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:9" s="1" customFormat="1" ht="159.44999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="41" t="s">
         <v>87</v>
       </c>
@@ -4373,7 +4551,7 @@
       </c>
       <c r="E6" s="47"/>
     </row>
-    <row r="7" spans="1:9" s="1" customFormat="1" ht="163.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:9" s="1" customFormat="1" ht="163.19999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="41" t="s">
         <v>91</v>
       </c>
@@ -4388,7 +4566,7 @@
       </c>
       <c r="E7" s="47"/>
     </row>
-    <row r="8" spans="1:9" ht="162" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:9" ht="162" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="41" t="s">
         <v>92</v>
       </c>
@@ -4403,7 +4581,7 @@
       </c>
       <c r="E8" s="5"/>
     </row>
-    <row r="9" spans="1:9" ht="159.65" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:9" ht="159.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="41" t="s">
         <v>98</v>
       </c>
@@ -4418,7 +4596,7 @@
       </c>
       <c r="E9" s="5"/>
     </row>
-    <row r="10" spans="1:9" ht="167.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:9" ht="167.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="50" t="s">
         <v>102</v>
       </c>
@@ -4433,163 +4611,163 @@
       </c>
       <c r="E10" s="5"/>
     </row>
-    <row r="11" spans="1:9" ht="156.65" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:9" ht="156.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="54"/>
       <c r="B11" s="54"/>
       <c r="C11" s="54"/>
       <c r="D11" s="54"/>
       <c r="E11" s="5"/>
     </row>
-    <row r="12" spans="1:9" ht="25.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:9" ht="25.2" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="28"/>
       <c r="B12" s="28"/>
       <c r="C12" s="28"/>
       <c r="D12" s="28"/>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" spans="1:9" ht="25.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:9" ht="25.2" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="28"/>
       <c r="B13" s="28"/>
       <c r="C13" s="61"/>
       <c r="D13" s="28"/>
       <c r="E13" s="5"/>
     </row>
-    <row r="14" spans="1:9" ht="25.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:9" ht="25.2" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="28"/>
       <c r="B14" s="28"/>
       <c r="C14" s="28"/>
       <c r="D14" s="28"/>
       <c r="E14" s="5"/>
     </row>
-    <row r="15" spans="1:9" ht="25.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:9" ht="25.2" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="28"/>
       <c r="B15" s="28"/>
       <c r="C15" s="28"/>
       <c r="D15" s="28"/>
       <c r="E15" s="5"/>
     </row>
-    <row r="16" spans="1:9" ht="25.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:9" ht="25.2" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="28"/>
       <c r="B16" s="28"/>
       <c r="C16" s="28"/>
       <c r="D16" s="28"/>
       <c r="E16" s="5"/>
     </row>
-    <row r="17" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="12"/>
       <c r="B17" s="13"/>
       <c r="C17" s="13"/>
       <c r="D17" s="12"/>
       <c r="E17" s="5"/>
     </row>
-    <row r="18" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="12"/>
       <c r="B18" s="13"/>
       <c r="C18" s="13"/>
       <c r="D18" s="12"/>
       <c r="E18" s="5"/>
     </row>
-    <row r="19" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="12"/>
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
       <c r="D19" s="12"/>
       <c r="E19" s="5"/>
     </row>
-    <row r="20" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="12"/>
       <c r="B20" s="13"/>
       <c r="C20" s="12"/>
       <c r="D20" s="20"/>
       <c r="E20" s="5"/>
     </row>
-    <row r="21" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="7"/>
       <c r="B21" s="8"/>
       <c r="C21" s="10"/>
       <c r="D21" s="23"/>
       <c r="E21" s="5"/>
     </row>
-    <row r="22" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="7"/>
       <c r="B22" s="8"/>
       <c r="C22" s="10"/>
       <c r="D22" s="9"/>
       <c r="E22" s="5"/>
     </row>
-    <row r="23" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D23" s="4"/>
       <c r="E23" s="5"/>
     </row>
-    <row r="24" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D24" s="4"/>
       <c r="E24" s="5"/>
     </row>
-    <row r="25" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D25" s="4"/>
       <c r="E25" s="5"/>
     </row>
-    <row r="26" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D26" s="4"/>
       <c r="E26" s="5"/>
     </row>
-    <row r="27" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="28" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="29" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="30" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="31" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="32" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="33" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="34" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="35" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="36" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="37" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="38" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="39" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="40" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="41" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="42" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="43" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="44" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="45" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="46" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="47" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="48" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="49" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="50" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="51" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="52" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="53" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="54" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="55" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="56" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="57" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="58" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="59" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="60" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="61" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="62" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="63" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="64" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="65" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="66" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="67" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="68" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="69" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="70" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="71" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="72" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="73" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="74" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="75" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="76" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="77" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="78" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="79" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="80" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="81" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="82" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="83" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="27" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="28" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="29" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="30" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="31" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="32" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="33" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="34" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="35" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="36" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="37" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="38" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="39" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="40" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="41" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="42" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="43" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="44" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="45" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="46" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="47" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="48" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="49" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="50" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="51" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="52" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="53" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="54" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="55" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="56" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="57" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="58" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="59" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="60" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="61" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="62" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="63" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="64" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="65" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="66" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="67" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="68" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="69" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="70" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="71" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="72" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="73" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="74" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="75" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="76" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="77" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="78" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="79" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="80" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="81" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="82" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="83" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:B3"/>
@@ -4616,27 +4794,27 @@
   </sheetPr>
   <dimension ref="A1:P82"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A18" zoomScale="68" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A20" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.69140625" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="10.7265625" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.69140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.4609375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="33.23046875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="35.07421875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="70.921875" style="5" customWidth="1"/>
-    <col min="6" max="6" width="50.3046875" style="5" customWidth="1"/>
-    <col min="7" max="7" width="23.69140625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="24.69140625" style="4" customWidth="1"/>
-    <col min="9" max="10" width="23.69140625" style="4" customWidth="1"/>
-    <col min="11" max="12" width="24.4609375" style="4" customWidth="1"/>
-    <col min="13" max="13" width="1.4609375" style="5" customWidth="1"/>
-    <col min="14" max="16384" width="10.69140625" style="5"/>
+    <col min="1" max="1" width="23.7265625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.453125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="33.26953125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="35.08984375" style="5" customWidth="1"/>
+    <col min="5" max="5" width="70.90625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="50.26953125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="23.7265625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="24.7265625" style="4" customWidth="1"/>
+    <col min="9" max="10" width="23.7265625" style="4" customWidth="1"/>
+    <col min="11" max="12" width="24.453125" style="4" customWidth="1"/>
+    <col min="13" max="13" width="1.453125" style="5" customWidth="1"/>
+    <col min="14" max="16384" width="10.7265625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="40.25" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:16" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="11"/>
       <c r="B1" s="78" t="s">
         <v>12</v>
@@ -4651,7 +4829,7 @@
       <c r="J1" s="18"/>
       <c r="K1" s="12"/>
     </row>
-    <row r="2" spans="1:16" s="2" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:16" s="2" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B2" s="79"/>
       <c r="C2" s="79"/>
       <c r="D2" s="79"/>
@@ -4667,13 +4845,13 @@
       <c r="L2" s="6"/>
       <c r="P2" s="6"/>
     </row>
-    <row r="3" spans="1:16" s="2" customFormat="1" ht="40.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:16" s="2" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="79"/>
       <c r="C3" s="79"/>
       <c r="D3" s="79"/>
       <c r="E3" s="26">
         <f ca="1">TODAY()</f>
-        <v>44856</v>
+        <v>44867</v>
       </c>
       <c r="F3" s="33"/>
       <c r="G3" s="27"/>
@@ -4684,7 +4862,7 @@
       <c r="L3" s="6"/>
       <c r="P3" s="6"/>
     </row>
-    <row r="4" spans="1:16" s="2" customFormat="1" ht="40.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:16" s="2" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="15"/>
       <c r="C4" s="14"/>
       <c r="D4" s="34"/>
@@ -4699,7 +4877,7 @@
       <c r="K4" s="17"/>
       <c r="P4" s="6"/>
     </row>
-    <row r="5" spans="1:16" s="2" customFormat="1" ht="40.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:16" s="2" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="25" t="s">
         <v>2</v>
       </c>
@@ -4734,7 +4912,7 @@
       <c r="L5" s="6"/>
       <c r="P5" s="6"/>
     </row>
-    <row r="6" spans="1:16" s="1" customFormat="1" ht="159.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" s="1" customFormat="1" ht="159.44999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="41" t="s">
         <v>19</v>
       </c>
@@ -4766,7 +4944,7 @@
       <c r="K6" s="12"/>
       <c r="L6" s="47"/>
     </row>
-    <row r="7" spans="1:16" s="1" customFormat="1" ht="163.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:16" s="1" customFormat="1" ht="163.19999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="41" t="s">
         <v>26</v>
       </c>
@@ -4795,7 +4973,7 @@
       </c>
       <c r="K7" s="13"/>
     </row>
-    <row r="8" spans="1:16" ht="162" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:16" ht="162" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="41" t="s">
         <v>28</v>
       </c>
@@ -4823,7 +5001,7 @@
       <c r="K8" s="13"/>
       <c r="L8" s="5"/>
     </row>
-    <row r="9" spans="1:16" ht="159.65" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:16" ht="159.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="41" t="s">
         <v>38</v>
       </c>
@@ -4855,7 +5033,7 @@
       <c r="K9" s="42"/>
       <c r="L9" s="5"/>
     </row>
-    <row r="10" spans="1:16" ht="167.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:16" ht="167.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="50" t="s">
         <v>41</v>
       </c>
@@ -4887,7 +5065,7 @@
       <c r="K10" s="13"/>
       <c r="L10" s="5"/>
     </row>
-    <row r="11" spans="1:16" ht="156.65" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:16" ht="156.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="54" t="s">
         <v>48</v>
       </c>
@@ -4917,7 +5095,7 @@
       <c r="K11" s="13"/>
       <c r="L11" s="5"/>
     </row>
-    <row r="12" spans="1:16" ht="197.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:16" ht="197.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="41" t="s">
         <v>55</v>
       </c>
@@ -4947,7 +5125,7 @@
       <c r="K12" s="13"/>
       <c r="L12" s="5"/>
     </row>
-    <row r="13" spans="1:16" ht="204.65" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:16" ht="204.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="41" t="s">
         <v>66</v>
       </c>
@@ -4979,7 +5157,7 @@
       <c r="K13" s="13"/>
       <c r="L13" s="5"/>
     </row>
-    <row r="14" spans="1:16" ht="161.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:16" ht="161.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="41" t="s">
         <v>72</v>
       </c>
@@ -5011,7 +5189,7 @@
       <c r="K14" s="13"/>
       <c r="L14" s="5"/>
     </row>
-    <row r="15" spans="1:16" ht="185" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:16" ht="184.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="57" t="s">
         <v>79</v>
       </c>
@@ -5039,7 +5217,7 @@
       <c r="K15" s="13"/>
       <c r="L15" s="5"/>
     </row>
-    <row r="16" spans="1:16" s="68" customFormat="1" ht="386.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:16" s="68" customFormat="1" ht="386.55" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="62" t="s">
         <v>103</v>
       </c>
@@ -5066,7 +5244,7 @@
       </c>
       <c r="K16" s="67"/>
     </row>
-    <row r="17" spans="1:12" ht="148.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:12" ht="148.19999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="70" t="s">
         <v>110</v>
       </c>
@@ -5077,7 +5255,7 @@
         <v>112</v>
       </c>
       <c r="D17" s="72" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E17" s="74" t="s">
         <v>113</v>
@@ -5098,7 +5276,7 @@
       <c r="K17" s="13"/>
       <c r="L17" s="5"/>
     </row>
-    <row r="18" spans="1:12" s="68" customFormat="1" ht="386.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:12" s="68" customFormat="1" ht="386.55" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="62" t="s">
         <v>117</v>
       </c>
@@ -5119,7 +5297,7 @@
       </c>
       <c r="G18" s="69"/>
       <c r="H18" s="64" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I18" s="65" t="s">
         <v>120</v>
@@ -5129,7 +5307,7 @@
       </c>
       <c r="K18" s="67"/>
     </row>
-    <row r="19" spans="1:12" ht="156" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:12" ht="191.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="75" t="s">
         <v>122</v>
       </c>
@@ -5144,34 +5322,49 @@
       <c r="F19" s="76" t="s">
         <v>125</v>
       </c>
-      <c r="G19" s="38" t="s">
+      <c r="G19" s="76" t="s">
+        <v>136</v>
+      </c>
+      <c r="H19" s="76" t="s">
         <v>126</v>
       </c>
-      <c r="H19" s="76" t="s">
+      <c r="I19" s="77" t="s">
         <v>127</v>
       </c>
-      <c r="I19" s="77" t="s">
-        <v>128</v>
-      </c>
-      <c r="J19" s="13"/>
+      <c r="J19" s="80" t="s">
+        <v>132</v>
+      </c>
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
     </row>
-    <row r="20" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="7"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
+    <row r="20" spans="1:12" s="68" customFormat="1" ht="386.55" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="62" t="s">
+        <v>130</v>
+      </c>
+      <c r="B20" s="63" t="s">
+        <v>134</v>
+      </c>
+      <c r="C20" s="63" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20" s="63" t="s">
+        <v>135</v>
+      </c>
+      <c r="E20" s="38"/>
+      <c r="F20" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="G20" s="69"/>
+      <c r="H20" s="64"/>
+      <c r="I20" s="65" t="s">
+        <v>133</v>
+      </c>
+      <c r="J20" s="66" t="s">
+        <v>131</v>
+      </c>
+      <c r="K20" s="67"/>
     </row>
-    <row r="21" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="7"/>
       <c r="B21" s="8"/>
       <c r="C21" s="9"/>
@@ -5185,81 +5378,81 @@
       <c r="K21" s="5"/>
       <c r="L21" s="5"/>
     </row>
-    <row r="22" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="G22" s="4"/>
       <c r="J22" s="9"/>
       <c r="L22" s="5"/>
     </row>
-    <row r="23" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="G23" s="4"/>
       <c r="J23" s="9"/>
       <c r="L23" s="5"/>
     </row>
-    <row r="24" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="G24" s="4"/>
       <c r="L24" s="5"/>
     </row>
-    <row r="25" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="G25" s="4"/>
       <c r="L25" s="5"/>
     </row>
-    <row r="26" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="27" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="28" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="29" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="30" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="31" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="32" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="33" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="34" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="35" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="36" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="37" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="38" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="39" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="40" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="41" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="42" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="43" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="44" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="45" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="46" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="47" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="48" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="49" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="50" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="51" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="52" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="53" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="54" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="55" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="56" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="57" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="58" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="59" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="60" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="61" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="62" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="63" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="64" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="65" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="66" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="67" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="68" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="69" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="70" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="71" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="72" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="73" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="74" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="75" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="76" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="77" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="78" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="79" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="80" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="81" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="82" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="26" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="27" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="28" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="29" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="30" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="31" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="32" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="33" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="34" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="35" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="36" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="37" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="38" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="39" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="40" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="41" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="42" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="43" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="44" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="45" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="46" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="47" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="48" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="49" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="50" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="51" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="52" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="53" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="54" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="55" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="56" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="57" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="58" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="59" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="60" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="61" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="62" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="63" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="64" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="65" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="66" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="67" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="68" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="69" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="70" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="71" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="72" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="73" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="74" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="75" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="76" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="77" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="78" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="79" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="80" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="81" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="82" ht="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:D3"/>
@@ -5276,7 +5469,7 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Introduza a data do casamento nesta célula" sqref="G4 E3" xr:uid="{BCA61B36-4BFD-444C-AEE2-826623C012F2}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Estas células calculam automaticamente o número de dias até ao seu casamento" sqref="H4 F3" xr:uid="{F0D2661E-3FCC-4FEB-B22A-39365F7C7DB8}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Esta célula calcula automaticamente o número total de pessoas a quem enviou convites" sqref="I2:I4 G3" xr:uid="{73A5FDEE-6EDC-42CF-B484-04E99BE8F286}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Esta célula calcula automaticamente o número total de pessoas que confirmaram a presença" sqref="J2:J4 H3 G20" xr:uid="{FFB6FB26-5678-431C-BD54-FF379DC920D3}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Esta célula calcula automaticamente o número total de pessoas que confirmaram a presença" sqref="J2:J4 H3" xr:uid="{FFB6FB26-5678-431C-BD54-FF379DC920D3}"/>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="J6" r:id="rId1" xr:uid="{9C5F7A39-45A7-4854-A959-44BDC3812189}"/>
@@ -5290,47 +5483,20 @@
     <hyperlink ref="J15" r:id="rId9" xr:uid="{1F3052D7-D354-4558-A0C3-60761279903A}"/>
     <hyperlink ref="J16" r:id="rId10" xr:uid="{44BF53B1-C1BB-4504-B4FA-BB443EBBD225}"/>
     <hyperlink ref="J18" r:id="rId11" xr:uid="{48D2BFCE-7B4C-4192-9698-83D7622621CC}"/>
+    <hyperlink ref="J20" r:id="rId12" xr:uid="{3D88643C-594B-4FD1-875C-62F4C9943EED}"/>
+    <hyperlink ref="J19" r:id="rId13" xr:uid="{3B133B61-B0FE-4EFE-B8BE-33BD5DF9D2C2}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="52" fitToHeight="0" orientation="landscape" r:id="rId12"/>
-  <drawing r:id="rId13"/>
+  <pageSetup paperSize="9" scale="52" fitToHeight="0" orientation="landscape" r:id="rId14"/>
+  <drawing r:id="rId15"/>
   <tableParts count="1">
-    <tablePart r:id="rId14"/>
+    <tablePart r:id="rId16"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="24" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2d714a3296df14eba7a100bb665443ca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="49549bf45bfbbfb6cffed527380e77e1" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -5618,27 +5784,36 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5D97E00F-6E84-416B-8452-E6DC935A7A92}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{141D71A4-5CC3-40CD-990C-070FB4B5F315}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B44AF425-737A-413C-9CB5-588E99FE889D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5657,4 +5832,24 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{141D71A4-5CC3-40CD-990C-070FB4B5F315}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5D97E00F-6E84-416B-8452-E6DC935A7A92}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/00 - Recolha de Requisitos/RegistodePesquisas.xlsx
+++ b/00 - Recolha de Requisitos/RegistodePesquisas.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A14BEC43-DE9D-4722-A6EE-5521D6DC640B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B565C896-41CD-4E11-8E8B-EAEF8CE17C36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-5748" yWindow="4812" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Brain Storming" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="142">
   <si>
     <t xml:space="preserve">  </t>
   </si>
@@ -556,18 +556,35 @@
     <t>Java 
 C</t>
   </si>
+  <si>
+    <t>MOTION DETECTION IN VIDEO CAMERA IMAGES</t>
+  </si>
+  <si>
+    <t>Aplicação Web para classificação automática de movimentos em imagens gerados por 
+câmeras de vídeo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Smartphone 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Os experimentos foram realizados com vídeos obtidos de uma base disponível na Web e  elaborados pelos autores. Primeiramente é detectado o contorno da pessoa no vídeo fazendo o uso de métodos como o saliency map, filtros de binarização e detecção de bordas; em seguida, definem-se os  bounding box dos contornos detectados, e a partir deles é feita a extração de características utilizando sobreposição de contornos e a divisão da imagem por regiões. Para a fase de treinamento e classificação dos contornos detectados, foi utilizado o classificador SVM. </t>
+  </si>
+  <si>
+    <t>Colloquium Exactarum</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="6">
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;\ &quot;€&quot;_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="#,##0_ ;\-#,##0\ "/>
-    <numFmt numFmtId="167" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="168" formatCode="0000"/>
+    <numFmt numFmtId="42" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="#,##0_ ;\-#,##0\ "/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="0000"/>
   </numFmts>
   <fonts count="55" x14ac:knownFonts="1">
     <font>
@@ -1279,11 +1296,11 @@
   </borders>
   <cellStyleXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -1327,7 +1344,7 @@
     <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1425,7 +1442,7 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="166" fontId="23" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="23" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1476,7 +1493,7 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1560,65 +1577,80 @@
     <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="47" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="47" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="48">
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="28" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="32" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="36" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="40" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="44" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="26" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="29" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="33" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="37" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="41" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="45" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="2" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="30" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="34" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="38" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="42" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="46" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="24" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="27" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="31" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="35" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="39" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="43" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="13" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="17" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="19" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3" customBuiltin="1"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6" customBuiltin="1"/>
-    <cellStyle name="Currency" xfId="4" builtinId="4" customBuiltin="1"/>
-    <cellStyle name="Currency [0]" xfId="5" builtinId="7" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="22" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="12" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="8" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="9" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="10" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="11" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Hyperlink" xfId="47" builtinId="8"/>
-    <cellStyle name="Input" xfId="15" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="18" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="14" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="20% - Cor1" xfId="25" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Cor2" xfId="28" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Cor3" xfId="32" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Cor4" xfId="36" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Cor5" xfId="40" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Cor6" xfId="44" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Cor1" xfId="26" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Cor2" xfId="29" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Cor3" xfId="33" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Cor4" xfId="37" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Cor5" xfId="41" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Cor6" xfId="45" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Cor1" xfId="2" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Cor2" xfId="30" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Cor3" xfId="34" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Cor4" xfId="38" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Cor5" xfId="42" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Cor6" xfId="46" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Cabeçalho 1" xfId="8" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Cabeçalho 2" xfId="9" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Cabeçalho 3" xfId="10" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Cabeçalho 4" xfId="11" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Cálculo" xfId="17" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Célula Ligada" xfId="18" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Cor1" xfId="24" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Cor2" xfId="27" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Cor3" xfId="31" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Cor4" xfId="35" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Cor5" xfId="39" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Cor6" xfId="43" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Correto" xfId="12" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Entrada" xfId="15" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Hiperligação" xfId="47" builtinId="8"/>
+    <cellStyle name="Incorreto" xfId="13" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Moeda" xfId="4" builtinId="4" customBuiltin="1"/>
+    <cellStyle name="Moeda [0]" xfId="5" builtinId="7" customBuiltin="1"/>
+    <cellStyle name="Neutro" xfId="14" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
-    <cellStyle name="Note" xfId="21" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="16" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="7" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Nota" xfId="21" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Percentagem" xfId="6" builtinId="5" customBuiltin="1"/>
+    <cellStyle name="Saída" xfId="16" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Separador de milhares [0]" xfId="3" builtinId="6" customBuiltin="1"/>
+    <cellStyle name="Texto de Aviso" xfId="20" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Texto Explicativo" xfId="22" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Título" xfId="7" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="23" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="20" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Verificar Célula" xfId="19" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Vírgula" xfId="1" builtinId="3" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="26">
     <dxf>
@@ -4489,14 +4521,14 @@
   <sheetData>
     <row r="1" spans="1:9" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="11"/>
-      <c r="B1" s="78" t="s">
+      <c r="B1" s="79" t="s">
         <v>12</v>
       </c>
       <c r="C1" s="13"/>
       <c r="D1" s="19"/>
     </row>
     <row r="2" spans="1:9" s="2" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="79"/>
+      <c r="B2" s="80"/>
       <c r="C2" s="24" t="s">
         <v>1</v>
       </c>
@@ -4505,10 +4537,10 @@
       <c r="I2" s="6"/>
     </row>
     <row r="3" spans="1:9" s="2" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="79"/>
+      <c r="B3" s="80"/>
       <c r="C3" s="26">
         <f ca="1">TODAY()</f>
-        <v>44867</v>
+        <v>44868</v>
       </c>
       <c r="D3" s="27"/>
       <c r="E3" s="6"/>
@@ -4794,8 +4826,8 @@
   </sheetPr>
   <dimension ref="A1:P82"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A20" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G21" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7265625" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4816,11 +4848,11 @@
   <sheetData>
     <row r="1" spans="1:16" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="11"/>
-      <c r="B1" s="78" t="s">
+      <c r="B1" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
       <c r="E1" s="13"/>
       <c r="F1" s="13"/>
       <c r="G1" s="19"/>
@@ -4830,9 +4862,9 @@
       <c r="K1" s="12"/>
     </row>
     <row r="2" spans="1:16" s="2" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
       <c r="E2" s="24" t="s">
         <v>1</v>
       </c>
@@ -4846,12 +4878,12 @@
       <c r="P2" s="6"/>
     </row>
     <row r="3" spans="1:16" s="2" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="79"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
       <c r="E3" s="26">
         <f ca="1">TODAY()</f>
-        <v>44867</v>
+        <v>44868</v>
       </c>
       <c r="F3" s="33"/>
       <c r="G3" s="27"/>
@@ -4912,7 +4944,7 @@
       <c r="L5" s="6"/>
       <c r="P5" s="6"/>
     </row>
-    <row r="6" spans="1:16" s="1" customFormat="1" ht="159.44999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" s="1" customFormat="1" ht="159.44999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="41" t="s">
         <v>19</v>
       </c>
@@ -5331,7 +5363,7 @@
       <c r="I19" s="77" t="s">
         <v>127</v>
       </c>
-      <c r="J19" s="80" t="s">
+      <c r="J19" s="78" t="s">
         <v>132</v>
       </c>
       <c r="K19" s="5"/>
@@ -5364,18 +5396,32 @@
       </c>
       <c r="K20" s="67"/>
     </row>
-    <row r="21" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="7"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="5"/>
+    <row r="21" spans="1:12" ht="159" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="85" t="s">
+        <v>137</v>
+      </c>
+      <c r="B21" s="81" t="s">
+        <v>138</v>
+      </c>
+      <c r="C21" s="82" t="s">
+        <v>67</v>
+      </c>
+      <c r="D21" s="83" t="s">
+        <v>139</v>
+      </c>
+      <c r="E21" s="74" t="s">
+        <v>140</v>
+      </c>
+      <c r="F21" s="83" t="s">
+        <v>67</v>
+      </c>
+      <c r="G21" s="82"/>
+      <c r="H21" s="82"/>
+      <c r="I21" s="74" t="s">
+        <v>141</v>
+      </c>
+      <c r="J21" s="72"/>
+      <c r="K21" s="84"/>
       <c r="L21" s="5"/>
     </row>
     <row r="22" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -5497,6 +5543,35 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="24" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2d714a3296df14eba7a100bb665443ca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="49549bf45bfbbfb6cffed527380e77e1" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -5784,36 +5859,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5D97E00F-6E84-416B-8452-E6DC935A7A92}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{141D71A4-5CC3-40CD-990C-070FB4B5F315}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B44AF425-737A-413C-9CB5-588E99FE889D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5832,24 +5898,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{141D71A4-5CC3-40CD-990C-070FB4B5F315}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5D97E00F-6E84-416B-8452-E6DC935A7A92}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>